--- a/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/Reporting Financial Calculations.xlsx
+++ b/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/Reporting Financial Calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="9750"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Finance 2" sheetId="4" r:id="rId1"/>
@@ -17,37 +17,37 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="ActualCumulativeCo">[2]ReportInformation!$X$11</definedName>
-    <definedName name="ActualCumulativeEIF">[2]ReportInformation!$W$11</definedName>
-    <definedName name="AssetTypeItems">'[2]Data- TO BE HIDDEN'!$I$2:$I$4</definedName>
-    <definedName name="CHANGELIGHT">'[2]5.Changes'!$M$28</definedName>
-    <definedName name="Check1">'[2]1.Header'!$D$37</definedName>
-    <definedName name="Check2">'[2]1.Header'!$D$39</definedName>
-    <definedName name="CommsType">'[2]Data- TO BE HIDDEN'!$C$2:$C$9</definedName>
-    <definedName name="COMMUNICATIONLIGHT">'[2]8.Communications'!$H$43</definedName>
-    <definedName name="DEPENDENCYLIGHT">'[2]6.Dependencies'!$G$24</definedName>
-    <definedName name="EarliestDate">'[2]Data- TO BE HIDDEN'!$F$2</definedName>
+    <definedName name="ActualCumulativeCo">[1]ReportInformation!$X$11</definedName>
+    <definedName name="ActualCumulativeEIF">[1]ReportInformation!$W$11</definedName>
+    <definedName name="AssetTypeItems">'[1]Data- TO BE HIDDEN'!$I$2:$I$4</definedName>
+    <definedName name="CHANGELIGHT">'[1]5.Changes'!$M$28</definedName>
+    <definedName name="Check1">'[1]1.Header'!$D$37</definedName>
+    <definedName name="Check2">'[1]1.Header'!$D$39</definedName>
+    <definedName name="CommsType">'[1]Data- TO BE HIDDEN'!$C$2:$C$9</definedName>
+    <definedName name="COMMUNICATIONLIGHT">'[1]8.Communications'!$H$43</definedName>
+    <definedName name="DEPENDENCYLIGHT">'[1]6.Dependencies'!$G$24</definedName>
+    <definedName name="EarliestDate">'[1]Data- TO BE HIDDEN'!$F$2</definedName>
     <definedName name="FINANCELIGHT">'Finance 2'!$T$29</definedName>
     <definedName name="FINANCESTART">'Finance 2'!$D$25</definedName>
-    <definedName name="ISSUELIGHT">'[2]3.Issues'!$K$28</definedName>
-    <definedName name="LastDateReport" localSheetId="1">[1]RT029!$C$13</definedName>
-    <definedName name="LastDateReport">'[2]1.Header'!$G$16</definedName>
+    <definedName name="ISSUELIGHT">'[1]3.Issues'!$K$28</definedName>
+    <definedName name="LastDateReport" localSheetId="1">[2]RT029!$C$13</definedName>
+    <definedName name="LastDateReport">'[1]1.Header'!$G$16</definedName>
     <definedName name="LASTQUARTER">'Finance 2'!$I$29</definedName>
-    <definedName name="LatestDate">'[2]Data- TO BE HIDDEN'!$G$2</definedName>
-    <definedName name="MEASURELIGHT">'[2]7.Measures'!$Q$46</definedName>
-    <definedName name="MILESTONELIGHT">'[2]2.Milestones'!$P$37</definedName>
+    <definedName name="LatestDate">'[1]Data- TO BE HIDDEN'!$G$2</definedName>
+    <definedName name="MEASURELIGHT">'[1]7.Measures'!$Q$46</definedName>
+    <definedName name="MILESTONELIGHT">'[1]2.Milestones'!$P$37</definedName>
     <definedName name="OLE_LINK3" localSheetId="1">Sheet1!$A$4</definedName>
-    <definedName name="OVERALLLIGHT">'[2]1.Header'!$AE$32</definedName>
-    <definedName name="PercentageListItems">'[2]Data- TO BE HIDDEN'!$B$2:$B$6</definedName>
+    <definedName name="OVERALLLIGHT">'[1]1.Header'!$AE$32</definedName>
+    <definedName name="PercentageListItems">'[1]Data- TO BE HIDDEN'!$B$2:$B$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Finance 2'!$B$11:$M$102</definedName>
-    <definedName name="ProjName">'[2]1.Header'!$G$14</definedName>
-    <definedName name="ProjNo">'[2]1.Header'!$D$14</definedName>
-    <definedName name="ReportFrom">'[2]1.Header'!$G$15</definedName>
-    <definedName name="RISKLIGHT">'[2]4.Risks'!$G$25</definedName>
-    <definedName name="RiskRating">'[2]Data- TO BE HIDDEN'!$D$2:$D$4</definedName>
-    <definedName name="StatusItems">'[2]Data- TO BE HIDDEN'!$H$2:$H$4</definedName>
+    <definedName name="ProjName">'[1]1.Header'!$G$14</definedName>
+    <definedName name="ProjNo">'[1]1.Header'!$D$14</definedName>
+    <definedName name="ReportFrom">'[1]1.Header'!$G$15</definedName>
+    <definedName name="RISKLIGHT">'[1]4.Risks'!$G$25</definedName>
+    <definedName name="RiskRating">'[1]Data- TO BE HIDDEN'!$D$2:$D$4</definedName>
+    <definedName name="StatusItems">'[1]Data- TO BE HIDDEN'!$H$2:$H$4</definedName>
     <definedName name="TOTALEIF">'Finance 2'!$E$20</definedName>
-    <definedName name="YesNo">'[2]Data- TO BE HIDDEN'!$E$2:$E$3</definedName>
+    <definedName name="YesNo">'[1]Data- TO BE HIDDEN'!$E$2:$E$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
   <si>
     <t>Milestone</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>1.Header</t>
+  </si>
+  <si>
+    <t>total combined?</t>
   </si>
 </sst>
 </file>
@@ -1628,9 +1631,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1653,32 +1653,11 @@
     <xf numFmtId="17" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="12" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1774,21 +1753,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1798,59 +1768,14 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1899,24 +1824,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1970,6 +1877,102 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -2694,6 +2697,24 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <sz val="10"/>
         <color rgb="FF000000"/>
@@ -3938,24 +3959,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3965,59 +3968,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RT001"/>
-      <sheetName val="RT007"/>
-      <sheetName val="RT009"/>
-      <sheetName val="RT012"/>
-      <sheetName val="RT014"/>
-      <sheetName val="RT015"/>
-      <sheetName val="RT016"/>
-      <sheetName val="RT017"/>
-      <sheetName val="RT020"/>
-      <sheetName val="RT022"/>
-      <sheetName val="RT025"/>
-      <sheetName val="RT029"/>
-      <sheetName val="RT031"/>
-      <sheetName val="RT035"/>
-      <sheetName val="RT038"/>
-      <sheetName val="RT043"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="13">
-          <cell r="C13">
-            <v>41274</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4108,7 +4058,7 @@
       <sheetData sheetId="7">
         <row r="43">
           <cell r="H43" t="str">
-            <v>AMBER</v>
+            <v>GREEN</v>
           </cell>
         </row>
       </sheetData>
@@ -4223,6 +4173,59 @@
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RT001"/>
+      <sheetName val="RT007"/>
+      <sheetName val="RT009"/>
+      <sheetName val="RT012"/>
+      <sheetName val="RT014"/>
+      <sheetName val="RT015"/>
+      <sheetName val="RT016"/>
+      <sheetName val="RT017"/>
+      <sheetName val="RT020"/>
+      <sheetName val="RT022"/>
+      <sheetName val="RT025"/>
+      <sheetName val="RT029"/>
+      <sheetName val="RT031"/>
+      <sheetName val="RT035"/>
+      <sheetName val="RT038"/>
+      <sheetName val="RT043"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="13">
+          <cell r="C13">
+            <v>41274</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4518,2827 +4521,2821 @@
   </sheetPr>
   <dimension ref="A1:WVW57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="13" style="29" customWidth="1"/>
-    <col min="6" max="8" width="14" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="29" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="29" customWidth="1"/>
-    <col min="12" max="12" width="14" style="29" customWidth="1"/>
-    <col min="13" max="13" width="17" style="29" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="29" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="29" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="29" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="29" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="34.42578125" style="29" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" style="29" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="29" customWidth="1"/>
-    <col min="22" max="258" width="8.85546875" style="29"/>
-    <col min="259" max="259" width="9.7109375" style="29" customWidth="1"/>
-    <col min="260" max="260" width="21.85546875" style="29" customWidth="1"/>
-    <col min="261" max="261" width="13" style="29" customWidth="1"/>
-    <col min="262" max="264" width="14" style="29" customWidth="1"/>
-    <col min="265" max="265" width="17.140625" style="29" customWidth="1"/>
-    <col min="266" max="266" width="17.7109375" style="29" customWidth="1"/>
-    <col min="267" max="267" width="16.28515625" style="29" customWidth="1"/>
-    <col min="268" max="268" width="14" style="29" customWidth="1"/>
-    <col min="269" max="269" width="17" style="29" customWidth="1"/>
-    <col min="270" max="270" width="14.42578125" style="29" customWidth="1"/>
-    <col min="271" max="514" width="8.85546875" style="29"/>
-    <col min="515" max="515" width="9.7109375" style="29" customWidth="1"/>
-    <col min="516" max="516" width="21.85546875" style="29" customWidth="1"/>
-    <col min="517" max="517" width="13" style="29" customWidth="1"/>
-    <col min="518" max="520" width="14" style="29" customWidth="1"/>
-    <col min="521" max="521" width="17.140625" style="29" customWidth="1"/>
-    <col min="522" max="522" width="17.7109375" style="29" customWidth="1"/>
-    <col min="523" max="523" width="16.28515625" style="29" customWidth="1"/>
-    <col min="524" max="524" width="14" style="29" customWidth="1"/>
-    <col min="525" max="525" width="17" style="29" customWidth="1"/>
-    <col min="526" max="526" width="14.42578125" style="29" customWidth="1"/>
-    <col min="527" max="770" width="8.85546875" style="29"/>
-    <col min="771" max="771" width="9.7109375" style="29" customWidth="1"/>
-    <col min="772" max="772" width="21.85546875" style="29" customWidth="1"/>
-    <col min="773" max="773" width="13" style="29" customWidth="1"/>
-    <col min="774" max="776" width="14" style="29" customWidth="1"/>
-    <col min="777" max="777" width="17.140625" style="29" customWidth="1"/>
-    <col min="778" max="778" width="17.7109375" style="29" customWidth="1"/>
-    <col min="779" max="779" width="16.28515625" style="29" customWidth="1"/>
-    <col min="780" max="780" width="14" style="29" customWidth="1"/>
-    <col min="781" max="781" width="17" style="29" customWidth="1"/>
-    <col min="782" max="782" width="14.42578125" style="29" customWidth="1"/>
-    <col min="783" max="1026" width="8.85546875" style="29"/>
-    <col min="1027" max="1027" width="9.7109375" style="29" customWidth="1"/>
-    <col min="1028" max="1028" width="21.85546875" style="29" customWidth="1"/>
-    <col min="1029" max="1029" width="13" style="29" customWidth="1"/>
-    <col min="1030" max="1032" width="14" style="29" customWidth="1"/>
-    <col min="1033" max="1033" width="17.140625" style="29" customWidth="1"/>
-    <col min="1034" max="1034" width="17.7109375" style="29" customWidth="1"/>
-    <col min="1035" max="1035" width="16.28515625" style="29" customWidth="1"/>
-    <col min="1036" max="1036" width="14" style="29" customWidth="1"/>
-    <col min="1037" max="1037" width="17" style="29" customWidth="1"/>
-    <col min="1038" max="1038" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1039" max="1282" width="8.85546875" style="29"/>
-    <col min="1283" max="1283" width="9.7109375" style="29" customWidth="1"/>
-    <col min="1284" max="1284" width="21.85546875" style="29" customWidth="1"/>
-    <col min="1285" max="1285" width="13" style="29" customWidth="1"/>
-    <col min="1286" max="1288" width="14" style="29" customWidth="1"/>
-    <col min="1289" max="1289" width="17.140625" style="29" customWidth="1"/>
-    <col min="1290" max="1290" width="17.7109375" style="29" customWidth="1"/>
-    <col min="1291" max="1291" width="16.28515625" style="29" customWidth="1"/>
-    <col min="1292" max="1292" width="14" style="29" customWidth="1"/>
-    <col min="1293" max="1293" width="17" style="29" customWidth="1"/>
-    <col min="1294" max="1294" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1295" max="1538" width="8.85546875" style="29"/>
-    <col min="1539" max="1539" width="9.7109375" style="29" customWidth="1"/>
-    <col min="1540" max="1540" width="21.85546875" style="29" customWidth="1"/>
-    <col min="1541" max="1541" width="13" style="29" customWidth="1"/>
-    <col min="1542" max="1544" width="14" style="29" customWidth="1"/>
-    <col min="1545" max="1545" width="17.140625" style="29" customWidth="1"/>
-    <col min="1546" max="1546" width="17.7109375" style="29" customWidth="1"/>
-    <col min="1547" max="1547" width="16.28515625" style="29" customWidth="1"/>
-    <col min="1548" max="1548" width="14" style="29" customWidth="1"/>
-    <col min="1549" max="1549" width="17" style="29" customWidth="1"/>
-    <col min="1550" max="1550" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1551" max="1794" width="8.85546875" style="29"/>
-    <col min="1795" max="1795" width="9.7109375" style="29" customWidth="1"/>
-    <col min="1796" max="1796" width="21.85546875" style="29" customWidth="1"/>
-    <col min="1797" max="1797" width="13" style="29" customWidth="1"/>
-    <col min="1798" max="1800" width="14" style="29" customWidth="1"/>
-    <col min="1801" max="1801" width="17.140625" style="29" customWidth="1"/>
-    <col min="1802" max="1802" width="17.7109375" style="29" customWidth="1"/>
-    <col min="1803" max="1803" width="16.28515625" style="29" customWidth="1"/>
-    <col min="1804" max="1804" width="14" style="29" customWidth="1"/>
-    <col min="1805" max="1805" width="17" style="29" customWidth="1"/>
-    <col min="1806" max="1806" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1807" max="2050" width="8.85546875" style="29"/>
-    <col min="2051" max="2051" width="9.7109375" style="29" customWidth="1"/>
-    <col min="2052" max="2052" width="21.85546875" style="29" customWidth="1"/>
-    <col min="2053" max="2053" width="13" style="29" customWidth="1"/>
-    <col min="2054" max="2056" width="14" style="29" customWidth="1"/>
-    <col min="2057" max="2057" width="17.140625" style="29" customWidth="1"/>
-    <col min="2058" max="2058" width="17.7109375" style="29" customWidth="1"/>
-    <col min="2059" max="2059" width="16.28515625" style="29" customWidth="1"/>
-    <col min="2060" max="2060" width="14" style="29" customWidth="1"/>
-    <col min="2061" max="2061" width="17" style="29" customWidth="1"/>
-    <col min="2062" max="2062" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2063" max="2306" width="8.85546875" style="29"/>
-    <col min="2307" max="2307" width="9.7109375" style="29" customWidth="1"/>
-    <col min="2308" max="2308" width="21.85546875" style="29" customWidth="1"/>
-    <col min="2309" max="2309" width="13" style="29" customWidth="1"/>
-    <col min="2310" max="2312" width="14" style="29" customWidth="1"/>
-    <col min="2313" max="2313" width="17.140625" style="29" customWidth="1"/>
-    <col min="2314" max="2314" width="17.7109375" style="29" customWidth="1"/>
-    <col min="2315" max="2315" width="16.28515625" style="29" customWidth="1"/>
-    <col min="2316" max="2316" width="14" style="29" customWidth="1"/>
-    <col min="2317" max="2317" width="17" style="29" customWidth="1"/>
-    <col min="2318" max="2318" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2319" max="2562" width="8.85546875" style="29"/>
-    <col min="2563" max="2563" width="9.7109375" style="29" customWidth="1"/>
-    <col min="2564" max="2564" width="21.85546875" style="29" customWidth="1"/>
-    <col min="2565" max="2565" width="13" style="29" customWidth="1"/>
-    <col min="2566" max="2568" width="14" style="29" customWidth="1"/>
-    <col min="2569" max="2569" width="17.140625" style="29" customWidth="1"/>
-    <col min="2570" max="2570" width="17.7109375" style="29" customWidth="1"/>
-    <col min="2571" max="2571" width="16.28515625" style="29" customWidth="1"/>
-    <col min="2572" max="2572" width="14" style="29" customWidth="1"/>
-    <col min="2573" max="2573" width="17" style="29" customWidth="1"/>
-    <col min="2574" max="2574" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2575" max="2818" width="8.85546875" style="29"/>
-    <col min="2819" max="2819" width="9.7109375" style="29" customWidth="1"/>
-    <col min="2820" max="2820" width="21.85546875" style="29" customWidth="1"/>
-    <col min="2821" max="2821" width="13" style="29" customWidth="1"/>
-    <col min="2822" max="2824" width="14" style="29" customWidth="1"/>
-    <col min="2825" max="2825" width="17.140625" style="29" customWidth="1"/>
-    <col min="2826" max="2826" width="17.7109375" style="29" customWidth="1"/>
-    <col min="2827" max="2827" width="16.28515625" style="29" customWidth="1"/>
-    <col min="2828" max="2828" width="14" style="29" customWidth="1"/>
-    <col min="2829" max="2829" width="17" style="29" customWidth="1"/>
-    <col min="2830" max="2830" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2831" max="3074" width="8.85546875" style="29"/>
-    <col min="3075" max="3075" width="9.7109375" style="29" customWidth="1"/>
-    <col min="3076" max="3076" width="21.85546875" style="29" customWidth="1"/>
-    <col min="3077" max="3077" width="13" style="29" customWidth="1"/>
-    <col min="3078" max="3080" width="14" style="29" customWidth="1"/>
-    <col min="3081" max="3081" width="17.140625" style="29" customWidth="1"/>
-    <col min="3082" max="3082" width="17.7109375" style="29" customWidth="1"/>
-    <col min="3083" max="3083" width="16.28515625" style="29" customWidth="1"/>
-    <col min="3084" max="3084" width="14" style="29" customWidth="1"/>
-    <col min="3085" max="3085" width="17" style="29" customWidth="1"/>
-    <col min="3086" max="3086" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3087" max="3330" width="8.85546875" style="29"/>
-    <col min="3331" max="3331" width="9.7109375" style="29" customWidth="1"/>
-    <col min="3332" max="3332" width="21.85546875" style="29" customWidth="1"/>
-    <col min="3333" max="3333" width="13" style="29" customWidth="1"/>
-    <col min="3334" max="3336" width="14" style="29" customWidth="1"/>
-    <col min="3337" max="3337" width="17.140625" style="29" customWidth="1"/>
-    <col min="3338" max="3338" width="17.7109375" style="29" customWidth="1"/>
-    <col min="3339" max="3339" width="16.28515625" style="29" customWidth="1"/>
-    <col min="3340" max="3340" width="14" style="29" customWidth="1"/>
-    <col min="3341" max="3341" width="17" style="29" customWidth="1"/>
-    <col min="3342" max="3342" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3343" max="3586" width="8.85546875" style="29"/>
-    <col min="3587" max="3587" width="9.7109375" style="29" customWidth="1"/>
-    <col min="3588" max="3588" width="21.85546875" style="29" customWidth="1"/>
-    <col min="3589" max="3589" width="13" style="29" customWidth="1"/>
-    <col min="3590" max="3592" width="14" style="29" customWidth="1"/>
-    <col min="3593" max="3593" width="17.140625" style="29" customWidth="1"/>
-    <col min="3594" max="3594" width="17.7109375" style="29" customWidth="1"/>
-    <col min="3595" max="3595" width="16.28515625" style="29" customWidth="1"/>
-    <col min="3596" max="3596" width="14" style="29" customWidth="1"/>
-    <col min="3597" max="3597" width="17" style="29" customWidth="1"/>
-    <col min="3598" max="3598" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3599" max="3842" width="8.85546875" style="29"/>
-    <col min="3843" max="3843" width="9.7109375" style="29" customWidth="1"/>
-    <col min="3844" max="3844" width="21.85546875" style="29" customWidth="1"/>
-    <col min="3845" max="3845" width="13" style="29" customWidth="1"/>
-    <col min="3846" max="3848" width="14" style="29" customWidth="1"/>
-    <col min="3849" max="3849" width="17.140625" style="29" customWidth="1"/>
-    <col min="3850" max="3850" width="17.7109375" style="29" customWidth="1"/>
-    <col min="3851" max="3851" width="16.28515625" style="29" customWidth="1"/>
-    <col min="3852" max="3852" width="14" style="29" customWidth="1"/>
-    <col min="3853" max="3853" width="17" style="29" customWidth="1"/>
-    <col min="3854" max="3854" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3855" max="4098" width="8.85546875" style="29"/>
-    <col min="4099" max="4099" width="9.7109375" style="29" customWidth="1"/>
-    <col min="4100" max="4100" width="21.85546875" style="29" customWidth="1"/>
-    <col min="4101" max="4101" width="13" style="29" customWidth="1"/>
-    <col min="4102" max="4104" width="14" style="29" customWidth="1"/>
-    <col min="4105" max="4105" width="17.140625" style="29" customWidth="1"/>
-    <col min="4106" max="4106" width="17.7109375" style="29" customWidth="1"/>
-    <col min="4107" max="4107" width="16.28515625" style="29" customWidth="1"/>
-    <col min="4108" max="4108" width="14" style="29" customWidth="1"/>
-    <col min="4109" max="4109" width="17" style="29" customWidth="1"/>
-    <col min="4110" max="4110" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4111" max="4354" width="8.85546875" style="29"/>
-    <col min="4355" max="4355" width="9.7109375" style="29" customWidth="1"/>
-    <col min="4356" max="4356" width="21.85546875" style="29" customWidth="1"/>
-    <col min="4357" max="4357" width="13" style="29" customWidth="1"/>
-    <col min="4358" max="4360" width="14" style="29" customWidth="1"/>
-    <col min="4361" max="4361" width="17.140625" style="29" customWidth="1"/>
-    <col min="4362" max="4362" width="17.7109375" style="29" customWidth="1"/>
-    <col min="4363" max="4363" width="16.28515625" style="29" customWidth="1"/>
-    <col min="4364" max="4364" width="14" style="29" customWidth="1"/>
-    <col min="4365" max="4365" width="17" style="29" customWidth="1"/>
-    <col min="4366" max="4366" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4367" max="4610" width="8.85546875" style="29"/>
-    <col min="4611" max="4611" width="9.7109375" style="29" customWidth="1"/>
-    <col min="4612" max="4612" width="21.85546875" style="29" customWidth="1"/>
-    <col min="4613" max="4613" width="13" style="29" customWidth="1"/>
-    <col min="4614" max="4616" width="14" style="29" customWidth="1"/>
-    <col min="4617" max="4617" width="17.140625" style="29" customWidth="1"/>
-    <col min="4618" max="4618" width="17.7109375" style="29" customWidth="1"/>
-    <col min="4619" max="4619" width="16.28515625" style="29" customWidth="1"/>
-    <col min="4620" max="4620" width="14" style="29" customWidth="1"/>
-    <col min="4621" max="4621" width="17" style="29" customWidth="1"/>
-    <col min="4622" max="4622" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4623" max="4866" width="8.85546875" style="29"/>
-    <col min="4867" max="4867" width="9.7109375" style="29" customWidth="1"/>
-    <col min="4868" max="4868" width="21.85546875" style="29" customWidth="1"/>
-    <col min="4869" max="4869" width="13" style="29" customWidth="1"/>
-    <col min="4870" max="4872" width="14" style="29" customWidth="1"/>
-    <col min="4873" max="4873" width="17.140625" style="29" customWidth="1"/>
-    <col min="4874" max="4874" width="17.7109375" style="29" customWidth="1"/>
-    <col min="4875" max="4875" width="16.28515625" style="29" customWidth="1"/>
-    <col min="4876" max="4876" width="14" style="29" customWidth="1"/>
-    <col min="4877" max="4877" width="17" style="29" customWidth="1"/>
-    <col min="4878" max="4878" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4879" max="5122" width="8.85546875" style="29"/>
-    <col min="5123" max="5123" width="9.7109375" style="29" customWidth="1"/>
-    <col min="5124" max="5124" width="21.85546875" style="29" customWidth="1"/>
-    <col min="5125" max="5125" width="13" style="29" customWidth="1"/>
-    <col min="5126" max="5128" width="14" style="29" customWidth="1"/>
-    <col min="5129" max="5129" width="17.140625" style="29" customWidth="1"/>
-    <col min="5130" max="5130" width="17.7109375" style="29" customWidth="1"/>
-    <col min="5131" max="5131" width="16.28515625" style="29" customWidth="1"/>
-    <col min="5132" max="5132" width="14" style="29" customWidth="1"/>
-    <col min="5133" max="5133" width="17" style="29" customWidth="1"/>
-    <col min="5134" max="5134" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5135" max="5378" width="8.85546875" style="29"/>
-    <col min="5379" max="5379" width="9.7109375" style="29" customWidth="1"/>
-    <col min="5380" max="5380" width="21.85546875" style="29" customWidth="1"/>
-    <col min="5381" max="5381" width="13" style="29" customWidth="1"/>
-    <col min="5382" max="5384" width="14" style="29" customWidth="1"/>
-    <col min="5385" max="5385" width="17.140625" style="29" customWidth="1"/>
-    <col min="5386" max="5386" width="17.7109375" style="29" customWidth="1"/>
-    <col min="5387" max="5387" width="16.28515625" style="29" customWidth="1"/>
-    <col min="5388" max="5388" width="14" style="29" customWidth="1"/>
-    <col min="5389" max="5389" width="17" style="29" customWidth="1"/>
-    <col min="5390" max="5390" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5391" max="5634" width="8.85546875" style="29"/>
-    <col min="5635" max="5635" width="9.7109375" style="29" customWidth="1"/>
-    <col min="5636" max="5636" width="21.85546875" style="29" customWidth="1"/>
-    <col min="5637" max="5637" width="13" style="29" customWidth="1"/>
-    <col min="5638" max="5640" width="14" style="29" customWidth="1"/>
-    <col min="5641" max="5641" width="17.140625" style="29" customWidth="1"/>
-    <col min="5642" max="5642" width="17.7109375" style="29" customWidth="1"/>
-    <col min="5643" max="5643" width="16.28515625" style="29" customWidth="1"/>
-    <col min="5644" max="5644" width="14" style="29" customWidth="1"/>
-    <col min="5645" max="5645" width="17" style="29" customWidth="1"/>
-    <col min="5646" max="5646" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5647" max="5890" width="8.85546875" style="29"/>
-    <col min="5891" max="5891" width="9.7109375" style="29" customWidth="1"/>
-    <col min="5892" max="5892" width="21.85546875" style="29" customWidth="1"/>
-    <col min="5893" max="5893" width="13" style="29" customWidth="1"/>
-    <col min="5894" max="5896" width="14" style="29" customWidth="1"/>
-    <col min="5897" max="5897" width="17.140625" style="29" customWidth="1"/>
-    <col min="5898" max="5898" width="17.7109375" style="29" customWidth="1"/>
-    <col min="5899" max="5899" width="16.28515625" style="29" customWidth="1"/>
-    <col min="5900" max="5900" width="14" style="29" customWidth="1"/>
-    <col min="5901" max="5901" width="17" style="29" customWidth="1"/>
-    <col min="5902" max="5902" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5903" max="6146" width="8.85546875" style="29"/>
-    <col min="6147" max="6147" width="9.7109375" style="29" customWidth="1"/>
-    <col min="6148" max="6148" width="21.85546875" style="29" customWidth="1"/>
-    <col min="6149" max="6149" width="13" style="29" customWidth="1"/>
-    <col min="6150" max="6152" width="14" style="29" customWidth="1"/>
-    <col min="6153" max="6153" width="17.140625" style="29" customWidth="1"/>
-    <col min="6154" max="6154" width="17.7109375" style="29" customWidth="1"/>
-    <col min="6155" max="6155" width="16.28515625" style="29" customWidth="1"/>
-    <col min="6156" max="6156" width="14" style="29" customWidth="1"/>
-    <col min="6157" max="6157" width="17" style="29" customWidth="1"/>
-    <col min="6158" max="6158" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6159" max="6402" width="8.85546875" style="29"/>
-    <col min="6403" max="6403" width="9.7109375" style="29" customWidth="1"/>
-    <col min="6404" max="6404" width="21.85546875" style="29" customWidth="1"/>
-    <col min="6405" max="6405" width="13" style="29" customWidth="1"/>
-    <col min="6406" max="6408" width="14" style="29" customWidth="1"/>
-    <col min="6409" max="6409" width="17.140625" style="29" customWidth="1"/>
-    <col min="6410" max="6410" width="17.7109375" style="29" customWidth="1"/>
-    <col min="6411" max="6411" width="16.28515625" style="29" customWidth="1"/>
-    <col min="6412" max="6412" width="14" style="29" customWidth="1"/>
-    <col min="6413" max="6413" width="17" style="29" customWidth="1"/>
-    <col min="6414" max="6414" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6415" max="6658" width="8.85546875" style="29"/>
-    <col min="6659" max="6659" width="9.7109375" style="29" customWidth="1"/>
-    <col min="6660" max="6660" width="21.85546875" style="29" customWidth="1"/>
-    <col min="6661" max="6661" width="13" style="29" customWidth="1"/>
-    <col min="6662" max="6664" width="14" style="29" customWidth="1"/>
-    <col min="6665" max="6665" width="17.140625" style="29" customWidth="1"/>
-    <col min="6666" max="6666" width="17.7109375" style="29" customWidth="1"/>
-    <col min="6667" max="6667" width="16.28515625" style="29" customWidth="1"/>
-    <col min="6668" max="6668" width="14" style="29" customWidth="1"/>
-    <col min="6669" max="6669" width="17" style="29" customWidth="1"/>
-    <col min="6670" max="6670" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6671" max="6914" width="8.85546875" style="29"/>
-    <col min="6915" max="6915" width="9.7109375" style="29" customWidth="1"/>
-    <col min="6916" max="6916" width="21.85546875" style="29" customWidth="1"/>
-    <col min="6917" max="6917" width="13" style="29" customWidth="1"/>
-    <col min="6918" max="6920" width="14" style="29" customWidth="1"/>
-    <col min="6921" max="6921" width="17.140625" style="29" customWidth="1"/>
-    <col min="6922" max="6922" width="17.7109375" style="29" customWidth="1"/>
-    <col min="6923" max="6923" width="16.28515625" style="29" customWidth="1"/>
-    <col min="6924" max="6924" width="14" style="29" customWidth="1"/>
-    <col min="6925" max="6925" width="17" style="29" customWidth="1"/>
-    <col min="6926" max="6926" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6927" max="7170" width="8.85546875" style="29"/>
-    <col min="7171" max="7171" width="9.7109375" style="29" customWidth="1"/>
-    <col min="7172" max="7172" width="21.85546875" style="29" customWidth="1"/>
-    <col min="7173" max="7173" width="13" style="29" customWidth="1"/>
-    <col min="7174" max="7176" width="14" style="29" customWidth="1"/>
-    <col min="7177" max="7177" width="17.140625" style="29" customWidth="1"/>
-    <col min="7178" max="7178" width="17.7109375" style="29" customWidth="1"/>
-    <col min="7179" max="7179" width="16.28515625" style="29" customWidth="1"/>
-    <col min="7180" max="7180" width="14" style="29" customWidth="1"/>
-    <col min="7181" max="7181" width="17" style="29" customWidth="1"/>
-    <col min="7182" max="7182" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7183" max="7426" width="8.85546875" style="29"/>
-    <col min="7427" max="7427" width="9.7109375" style="29" customWidth="1"/>
-    <col min="7428" max="7428" width="21.85546875" style="29" customWidth="1"/>
-    <col min="7429" max="7429" width="13" style="29" customWidth="1"/>
-    <col min="7430" max="7432" width="14" style="29" customWidth="1"/>
-    <col min="7433" max="7433" width="17.140625" style="29" customWidth="1"/>
-    <col min="7434" max="7434" width="17.7109375" style="29" customWidth="1"/>
-    <col min="7435" max="7435" width="16.28515625" style="29" customWidth="1"/>
-    <col min="7436" max="7436" width="14" style="29" customWidth="1"/>
-    <col min="7437" max="7437" width="17" style="29" customWidth="1"/>
-    <col min="7438" max="7438" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7439" max="7682" width="8.85546875" style="29"/>
-    <col min="7683" max="7683" width="9.7109375" style="29" customWidth="1"/>
-    <col min="7684" max="7684" width="21.85546875" style="29" customWidth="1"/>
-    <col min="7685" max="7685" width="13" style="29" customWidth="1"/>
-    <col min="7686" max="7688" width="14" style="29" customWidth="1"/>
-    <col min="7689" max="7689" width="17.140625" style="29" customWidth="1"/>
-    <col min="7690" max="7690" width="17.7109375" style="29" customWidth="1"/>
-    <col min="7691" max="7691" width="16.28515625" style="29" customWidth="1"/>
-    <col min="7692" max="7692" width="14" style="29" customWidth="1"/>
-    <col min="7693" max="7693" width="17" style="29" customWidth="1"/>
-    <col min="7694" max="7694" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7695" max="7938" width="8.85546875" style="29"/>
-    <col min="7939" max="7939" width="9.7109375" style="29" customWidth="1"/>
-    <col min="7940" max="7940" width="21.85546875" style="29" customWidth="1"/>
-    <col min="7941" max="7941" width="13" style="29" customWidth="1"/>
-    <col min="7942" max="7944" width="14" style="29" customWidth="1"/>
-    <col min="7945" max="7945" width="17.140625" style="29" customWidth="1"/>
-    <col min="7946" max="7946" width="17.7109375" style="29" customWidth="1"/>
-    <col min="7947" max="7947" width="16.28515625" style="29" customWidth="1"/>
-    <col min="7948" max="7948" width="14" style="29" customWidth="1"/>
-    <col min="7949" max="7949" width="17" style="29" customWidth="1"/>
-    <col min="7950" max="7950" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7951" max="8194" width="8.85546875" style="29"/>
-    <col min="8195" max="8195" width="9.7109375" style="29" customWidth="1"/>
-    <col min="8196" max="8196" width="21.85546875" style="29" customWidth="1"/>
-    <col min="8197" max="8197" width="13" style="29" customWidth="1"/>
-    <col min="8198" max="8200" width="14" style="29" customWidth="1"/>
-    <col min="8201" max="8201" width="17.140625" style="29" customWidth="1"/>
-    <col min="8202" max="8202" width="17.7109375" style="29" customWidth="1"/>
-    <col min="8203" max="8203" width="16.28515625" style="29" customWidth="1"/>
-    <col min="8204" max="8204" width="14" style="29" customWidth="1"/>
-    <col min="8205" max="8205" width="17" style="29" customWidth="1"/>
-    <col min="8206" max="8206" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8207" max="8450" width="8.85546875" style="29"/>
-    <col min="8451" max="8451" width="9.7109375" style="29" customWidth="1"/>
-    <col min="8452" max="8452" width="21.85546875" style="29" customWidth="1"/>
-    <col min="8453" max="8453" width="13" style="29" customWidth="1"/>
-    <col min="8454" max="8456" width="14" style="29" customWidth="1"/>
-    <col min="8457" max="8457" width="17.140625" style="29" customWidth="1"/>
-    <col min="8458" max="8458" width="17.7109375" style="29" customWidth="1"/>
-    <col min="8459" max="8459" width="16.28515625" style="29" customWidth="1"/>
-    <col min="8460" max="8460" width="14" style="29" customWidth="1"/>
-    <col min="8461" max="8461" width="17" style="29" customWidth="1"/>
-    <col min="8462" max="8462" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8463" max="8706" width="8.85546875" style="29"/>
-    <col min="8707" max="8707" width="9.7109375" style="29" customWidth="1"/>
-    <col min="8708" max="8708" width="21.85546875" style="29" customWidth="1"/>
-    <col min="8709" max="8709" width="13" style="29" customWidth="1"/>
-    <col min="8710" max="8712" width="14" style="29" customWidth="1"/>
-    <col min="8713" max="8713" width="17.140625" style="29" customWidth="1"/>
-    <col min="8714" max="8714" width="17.7109375" style="29" customWidth="1"/>
-    <col min="8715" max="8715" width="16.28515625" style="29" customWidth="1"/>
-    <col min="8716" max="8716" width="14" style="29" customWidth="1"/>
-    <col min="8717" max="8717" width="17" style="29" customWidth="1"/>
-    <col min="8718" max="8718" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8719" max="8962" width="8.85546875" style="29"/>
-    <col min="8963" max="8963" width="9.7109375" style="29" customWidth="1"/>
-    <col min="8964" max="8964" width="21.85546875" style="29" customWidth="1"/>
-    <col min="8965" max="8965" width="13" style="29" customWidth="1"/>
-    <col min="8966" max="8968" width="14" style="29" customWidth="1"/>
-    <col min="8969" max="8969" width="17.140625" style="29" customWidth="1"/>
-    <col min="8970" max="8970" width="17.7109375" style="29" customWidth="1"/>
-    <col min="8971" max="8971" width="16.28515625" style="29" customWidth="1"/>
-    <col min="8972" max="8972" width="14" style="29" customWidth="1"/>
-    <col min="8973" max="8973" width="17" style="29" customWidth="1"/>
-    <col min="8974" max="8974" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8975" max="9218" width="8.85546875" style="29"/>
-    <col min="9219" max="9219" width="9.7109375" style="29" customWidth="1"/>
-    <col min="9220" max="9220" width="21.85546875" style="29" customWidth="1"/>
-    <col min="9221" max="9221" width="13" style="29" customWidth="1"/>
-    <col min="9222" max="9224" width="14" style="29" customWidth="1"/>
-    <col min="9225" max="9225" width="17.140625" style="29" customWidth="1"/>
-    <col min="9226" max="9226" width="17.7109375" style="29" customWidth="1"/>
-    <col min="9227" max="9227" width="16.28515625" style="29" customWidth="1"/>
-    <col min="9228" max="9228" width="14" style="29" customWidth="1"/>
-    <col min="9229" max="9229" width="17" style="29" customWidth="1"/>
-    <col min="9230" max="9230" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9231" max="9474" width="8.85546875" style="29"/>
-    <col min="9475" max="9475" width="9.7109375" style="29" customWidth="1"/>
-    <col min="9476" max="9476" width="21.85546875" style="29" customWidth="1"/>
-    <col min="9477" max="9477" width="13" style="29" customWidth="1"/>
-    <col min="9478" max="9480" width="14" style="29" customWidth="1"/>
-    <col min="9481" max="9481" width="17.140625" style="29" customWidth="1"/>
-    <col min="9482" max="9482" width="17.7109375" style="29" customWidth="1"/>
-    <col min="9483" max="9483" width="16.28515625" style="29" customWidth="1"/>
-    <col min="9484" max="9484" width="14" style="29" customWidth="1"/>
-    <col min="9485" max="9485" width="17" style="29" customWidth="1"/>
-    <col min="9486" max="9486" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9487" max="9730" width="8.85546875" style="29"/>
-    <col min="9731" max="9731" width="9.7109375" style="29" customWidth="1"/>
-    <col min="9732" max="9732" width="21.85546875" style="29" customWidth="1"/>
-    <col min="9733" max="9733" width="13" style="29" customWidth="1"/>
-    <col min="9734" max="9736" width="14" style="29" customWidth="1"/>
-    <col min="9737" max="9737" width="17.140625" style="29" customWidth="1"/>
-    <col min="9738" max="9738" width="17.7109375" style="29" customWidth="1"/>
-    <col min="9739" max="9739" width="16.28515625" style="29" customWidth="1"/>
-    <col min="9740" max="9740" width="14" style="29" customWidth="1"/>
-    <col min="9741" max="9741" width="17" style="29" customWidth="1"/>
-    <col min="9742" max="9742" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9743" max="9986" width="8.85546875" style="29"/>
-    <col min="9987" max="9987" width="9.7109375" style="29" customWidth="1"/>
-    <col min="9988" max="9988" width="21.85546875" style="29" customWidth="1"/>
-    <col min="9989" max="9989" width="13" style="29" customWidth="1"/>
-    <col min="9990" max="9992" width="14" style="29" customWidth="1"/>
-    <col min="9993" max="9993" width="17.140625" style="29" customWidth="1"/>
-    <col min="9994" max="9994" width="17.7109375" style="29" customWidth="1"/>
-    <col min="9995" max="9995" width="16.28515625" style="29" customWidth="1"/>
-    <col min="9996" max="9996" width="14" style="29" customWidth="1"/>
-    <col min="9997" max="9997" width="17" style="29" customWidth="1"/>
-    <col min="9998" max="9998" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9999" max="10242" width="8.85546875" style="29"/>
-    <col min="10243" max="10243" width="9.7109375" style="29" customWidth="1"/>
-    <col min="10244" max="10244" width="21.85546875" style="29" customWidth="1"/>
-    <col min="10245" max="10245" width="13" style="29" customWidth="1"/>
-    <col min="10246" max="10248" width="14" style="29" customWidth="1"/>
-    <col min="10249" max="10249" width="17.140625" style="29" customWidth="1"/>
-    <col min="10250" max="10250" width="17.7109375" style="29" customWidth="1"/>
-    <col min="10251" max="10251" width="16.28515625" style="29" customWidth="1"/>
-    <col min="10252" max="10252" width="14" style="29" customWidth="1"/>
-    <col min="10253" max="10253" width="17" style="29" customWidth="1"/>
-    <col min="10254" max="10254" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10255" max="10498" width="8.85546875" style="29"/>
-    <col min="10499" max="10499" width="9.7109375" style="29" customWidth="1"/>
-    <col min="10500" max="10500" width="21.85546875" style="29" customWidth="1"/>
-    <col min="10501" max="10501" width="13" style="29" customWidth="1"/>
-    <col min="10502" max="10504" width="14" style="29" customWidth="1"/>
-    <col min="10505" max="10505" width="17.140625" style="29" customWidth="1"/>
-    <col min="10506" max="10506" width="17.7109375" style="29" customWidth="1"/>
-    <col min="10507" max="10507" width="16.28515625" style="29" customWidth="1"/>
-    <col min="10508" max="10508" width="14" style="29" customWidth="1"/>
-    <col min="10509" max="10509" width="17" style="29" customWidth="1"/>
-    <col min="10510" max="10510" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10511" max="10754" width="8.85546875" style="29"/>
-    <col min="10755" max="10755" width="9.7109375" style="29" customWidth="1"/>
-    <col min="10756" max="10756" width="21.85546875" style="29" customWidth="1"/>
-    <col min="10757" max="10757" width="13" style="29" customWidth="1"/>
-    <col min="10758" max="10760" width="14" style="29" customWidth="1"/>
-    <col min="10761" max="10761" width="17.140625" style="29" customWidth="1"/>
-    <col min="10762" max="10762" width="17.7109375" style="29" customWidth="1"/>
-    <col min="10763" max="10763" width="16.28515625" style="29" customWidth="1"/>
-    <col min="10764" max="10764" width="14" style="29" customWidth="1"/>
-    <col min="10765" max="10765" width="17" style="29" customWidth="1"/>
-    <col min="10766" max="10766" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10767" max="11010" width="8.85546875" style="29"/>
-    <col min="11011" max="11011" width="9.7109375" style="29" customWidth="1"/>
-    <col min="11012" max="11012" width="21.85546875" style="29" customWidth="1"/>
-    <col min="11013" max="11013" width="13" style="29" customWidth="1"/>
-    <col min="11014" max="11016" width="14" style="29" customWidth="1"/>
-    <col min="11017" max="11017" width="17.140625" style="29" customWidth="1"/>
-    <col min="11018" max="11018" width="17.7109375" style="29" customWidth="1"/>
-    <col min="11019" max="11019" width="16.28515625" style="29" customWidth="1"/>
-    <col min="11020" max="11020" width="14" style="29" customWidth="1"/>
-    <col min="11021" max="11021" width="17" style="29" customWidth="1"/>
-    <col min="11022" max="11022" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11023" max="11266" width="8.85546875" style="29"/>
-    <col min="11267" max="11267" width="9.7109375" style="29" customWidth="1"/>
-    <col min="11268" max="11268" width="21.85546875" style="29" customWidth="1"/>
-    <col min="11269" max="11269" width="13" style="29" customWidth="1"/>
-    <col min="11270" max="11272" width="14" style="29" customWidth="1"/>
-    <col min="11273" max="11273" width="17.140625" style="29" customWidth="1"/>
-    <col min="11274" max="11274" width="17.7109375" style="29" customWidth="1"/>
-    <col min="11275" max="11275" width="16.28515625" style="29" customWidth="1"/>
-    <col min="11276" max="11276" width="14" style="29" customWidth="1"/>
-    <col min="11277" max="11277" width="17" style="29" customWidth="1"/>
-    <col min="11278" max="11278" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11279" max="11522" width="8.85546875" style="29"/>
-    <col min="11523" max="11523" width="9.7109375" style="29" customWidth="1"/>
-    <col min="11524" max="11524" width="21.85546875" style="29" customWidth="1"/>
-    <col min="11525" max="11525" width="13" style="29" customWidth="1"/>
-    <col min="11526" max="11528" width="14" style="29" customWidth="1"/>
-    <col min="11529" max="11529" width="17.140625" style="29" customWidth="1"/>
-    <col min="11530" max="11530" width="17.7109375" style="29" customWidth="1"/>
-    <col min="11531" max="11531" width="16.28515625" style="29" customWidth="1"/>
-    <col min="11532" max="11532" width="14" style="29" customWidth="1"/>
-    <col min="11533" max="11533" width="17" style="29" customWidth="1"/>
-    <col min="11534" max="11534" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11535" max="11778" width="8.85546875" style="29"/>
-    <col min="11779" max="11779" width="9.7109375" style="29" customWidth="1"/>
-    <col min="11780" max="11780" width="21.85546875" style="29" customWidth="1"/>
-    <col min="11781" max="11781" width="13" style="29" customWidth="1"/>
-    <col min="11782" max="11784" width="14" style="29" customWidth="1"/>
-    <col min="11785" max="11785" width="17.140625" style="29" customWidth="1"/>
-    <col min="11786" max="11786" width="17.7109375" style="29" customWidth="1"/>
-    <col min="11787" max="11787" width="16.28515625" style="29" customWidth="1"/>
-    <col min="11788" max="11788" width="14" style="29" customWidth="1"/>
-    <col min="11789" max="11789" width="17" style="29" customWidth="1"/>
-    <col min="11790" max="11790" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11791" max="12034" width="8.85546875" style="29"/>
-    <col min="12035" max="12035" width="9.7109375" style="29" customWidth="1"/>
-    <col min="12036" max="12036" width="21.85546875" style="29" customWidth="1"/>
-    <col min="12037" max="12037" width="13" style="29" customWidth="1"/>
-    <col min="12038" max="12040" width="14" style="29" customWidth="1"/>
-    <col min="12041" max="12041" width="17.140625" style="29" customWidth="1"/>
-    <col min="12042" max="12042" width="17.7109375" style="29" customWidth="1"/>
-    <col min="12043" max="12043" width="16.28515625" style="29" customWidth="1"/>
-    <col min="12044" max="12044" width="14" style="29" customWidth="1"/>
-    <col min="12045" max="12045" width="17" style="29" customWidth="1"/>
-    <col min="12046" max="12046" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12047" max="12290" width="8.85546875" style="29"/>
-    <col min="12291" max="12291" width="9.7109375" style="29" customWidth="1"/>
-    <col min="12292" max="12292" width="21.85546875" style="29" customWidth="1"/>
-    <col min="12293" max="12293" width="13" style="29" customWidth="1"/>
-    <col min="12294" max="12296" width="14" style="29" customWidth="1"/>
-    <col min="12297" max="12297" width="17.140625" style="29" customWidth="1"/>
-    <col min="12298" max="12298" width="17.7109375" style="29" customWidth="1"/>
-    <col min="12299" max="12299" width="16.28515625" style="29" customWidth="1"/>
-    <col min="12300" max="12300" width="14" style="29" customWidth="1"/>
-    <col min="12301" max="12301" width="17" style="29" customWidth="1"/>
-    <col min="12302" max="12302" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12303" max="12546" width="8.85546875" style="29"/>
-    <col min="12547" max="12547" width="9.7109375" style="29" customWidth="1"/>
-    <col min="12548" max="12548" width="21.85546875" style="29" customWidth="1"/>
-    <col min="12549" max="12549" width="13" style="29" customWidth="1"/>
-    <col min="12550" max="12552" width="14" style="29" customWidth="1"/>
-    <col min="12553" max="12553" width="17.140625" style="29" customWidth="1"/>
-    <col min="12554" max="12554" width="17.7109375" style="29" customWidth="1"/>
-    <col min="12555" max="12555" width="16.28515625" style="29" customWidth="1"/>
-    <col min="12556" max="12556" width="14" style="29" customWidth="1"/>
-    <col min="12557" max="12557" width="17" style="29" customWidth="1"/>
-    <col min="12558" max="12558" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12559" max="12802" width="8.85546875" style="29"/>
-    <col min="12803" max="12803" width="9.7109375" style="29" customWidth="1"/>
-    <col min="12804" max="12804" width="21.85546875" style="29" customWidth="1"/>
-    <col min="12805" max="12805" width="13" style="29" customWidth="1"/>
-    <col min="12806" max="12808" width="14" style="29" customWidth="1"/>
-    <col min="12809" max="12809" width="17.140625" style="29" customWidth="1"/>
-    <col min="12810" max="12810" width="17.7109375" style="29" customWidth="1"/>
-    <col min="12811" max="12811" width="16.28515625" style="29" customWidth="1"/>
-    <col min="12812" max="12812" width="14" style="29" customWidth="1"/>
-    <col min="12813" max="12813" width="17" style="29" customWidth="1"/>
-    <col min="12814" max="12814" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12815" max="13058" width="8.85546875" style="29"/>
-    <col min="13059" max="13059" width="9.7109375" style="29" customWidth="1"/>
-    <col min="13060" max="13060" width="21.85546875" style="29" customWidth="1"/>
-    <col min="13061" max="13061" width="13" style="29" customWidth="1"/>
-    <col min="13062" max="13064" width="14" style="29" customWidth="1"/>
-    <col min="13065" max="13065" width="17.140625" style="29" customWidth="1"/>
-    <col min="13066" max="13066" width="17.7109375" style="29" customWidth="1"/>
-    <col min="13067" max="13067" width="16.28515625" style="29" customWidth="1"/>
-    <col min="13068" max="13068" width="14" style="29" customWidth="1"/>
-    <col min="13069" max="13069" width="17" style="29" customWidth="1"/>
-    <col min="13070" max="13070" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13071" max="13314" width="8.85546875" style="29"/>
-    <col min="13315" max="13315" width="9.7109375" style="29" customWidth="1"/>
-    <col min="13316" max="13316" width="21.85546875" style="29" customWidth="1"/>
-    <col min="13317" max="13317" width="13" style="29" customWidth="1"/>
-    <col min="13318" max="13320" width="14" style="29" customWidth="1"/>
-    <col min="13321" max="13321" width="17.140625" style="29" customWidth="1"/>
-    <col min="13322" max="13322" width="17.7109375" style="29" customWidth="1"/>
-    <col min="13323" max="13323" width="16.28515625" style="29" customWidth="1"/>
-    <col min="13324" max="13324" width="14" style="29" customWidth="1"/>
-    <col min="13325" max="13325" width="17" style="29" customWidth="1"/>
-    <col min="13326" max="13326" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13327" max="13570" width="8.85546875" style="29"/>
-    <col min="13571" max="13571" width="9.7109375" style="29" customWidth="1"/>
-    <col min="13572" max="13572" width="21.85546875" style="29" customWidth="1"/>
-    <col min="13573" max="13573" width="13" style="29" customWidth="1"/>
-    <col min="13574" max="13576" width="14" style="29" customWidth="1"/>
-    <col min="13577" max="13577" width="17.140625" style="29" customWidth="1"/>
-    <col min="13578" max="13578" width="17.7109375" style="29" customWidth="1"/>
-    <col min="13579" max="13579" width="16.28515625" style="29" customWidth="1"/>
-    <col min="13580" max="13580" width="14" style="29" customWidth="1"/>
-    <col min="13581" max="13581" width="17" style="29" customWidth="1"/>
-    <col min="13582" max="13582" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13583" max="13826" width="8.85546875" style="29"/>
-    <col min="13827" max="13827" width="9.7109375" style="29" customWidth="1"/>
-    <col min="13828" max="13828" width="21.85546875" style="29" customWidth="1"/>
-    <col min="13829" max="13829" width="13" style="29" customWidth="1"/>
-    <col min="13830" max="13832" width="14" style="29" customWidth="1"/>
-    <col min="13833" max="13833" width="17.140625" style="29" customWidth="1"/>
-    <col min="13834" max="13834" width="17.7109375" style="29" customWidth="1"/>
-    <col min="13835" max="13835" width="16.28515625" style="29" customWidth="1"/>
-    <col min="13836" max="13836" width="14" style="29" customWidth="1"/>
-    <col min="13837" max="13837" width="17" style="29" customWidth="1"/>
-    <col min="13838" max="13838" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13839" max="14082" width="8.85546875" style="29"/>
-    <col min="14083" max="14083" width="9.7109375" style="29" customWidth="1"/>
-    <col min="14084" max="14084" width="21.85546875" style="29" customWidth="1"/>
-    <col min="14085" max="14085" width="13" style="29" customWidth="1"/>
-    <col min="14086" max="14088" width="14" style="29" customWidth="1"/>
-    <col min="14089" max="14089" width="17.140625" style="29" customWidth="1"/>
-    <col min="14090" max="14090" width="17.7109375" style="29" customWidth="1"/>
-    <col min="14091" max="14091" width="16.28515625" style="29" customWidth="1"/>
-    <col min="14092" max="14092" width="14" style="29" customWidth="1"/>
-    <col min="14093" max="14093" width="17" style="29" customWidth="1"/>
-    <col min="14094" max="14094" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14095" max="14338" width="8.85546875" style="29"/>
-    <col min="14339" max="14339" width="9.7109375" style="29" customWidth="1"/>
-    <col min="14340" max="14340" width="21.85546875" style="29" customWidth="1"/>
-    <col min="14341" max="14341" width="13" style="29" customWidth="1"/>
-    <col min="14342" max="14344" width="14" style="29" customWidth="1"/>
-    <col min="14345" max="14345" width="17.140625" style="29" customWidth="1"/>
-    <col min="14346" max="14346" width="17.7109375" style="29" customWidth="1"/>
-    <col min="14347" max="14347" width="16.28515625" style="29" customWidth="1"/>
-    <col min="14348" max="14348" width="14" style="29" customWidth="1"/>
-    <col min="14349" max="14349" width="17" style="29" customWidth="1"/>
-    <col min="14350" max="14350" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14351" max="14594" width="8.85546875" style="29"/>
-    <col min="14595" max="14595" width="9.7109375" style="29" customWidth="1"/>
-    <col min="14596" max="14596" width="21.85546875" style="29" customWidth="1"/>
-    <col min="14597" max="14597" width="13" style="29" customWidth="1"/>
-    <col min="14598" max="14600" width="14" style="29" customWidth="1"/>
-    <col min="14601" max="14601" width="17.140625" style="29" customWidth="1"/>
-    <col min="14602" max="14602" width="17.7109375" style="29" customWidth="1"/>
-    <col min="14603" max="14603" width="16.28515625" style="29" customWidth="1"/>
-    <col min="14604" max="14604" width="14" style="29" customWidth="1"/>
-    <col min="14605" max="14605" width="17" style="29" customWidth="1"/>
-    <col min="14606" max="14606" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14607" max="14850" width="8.85546875" style="29"/>
-    <col min="14851" max="14851" width="9.7109375" style="29" customWidth="1"/>
-    <col min="14852" max="14852" width="21.85546875" style="29" customWidth="1"/>
-    <col min="14853" max="14853" width="13" style="29" customWidth="1"/>
-    <col min="14854" max="14856" width="14" style="29" customWidth="1"/>
-    <col min="14857" max="14857" width="17.140625" style="29" customWidth="1"/>
-    <col min="14858" max="14858" width="17.7109375" style="29" customWidth="1"/>
-    <col min="14859" max="14859" width="16.28515625" style="29" customWidth="1"/>
-    <col min="14860" max="14860" width="14" style="29" customWidth="1"/>
-    <col min="14861" max="14861" width="17" style="29" customWidth="1"/>
-    <col min="14862" max="14862" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14863" max="15106" width="8.85546875" style="29"/>
-    <col min="15107" max="15107" width="9.7109375" style="29" customWidth="1"/>
-    <col min="15108" max="15108" width="21.85546875" style="29" customWidth="1"/>
-    <col min="15109" max="15109" width="13" style="29" customWidth="1"/>
-    <col min="15110" max="15112" width="14" style="29" customWidth="1"/>
-    <col min="15113" max="15113" width="17.140625" style="29" customWidth="1"/>
-    <col min="15114" max="15114" width="17.7109375" style="29" customWidth="1"/>
-    <col min="15115" max="15115" width="16.28515625" style="29" customWidth="1"/>
-    <col min="15116" max="15116" width="14" style="29" customWidth="1"/>
-    <col min="15117" max="15117" width="17" style="29" customWidth="1"/>
-    <col min="15118" max="15118" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15119" max="15362" width="8.85546875" style="29"/>
-    <col min="15363" max="15363" width="9.7109375" style="29" customWidth="1"/>
-    <col min="15364" max="15364" width="21.85546875" style="29" customWidth="1"/>
-    <col min="15365" max="15365" width="13" style="29" customWidth="1"/>
-    <col min="15366" max="15368" width="14" style="29" customWidth="1"/>
-    <col min="15369" max="15369" width="17.140625" style="29" customWidth="1"/>
-    <col min="15370" max="15370" width="17.7109375" style="29" customWidth="1"/>
-    <col min="15371" max="15371" width="16.28515625" style="29" customWidth="1"/>
-    <col min="15372" max="15372" width="14" style="29" customWidth="1"/>
-    <col min="15373" max="15373" width="17" style="29" customWidth="1"/>
-    <col min="15374" max="15374" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15375" max="15618" width="8.85546875" style="29"/>
-    <col min="15619" max="15619" width="9.7109375" style="29" customWidth="1"/>
-    <col min="15620" max="15620" width="21.85546875" style="29" customWidth="1"/>
-    <col min="15621" max="15621" width="13" style="29" customWidth="1"/>
-    <col min="15622" max="15624" width="14" style="29" customWidth="1"/>
-    <col min="15625" max="15625" width="17.140625" style="29" customWidth="1"/>
-    <col min="15626" max="15626" width="17.7109375" style="29" customWidth="1"/>
-    <col min="15627" max="15627" width="16.28515625" style="29" customWidth="1"/>
-    <col min="15628" max="15628" width="14" style="29" customWidth="1"/>
-    <col min="15629" max="15629" width="17" style="29" customWidth="1"/>
-    <col min="15630" max="15630" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15631" max="15874" width="8.85546875" style="29"/>
-    <col min="15875" max="15875" width="9.7109375" style="29" customWidth="1"/>
-    <col min="15876" max="15876" width="21.85546875" style="29" customWidth="1"/>
-    <col min="15877" max="15877" width="13" style="29" customWidth="1"/>
-    <col min="15878" max="15880" width="14" style="29" customWidth="1"/>
-    <col min="15881" max="15881" width="17.140625" style="29" customWidth="1"/>
-    <col min="15882" max="15882" width="17.7109375" style="29" customWidth="1"/>
-    <col min="15883" max="15883" width="16.28515625" style="29" customWidth="1"/>
-    <col min="15884" max="15884" width="14" style="29" customWidth="1"/>
-    <col min="15885" max="15885" width="17" style="29" customWidth="1"/>
-    <col min="15886" max="15886" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15887" max="16130" width="8.85546875" style="29"/>
-    <col min="16131" max="16131" width="9.7109375" style="29" customWidth="1"/>
-    <col min="16132" max="16132" width="21.85546875" style="29" customWidth="1"/>
-    <col min="16133" max="16133" width="13" style="29" customWidth="1"/>
-    <col min="16134" max="16136" width="14" style="29" customWidth="1"/>
-    <col min="16137" max="16137" width="17.140625" style="29" customWidth="1"/>
-    <col min="16138" max="16138" width="17.7109375" style="29" customWidth="1"/>
-    <col min="16139" max="16139" width="16.28515625" style="29" customWidth="1"/>
-    <col min="16140" max="16140" width="14" style="29" customWidth="1"/>
-    <col min="16141" max="16141" width="17" style="29" customWidth="1"/>
-    <col min="16142" max="16142" width="14.42578125" style="29" customWidth="1"/>
-    <col min="16143" max="16143" width="8.85546875" style="29"/>
-    <col min="16144" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="13" style="28" customWidth="1"/>
+    <col min="6" max="8" width="14" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="14" style="28" customWidth="1"/>
+    <col min="13" max="13" width="17" style="28" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="28" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="28" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="28" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="28" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="28" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="34.42578125" style="28" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" style="28" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="28" customWidth="1"/>
+    <col min="22" max="258" width="8.85546875" style="28"/>
+    <col min="259" max="259" width="9.7109375" style="28" customWidth="1"/>
+    <col min="260" max="260" width="21.85546875" style="28" customWidth="1"/>
+    <col min="261" max="261" width="13" style="28" customWidth="1"/>
+    <col min="262" max="264" width="14" style="28" customWidth="1"/>
+    <col min="265" max="265" width="17.140625" style="28" customWidth="1"/>
+    <col min="266" max="266" width="17.7109375" style="28" customWidth="1"/>
+    <col min="267" max="267" width="16.28515625" style="28" customWidth="1"/>
+    <col min="268" max="268" width="14" style="28" customWidth="1"/>
+    <col min="269" max="269" width="17" style="28" customWidth="1"/>
+    <col min="270" max="270" width="14.42578125" style="28" customWidth="1"/>
+    <col min="271" max="514" width="8.85546875" style="28"/>
+    <col min="515" max="515" width="9.7109375" style="28" customWidth="1"/>
+    <col min="516" max="516" width="21.85546875" style="28" customWidth="1"/>
+    <col min="517" max="517" width="13" style="28" customWidth="1"/>
+    <col min="518" max="520" width="14" style="28" customWidth="1"/>
+    <col min="521" max="521" width="17.140625" style="28" customWidth="1"/>
+    <col min="522" max="522" width="17.7109375" style="28" customWidth="1"/>
+    <col min="523" max="523" width="16.28515625" style="28" customWidth="1"/>
+    <col min="524" max="524" width="14" style="28" customWidth="1"/>
+    <col min="525" max="525" width="17" style="28" customWidth="1"/>
+    <col min="526" max="526" width="14.42578125" style="28" customWidth="1"/>
+    <col min="527" max="770" width="8.85546875" style="28"/>
+    <col min="771" max="771" width="9.7109375" style="28" customWidth="1"/>
+    <col min="772" max="772" width="21.85546875" style="28" customWidth="1"/>
+    <col min="773" max="773" width="13" style="28" customWidth="1"/>
+    <col min="774" max="776" width="14" style="28" customWidth="1"/>
+    <col min="777" max="777" width="17.140625" style="28" customWidth="1"/>
+    <col min="778" max="778" width="17.7109375" style="28" customWidth="1"/>
+    <col min="779" max="779" width="16.28515625" style="28" customWidth="1"/>
+    <col min="780" max="780" width="14" style="28" customWidth="1"/>
+    <col min="781" max="781" width="17" style="28" customWidth="1"/>
+    <col min="782" max="782" width="14.42578125" style="28" customWidth="1"/>
+    <col min="783" max="1026" width="8.85546875" style="28"/>
+    <col min="1027" max="1027" width="9.7109375" style="28" customWidth="1"/>
+    <col min="1028" max="1028" width="21.85546875" style="28" customWidth="1"/>
+    <col min="1029" max="1029" width="13" style="28" customWidth="1"/>
+    <col min="1030" max="1032" width="14" style="28" customWidth="1"/>
+    <col min="1033" max="1033" width="17.140625" style="28" customWidth="1"/>
+    <col min="1034" max="1034" width="17.7109375" style="28" customWidth="1"/>
+    <col min="1035" max="1035" width="16.28515625" style="28" customWidth="1"/>
+    <col min="1036" max="1036" width="14" style="28" customWidth="1"/>
+    <col min="1037" max="1037" width="17" style="28" customWidth="1"/>
+    <col min="1038" max="1038" width="14.42578125" style="28" customWidth="1"/>
+    <col min="1039" max="1282" width="8.85546875" style="28"/>
+    <col min="1283" max="1283" width="9.7109375" style="28" customWidth="1"/>
+    <col min="1284" max="1284" width="21.85546875" style="28" customWidth="1"/>
+    <col min="1285" max="1285" width="13" style="28" customWidth="1"/>
+    <col min="1286" max="1288" width="14" style="28" customWidth="1"/>
+    <col min="1289" max="1289" width="17.140625" style="28" customWidth="1"/>
+    <col min="1290" max="1290" width="17.7109375" style="28" customWidth="1"/>
+    <col min="1291" max="1291" width="16.28515625" style="28" customWidth="1"/>
+    <col min="1292" max="1292" width="14" style="28" customWidth="1"/>
+    <col min="1293" max="1293" width="17" style="28" customWidth="1"/>
+    <col min="1294" max="1294" width="14.42578125" style="28" customWidth="1"/>
+    <col min="1295" max="1538" width="8.85546875" style="28"/>
+    <col min="1539" max="1539" width="9.7109375" style="28" customWidth="1"/>
+    <col min="1540" max="1540" width="21.85546875" style="28" customWidth="1"/>
+    <col min="1541" max="1541" width="13" style="28" customWidth="1"/>
+    <col min="1542" max="1544" width="14" style="28" customWidth="1"/>
+    <col min="1545" max="1545" width="17.140625" style="28" customWidth="1"/>
+    <col min="1546" max="1546" width="17.7109375" style="28" customWidth="1"/>
+    <col min="1547" max="1547" width="16.28515625" style="28" customWidth="1"/>
+    <col min="1548" max="1548" width="14" style="28" customWidth="1"/>
+    <col min="1549" max="1549" width="17" style="28" customWidth="1"/>
+    <col min="1550" max="1550" width="14.42578125" style="28" customWidth="1"/>
+    <col min="1551" max="1794" width="8.85546875" style="28"/>
+    <col min="1795" max="1795" width="9.7109375" style="28" customWidth="1"/>
+    <col min="1796" max="1796" width="21.85546875" style="28" customWidth="1"/>
+    <col min="1797" max="1797" width="13" style="28" customWidth="1"/>
+    <col min="1798" max="1800" width="14" style="28" customWidth="1"/>
+    <col min="1801" max="1801" width="17.140625" style="28" customWidth="1"/>
+    <col min="1802" max="1802" width="17.7109375" style="28" customWidth="1"/>
+    <col min="1803" max="1803" width="16.28515625" style="28" customWidth="1"/>
+    <col min="1804" max="1804" width="14" style="28" customWidth="1"/>
+    <col min="1805" max="1805" width="17" style="28" customWidth="1"/>
+    <col min="1806" max="1806" width="14.42578125" style="28" customWidth="1"/>
+    <col min="1807" max="2050" width="8.85546875" style="28"/>
+    <col min="2051" max="2051" width="9.7109375" style="28" customWidth="1"/>
+    <col min="2052" max="2052" width="21.85546875" style="28" customWidth="1"/>
+    <col min="2053" max="2053" width="13" style="28" customWidth="1"/>
+    <col min="2054" max="2056" width="14" style="28" customWidth="1"/>
+    <col min="2057" max="2057" width="17.140625" style="28" customWidth="1"/>
+    <col min="2058" max="2058" width="17.7109375" style="28" customWidth="1"/>
+    <col min="2059" max="2059" width="16.28515625" style="28" customWidth="1"/>
+    <col min="2060" max="2060" width="14" style="28" customWidth="1"/>
+    <col min="2061" max="2061" width="17" style="28" customWidth="1"/>
+    <col min="2062" max="2062" width="14.42578125" style="28" customWidth="1"/>
+    <col min="2063" max="2306" width="8.85546875" style="28"/>
+    <col min="2307" max="2307" width="9.7109375" style="28" customWidth="1"/>
+    <col min="2308" max="2308" width="21.85546875" style="28" customWidth="1"/>
+    <col min="2309" max="2309" width="13" style="28" customWidth="1"/>
+    <col min="2310" max="2312" width="14" style="28" customWidth="1"/>
+    <col min="2313" max="2313" width="17.140625" style="28" customWidth="1"/>
+    <col min="2314" max="2314" width="17.7109375" style="28" customWidth="1"/>
+    <col min="2315" max="2315" width="16.28515625" style="28" customWidth="1"/>
+    <col min="2316" max="2316" width="14" style="28" customWidth="1"/>
+    <col min="2317" max="2317" width="17" style="28" customWidth="1"/>
+    <col min="2318" max="2318" width="14.42578125" style="28" customWidth="1"/>
+    <col min="2319" max="2562" width="8.85546875" style="28"/>
+    <col min="2563" max="2563" width="9.7109375" style="28" customWidth="1"/>
+    <col min="2564" max="2564" width="21.85546875" style="28" customWidth="1"/>
+    <col min="2565" max="2565" width="13" style="28" customWidth="1"/>
+    <col min="2566" max="2568" width="14" style="28" customWidth="1"/>
+    <col min="2569" max="2569" width="17.140625" style="28" customWidth="1"/>
+    <col min="2570" max="2570" width="17.7109375" style="28" customWidth="1"/>
+    <col min="2571" max="2571" width="16.28515625" style="28" customWidth="1"/>
+    <col min="2572" max="2572" width="14" style="28" customWidth="1"/>
+    <col min="2573" max="2573" width="17" style="28" customWidth="1"/>
+    <col min="2574" max="2574" width="14.42578125" style="28" customWidth="1"/>
+    <col min="2575" max="2818" width="8.85546875" style="28"/>
+    <col min="2819" max="2819" width="9.7109375" style="28" customWidth="1"/>
+    <col min="2820" max="2820" width="21.85546875" style="28" customWidth="1"/>
+    <col min="2821" max="2821" width="13" style="28" customWidth="1"/>
+    <col min="2822" max="2824" width="14" style="28" customWidth="1"/>
+    <col min="2825" max="2825" width="17.140625" style="28" customWidth="1"/>
+    <col min="2826" max="2826" width="17.7109375" style="28" customWidth="1"/>
+    <col min="2827" max="2827" width="16.28515625" style="28" customWidth="1"/>
+    <col min="2828" max="2828" width="14" style="28" customWidth="1"/>
+    <col min="2829" max="2829" width="17" style="28" customWidth="1"/>
+    <col min="2830" max="2830" width="14.42578125" style="28" customWidth="1"/>
+    <col min="2831" max="3074" width="8.85546875" style="28"/>
+    <col min="3075" max="3075" width="9.7109375" style="28" customWidth="1"/>
+    <col min="3076" max="3076" width="21.85546875" style="28" customWidth="1"/>
+    <col min="3077" max="3077" width="13" style="28" customWidth="1"/>
+    <col min="3078" max="3080" width="14" style="28" customWidth="1"/>
+    <col min="3081" max="3081" width="17.140625" style="28" customWidth="1"/>
+    <col min="3082" max="3082" width="17.7109375" style="28" customWidth="1"/>
+    <col min="3083" max="3083" width="16.28515625" style="28" customWidth="1"/>
+    <col min="3084" max="3084" width="14" style="28" customWidth="1"/>
+    <col min="3085" max="3085" width="17" style="28" customWidth="1"/>
+    <col min="3086" max="3086" width="14.42578125" style="28" customWidth="1"/>
+    <col min="3087" max="3330" width="8.85546875" style="28"/>
+    <col min="3331" max="3331" width="9.7109375" style="28" customWidth="1"/>
+    <col min="3332" max="3332" width="21.85546875" style="28" customWidth="1"/>
+    <col min="3333" max="3333" width="13" style="28" customWidth="1"/>
+    <col min="3334" max="3336" width="14" style="28" customWidth="1"/>
+    <col min="3337" max="3337" width="17.140625" style="28" customWidth="1"/>
+    <col min="3338" max="3338" width="17.7109375" style="28" customWidth="1"/>
+    <col min="3339" max="3339" width="16.28515625" style="28" customWidth="1"/>
+    <col min="3340" max="3340" width="14" style="28" customWidth="1"/>
+    <col min="3341" max="3341" width="17" style="28" customWidth="1"/>
+    <col min="3342" max="3342" width="14.42578125" style="28" customWidth="1"/>
+    <col min="3343" max="3586" width="8.85546875" style="28"/>
+    <col min="3587" max="3587" width="9.7109375" style="28" customWidth="1"/>
+    <col min="3588" max="3588" width="21.85546875" style="28" customWidth="1"/>
+    <col min="3589" max="3589" width="13" style="28" customWidth="1"/>
+    <col min="3590" max="3592" width="14" style="28" customWidth="1"/>
+    <col min="3593" max="3593" width="17.140625" style="28" customWidth="1"/>
+    <col min="3594" max="3594" width="17.7109375" style="28" customWidth="1"/>
+    <col min="3595" max="3595" width="16.28515625" style="28" customWidth="1"/>
+    <col min="3596" max="3596" width="14" style="28" customWidth="1"/>
+    <col min="3597" max="3597" width="17" style="28" customWidth="1"/>
+    <col min="3598" max="3598" width="14.42578125" style="28" customWidth="1"/>
+    <col min="3599" max="3842" width="8.85546875" style="28"/>
+    <col min="3843" max="3843" width="9.7109375" style="28" customWidth="1"/>
+    <col min="3844" max="3844" width="21.85546875" style="28" customWidth="1"/>
+    <col min="3845" max="3845" width="13" style="28" customWidth="1"/>
+    <col min="3846" max="3848" width="14" style="28" customWidth="1"/>
+    <col min="3849" max="3849" width="17.140625" style="28" customWidth="1"/>
+    <col min="3850" max="3850" width="17.7109375" style="28" customWidth="1"/>
+    <col min="3851" max="3851" width="16.28515625" style="28" customWidth="1"/>
+    <col min="3852" max="3852" width="14" style="28" customWidth="1"/>
+    <col min="3853" max="3853" width="17" style="28" customWidth="1"/>
+    <col min="3854" max="3854" width="14.42578125" style="28" customWidth="1"/>
+    <col min="3855" max="4098" width="8.85546875" style="28"/>
+    <col min="4099" max="4099" width="9.7109375" style="28" customWidth="1"/>
+    <col min="4100" max="4100" width="21.85546875" style="28" customWidth="1"/>
+    <col min="4101" max="4101" width="13" style="28" customWidth="1"/>
+    <col min="4102" max="4104" width="14" style="28" customWidth="1"/>
+    <col min="4105" max="4105" width="17.140625" style="28" customWidth="1"/>
+    <col min="4106" max="4106" width="17.7109375" style="28" customWidth="1"/>
+    <col min="4107" max="4107" width="16.28515625" style="28" customWidth="1"/>
+    <col min="4108" max="4108" width="14" style="28" customWidth="1"/>
+    <col min="4109" max="4109" width="17" style="28" customWidth="1"/>
+    <col min="4110" max="4110" width="14.42578125" style="28" customWidth="1"/>
+    <col min="4111" max="4354" width="8.85546875" style="28"/>
+    <col min="4355" max="4355" width="9.7109375" style="28" customWidth="1"/>
+    <col min="4356" max="4356" width="21.85546875" style="28" customWidth="1"/>
+    <col min="4357" max="4357" width="13" style="28" customWidth="1"/>
+    <col min="4358" max="4360" width="14" style="28" customWidth="1"/>
+    <col min="4361" max="4361" width="17.140625" style="28" customWidth="1"/>
+    <col min="4362" max="4362" width="17.7109375" style="28" customWidth="1"/>
+    <col min="4363" max="4363" width="16.28515625" style="28" customWidth="1"/>
+    <col min="4364" max="4364" width="14" style="28" customWidth="1"/>
+    <col min="4365" max="4365" width="17" style="28" customWidth="1"/>
+    <col min="4366" max="4366" width="14.42578125" style="28" customWidth="1"/>
+    <col min="4367" max="4610" width="8.85546875" style="28"/>
+    <col min="4611" max="4611" width="9.7109375" style="28" customWidth="1"/>
+    <col min="4612" max="4612" width="21.85546875" style="28" customWidth="1"/>
+    <col min="4613" max="4613" width="13" style="28" customWidth="1"/>
+    <col min="4614" max="4616" width="14" style="28" customWidth="1"/>
+    <col min="4617" max="4617" width="17.140625" style="28" customWidth="1"/>
+    <col min="4618" max="4618" width="17.7109375" style="28" customWidth="1"/>
+    <col min="4619" max="4619" width="16.28515625" style="28" customWidth="1"/>
+    <col min="4620" max="4620" width="14" style="28" customWidth="1"/>
+    <col min="4621" max="4621" width="17" style="28" customWidth="1"/>
+    <col min="4622" max="4622" width="14.42578125" style="28" customWidth="1"/>
+    <col min="4623" max="4866" width="8.85546875" style="28"/>
+    <col min="4867" max="4867" width="9.7109375" style="28" customWidth="1"/>
+    <col min="4868" max="4868" width="21.85546875" style="28" customWidth="1"/>
+    <col min="4869" max="4869" width="13" style="28" customWidth="1"/>
+    <col min="4870" max="4872" width="14" style="28" customWidth="1"/>
+    <col min="4873" max="4873" width="17.140625" style="28" customWidth="1"/>
+    <col min="4874" max="4874" width="17.7109375" style="28" customWidth="1"/>
+    <col min="4875" max="4875" width="16.28515625" style="28" customWidth="1"/>
+    <col min="4876" max="4876" width="14" style="28" customWidth="1"/>
+    <col min="4877" max="4877" width="17" style="28" customWidth="1"/>
+    <col min="4878" max="4878" width="14.42578125" style="28" customWidth="1"/>
+    <col min="4879" max="5122" width="8.85546875" style="28"/>
+    <col min="5123" max="5123" width="9.7109375" style="28" customWidth="1"/>
+    <col min="5124" max="5124" width="21.85546875" style="28" customWidth="1"/>
+    <col min="5125" max="5125" width="13" style="28" customWidth="1"/>
+    <col min="5126" max="5128" width="14" style="28" customWidth="1"/>
+    <col min="5129" max="5129" width="17.140625" style="28" customWidth="1"/>
+    <col min="5130" max="5130" width="17.7109375" style="28" customWidth="1"/>
+    <col min="5131" max="5131" width="16.28515625" style="28" customWidth="1"/>
+    <col min="5132" max="5132" width="14" style="28" customWidth="1"/>
+    <col min="5133" max="5133" width="17" style="28" customWidth="1"/>
+    <col min="5134" max="5134" width="14.42578125" style="28" customWidth="1"/>
+    <col min="5135" max="5378" width="8.85546875" style="28"/>
+    <col min="5379" max="5379" width="9.7109375" style="28" customWidth="1"/>
+    <col min="5380" max="5380" width="21.85546875" style="28" customWidth="1"/>
+    <col min="5381" max="5381" width="13" style="28" customWidth="1"/>
+    <col min="5382" max="5384" width="14" style="28" customWidth="1"/>
+    <col min="5385" max="5385" width="17.140625" style="28" customWidth="1"/>
+    <col min="5386" max="5386" width="17.7109375" style="28" customWidth="1"/>
+    <col min="5387" max="5387" width="16.28515625" style="28" customWidth="1"/>
+    <col min="5388" max="5388" width="14" style="28" customWidth="1"/>
+    <col min="5389" max="5389" width="17" style="28" customWidth="1"/>
+    <col min="5390" max="5390" width="14.42578125" style="28" customWidth="1"/>
+    <col min="5391" max="5634" width="8.85546875" style="28"/>
+    <col min="5635" max="5635" width="9.7109375" style="28" customWidth="1"/>
+    <col min="5636" max="5636" width="21.85546875" style="28" customWidth="1"/>
+    <col min="5637" max="5637" width="13" style="28" customWidth="1"/>
+    <col min="5638" max="5640" width="14" style="28" customWidth="1"/>
+    <col min="5641" max="5641" width="17.140625" style="28" customWidth="1"/>
+    <col min="5642" max="5642" width="17.7109375" style="28" customWidth="1"/>
+    <col min="5643" max="5643" width="16.28515625" style="28" customWidth="1"/>
+    <col min="5644" max="5644" width="14" style="28" customWidth="1"/>
+    <col min="5645" max="5645" width="17" style="28" customWidth="1"/>
+    <col min="5646" max="5646" width="14.42578125" style="28" customWidth="1"/>
+    <col min="5647" max="5890" width="8.85546875" style="28"/>
+    <col min="5891" max="5891" width="9.7109375" style="28" customWidth="1"/>
+    <col min="5892" max="5892" width="21.85546875" style="28" customWidth="1"/>
+    <col min="5893" max="5893" width="13" style="28" customWidth="1"/>
+    <col min="5894" max="5896" width="14" style="28" customWidth="1"/>
+    <col min="5897" max="5897" width="17.140625" style="28" customWidth="1"/>
+    <col min="5898" max="5898" width="17.7109375" style="28" customWidth="1"/>
+    <col min="5899" max="5899" width="16.28515625" style="28" customWidth="1"/>
+    <col min="5900" max="5900" width="14" style="28" customWidth="1"/>
+    <col min="5901" max="5901" width="17" style="28" customWidth="1"/>
+    <col min="5902" max="5902" width="14.42578125" style="28" customWidth="1"/>
+    <col min="5903" max="6146" width="8.85546875" style="28"/>
+    <col min="6147" max="6147" width="9.7109375" style="28" customWidth="1"/>
+    <col min="6148" max="6148" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6149" max="6149" width="13" style="28" customWidth="1"/>
+    <col min="6150" max="6152" width="14" style="28" customWidth="1"/>
+    <col min="6153" max="6153" width="17.140625" style="28" customWidth="1"/>
+    <col min="6154" max="6154" width="17.7109375" style="28" customWidth="1"/>
+    <col min="6155" max="6155" width="16.28515625" style="28" customWidth="1"/>
+    <col min="6156" max="6156" width="14" style="28" customWidth="1"/>
+    <col min="6157" max="6157" width="17" style="28" customWidth="1"/>
+    <col min="6158" max="6158" width="14.42578125" style="28" customWidth="1"/>
+    <col min="6159" max="6402" width="8.85546875" style="28"/>
+    <col min="6403" max="6403" width="9.7109375" style="28" customWidth="1"/>
+    <col min="6404" max="6404" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6405" max="6405" width="13" style="28" customWidth="1"/>
+    <col min="6406" max="6408" width="14" style="28" customWidth="1"/>
+    <col min="6409" max="6409" width="17.140625" style="28" customWidth="1"/>
+    <col min="6410" max="6410" width="17.7109375" style="28" customWidth="1"/>
+    <col min="6411" max="6411" width="16.28515625" style="28" customWidth="1"/>
+    <col min="6412" max="6412" width="14" style="28" customWidth="1"/>
+    <col min="6413" max="6413" width="17" style="28" customWidth="1"/>
+    <col min="6414" max="6414" width="14.42578125" style="28" customWidth="1"/>
+    <col min="6415" max="6658" width="8.85546875" style="28"/>
+    <col min="6659" max="6659" width="9.7109375" style="28" customWidth="1"/>
+    <col min="6660" max="6660" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6661" max="6661" width="13" style="28" customWidth="1"/>
+    <col min="6662" max="6664" width="14" style="28" customWidth="1"/>
+    <col min="6665" max="6665" width="17.140625" style="28" customWidth="1"/>
+    <col min="6666" max="6666" width="17.7109375" style="28" customWidth="1"/>
+    <col min="6667" max="6667" width="16.28515625" style="28" customWidth="1"/>
+    <col min="6668" max="6668" width="14" style="28" customWidth="1"/>
+    <col min="6669" max="6669" width="17" style="28" customWidth="1"/>
+    <col min="6670" max="6670" width="14.42578125" style="28" customWidth="1"/>
+    <col min="6671" max="6914" width="8.85546875" style="28"/>
+    <col min="6915" max="6915" width="9.7109375" style="28" customWidth="1"/>
+    <col min="6916" max="6916" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6917" max="6917" width="13" style="28" customWidth="1"/>
+    <col min="6918" max="6920" width="14" style="28" customWidth="1"/>
+    <col min="6921" max="6921" width="17.140625" style="28" customWidth="1"/>
+    <col min="6922" max="6922" width="17.7109375" style="28" customWidth="1"/>
+    <col min="6923" max="6923" width="16.28515625" style="28" customWidth="1"/>
+    <col min="6924" max="6924" width="14" style="28" customWidth="1"/>
+    <col min="6925" max="6925" width="17" style="28" customWidth="1"/>
+    <col min="6926" max="6926" width="14.42578125" style="28" customWidth="1"/>
+    <col min="6927" max="7170" width="8.85546875" style="28"/>
+    <col min="7171" max="7171" width="9.7109375" style="28" customWidth="1"/>
+    <col min="7172" max="7172" width="21.85546875" style="28" customWidth="1"/>
+    <col min="7173" max="7173" width="13" style="28" customWidth="1"/>
+    <col min="7174" max="7176" width="14" style="28" customWidth="1"/>
+    <col min="7177" max="7177" width="17.140625" style="28" customWidth="1"/>
+    <col min="7178" max="7178" width="17.7109375" style="28" customWidth="1"/>
+    <col min="7179" max="7179" width="16.28515625" style="28" customWidth="1"/>
+    <col min="7180" max="7180" width="14" style="28" customWidth="1"/>
+    <col min="7181" max="7181" width="17" style="28" customWidth="1"/>
+    <col min="7182" max="7182" width="14.42578125" style="28" customWidth="1"/>
+    <col min="7183" max="7426" width="8.85546875" style="28"/>
+    <col min="7427" max="7427" width="9.7109375" style="28" customWidth="1"/>
+    <col min="7428" max="7428" width="21.85546875" style="28" customWidth="1"/>
+    <col min="7429" max="7429" width="13" style="28" customWidth="1"/>
+    <col min="7430" max="7432" width="14" style="28" customWidth="1"/>
+    <col min="7433" max="7433" width="17.140625" style="28" customWidth="1"/>
+    <col min="7434" max="7434" width="17.7109375" style="28" customWidth="1"/>
+    <col min="7435" max="7435" width="16.28515625" style="28" customWidth="1"/>
+    <col min="7436" max="7436" width="14" style="28" customWidth="1"/>
+    <col min="7437" max="7437" width="17" style="28" customWidth="1"/>
+    <col min="7438" max="7438" width="14.42578125" style="28" customWidth="1"/>
+    <col min="7439" max="7682" width="8.85546875" style="28"/>
+    <col min="7683" max="7683" width="9.7109375" style="28" customWidth="1"/>
+    <col min="7684" max="7684" width="21.85546875" style="28" customWidth="1"/>
+    <col min="7685" max="7685" width="13" style="28" customWidth="1"/>
+    <col min="7686" max="7688" width="14" style="28" customWidth="1"/>
+    <col min="7689" max="7689" width="17.140625" style="28" customWidth="1"/>
+    <col min="7690" max="7690" width="17.7109375" style="28" customWidth="1"/>
+    <col min="7691" max="7691" width="16.28515625" style="28" customWidth="1"/>
+    <col min="7692" max="7692" width="14" style="28" customWidth="1"/>
+    <col min="7693" max="7693" width="17" style="28" customWidth="1"/>
+    <col min="7694" max="7694" width="14.42578125" style="28" customWidth="1"/>
+    <col min="7695" max="7938" width="8.85546875" style="28"/>
+    <col min="7939" max="7939" width="9.7109375" style="28" customWidth="1"/>
+    <col min="7940" max="7940" width="21.85546875" style="28" customWidth="1"/>
+    <col min="7941" max="7941" width="13" style="28" customWidth="1"/>
+    <col min="7942" max="7944" width="14" style="28" customWidth="1"/>
+    <col min="7945" max="7945" width="17.140625" style="28" customWidth="1"/>
+    <col min="7946" max="7946" width="17.7109375" style="28" customWidth="1"/>
+    <col min="7947" max="7947" width="16.28515625" style="28" customWidth="1"/>
+    <col min="7948" max="7948" width="14" style="28" customWidth="1"/>
+    <col min="7949" max="7949" width="17" style="28" customWidth="1"/>
+    <col min="7950" max="7950" width="14.42578125" style="28" customWidth="1"/>
+    <col min="7951" max="8194" width="8.85546875" style="28"/>
+    <col min="8195" max="8195" width="9.7109375" style="28" customWidth="1"/>
+    <col min="8196" max="8196" width="21.85546875" style="28" customWidth="1"/>
+    <col min="8197" max="8197" width="13" style="28" customWidth="1"/>
+    <col min="8198" max="8200" width="14" style="28" customWidth="1"/>
+    <col min="8201" max="8201" width="17.140625" style="28" customWidth="1"/>
+    <col min="8202" max="8202" width="17.7109375" style="28" customWidth="1"/>
+    <col min="8203" max="8203" width="16.28515625" style="28" customWidth="1"/>
+    <col min="8204" max="8204" width="14" style="28" customWidth="1"/>
+    <col min="8205" max="8205" width="17" style="28" customWidth="1"/>
+    <col min="8206" max="8206" width="14.42578125" style="28" customWidth="1"/>
+    <col min="8207" max="8450" width="8.85546875" style="28"/>
+    <col min="8451" max="8451" width="9.7109375" style="28" customWidth="1"/>
+    <col min="8452" max="8452" width="21.85546875" style="28" customWidth="1"/>
+    <col min="8453" max="8453" width="13" style="28" customWidth="1"/>
+    <col min="8454" max="8456" width="14" style="28" customWidth="1"/>
+    <col min="8457" max="8457" width="17.140625" style="28" customWidth="1"/>
+    <col min="8458" max="8458" width="17.7109375" style="28" customWidth="1"/>
+    <col min="8459" max="8459" width="16.28515625" style="28" customWidth="1"/>
+    <col min="8460" max="8460" width="14" style="28" customWidth="1"/>
+    <col min="8461" max="8461" width="17" style="28" customWidth="1"/>
+    <col min="8462" max="8462" width="14.42578125" style="28" customWidth="1"/>
+    <col min="8463" max="8706" width="8.85546875" style="28"/>
+    <col min="8707" max="8707" width="9.7109375" style="28" customWidth="1"/>
+    <col min="8708" max="8708" width="21.85546875" style="28" customWidth="1"/>
+    <col min="8709" max="8709" width="13" style="28" customWidth="1"/>
+    <col min="8710" max="8712" width="14" style="28" customWidth="1"/>
+    <col min="8713" max="8713" width="17.140625" style="28" customWidth="1"/>
+    <col min="8714" max="8714" width="17.7109375" style="28" customWidth="1"/>
+    <col min="8715" max="8715" width="16.28515625" style="28" customWidth="1"/>
+    <col min="8716" max="8716" width="14" style="28" customWidth="1"/>
+    <col min="8717" max="8717" width="17" style="28" customWidth="1"/>
+    <col min="8718" max="8718" width="14.42578125" style="28" customWidth="1"/>
+    <col min="8719" max="8962" width="8.85546875" style="28"/>
+    <col min="8963" max="8963" width="9.7109375" style="28" customWidth="1"/>
+    <col min="8964" max="8964" width="21.85546875" style="28" customWidth="1"/>
+    <col min="8965" max="8965" width="13" style="28" customWidth="1"/>
+    <col min="8966" max="8968" width="14" style="28" customWidth="1"/>
+    <col min="8969" max="8969" width="17.140625" style="28" customWidth="1"/>
+    <col min="8970" max="8970" width="17.7109375" style="28" customWidth="1"/>
+    <col min="8971" max="8971" width="16.28515625" style="28" customWidth="1"/>
+    <col min="8972" max="8972" width="14" style="28" customWidth="1"/>
+    <col min="8973" max="8973" width="17" style="28" customWidth="1"/>
+    <col min="8974" max="8974" width="14.42578125" style="28" customWidth="1"/>
+    <col min="8975" max="9218" width="8.85546875" style="28"/>
+    <col min="9219" max="9219" width="9.7109375" style="28" customWidth="1"/>
+    <col min="9220" max="9220" width="21.85546875" style="28" customWidth="1"/>
+    <col min="9221" max="9221" width="13" style="28" customWidth="1"/>
+    <col min="9222" max="9224" width="14" style="28" customWidth="1"/>
+    <col min="9225" max="9225" width="17.140625" style="28" customWidth="1"/>
+    <col min="9226" max="9226" width="17.7109375" style="28" customWidth="1"/>
+    <col min="9227" max="9227" width="16.28515625" style="28" customWidth="1"/>
+    <col min="9228" max="9228" width="14" style="28" customWidth="1"/>
+    <col min="9229" max="9229" width="17" style="28" customWidth="1"/>
+    <col min="9230" max="9230" width="14.42578125" style="28" customWidth="1"/>
+    <col min="9231" max="9474" width="8.85546875" style="28"/>
+    <col min="9475" max="9475" width="9.7109375" style="28" customWidth="1"/>
+    <col min="9476" max="9476" width="21.85546875" style="28" customWidth="1"/>
+    <col min="9477" max="9477" width="13" style="28" customWidth="1"/>
+    <col min="9478" max="9480" width="14" style="28" customWidth="1"/>
+    <col min="9481" max="9481" width="17.140625" style="28" customWidth="1"/>
+    <col min="9482" max="9482" width="17.7109375" style="28" customWidth="1"/>
+    <col min="9483" max="9483" width="16.28515625" style="28" customWidth="1"/>
+    <col min="9484" max="9484" width="14" style="28" customWidth="1"/>
+    <col min="9485" max="9485" width="17" style="28" customWidth="1"/>
+    <col min="9486" max="9486" width="14.42578125" style="28" customWidth="1"/>
+    <col min="9487" max="9730" width="8.85546875" style="28"/>
+    <col min="9731" max="9731" width="9.7109375" style="28" customWidth="1"/>
+    <col min="9732" max="9732" width="21.85546875" style="28" customWidth="1"/>
+    <col min="9733" max="9733" width="13" style="28" customWidth="1"/>
+    <col min="9734" max="9736" width="14" style="28" customWidth="1"/>
+    <col min="9737" max="9737" width="17.140625" style="28" customWidth="1"/>
+    <col min="9738" max="9738" width="17.7109375" style="28" customWidth="1"/>
+    <col min="9739" max="9739" width="16.28515625" style="28" customWidth="1"/>
+    <col min="9740" max="9740" width="14" style="28" customWidth="1"/>
+    <col min="9741" max="9741" width="17" style="28" customWidth="1"/>
+    <col min="9742" max="9742" width="14.42578125" style="28" customWidth="1"/>
+    <col min="9743" max="9986" width="8.85546875" style="28"/>
+    <col min="9987" max="9987" width="9.7109375" style="28" customWidth="1"/>
+    <col min="9988" max="9988" width="21.85546875" style="28" customWidth="1"/>
+    <col min="9989" max="9989" width="13" style="28" customWidth="1"/>
+    <col min="9990" max="9992" width="14" style="28" customWidth="1"/>
+    <col min="9993" max="9993" width="17.140625" style="28" customWidth="1"/>
+    <col min="9994" max="9994" width="17.7109375" style="28" customWidth="1"/>
+    <col min="9995" max="9995" width="16.28515625" style="28" customWidth="1"/>
+    <col min="9996" max="9996" width="14" style="28" customWidth="1"/>
+    <col min="9997" max="9997" width="17" style="28" customWidth="1"/>
+    <col min="9998" max="9998" width="14.42578125" style="28" customWidth="1"/>
+    <col min="9999" max="10242" width="8.85546875" style="28"/>
+    <col min="10243" max="10243" width="9.7109375" style="28" customWidth="1"/>
+    <col min="10244" max="10244" width="21.85546875" style="28" customWidth="1"/>
+    <col min="10245" max="10245" width="13" style="28" customWidth="1"/>
+    <col min="10246" max="10248" width="14" style="28" customWidth="1"/>
+    <col min="10249" max="10249" width="17.140625" style="28" customWidth="1"/>
+    <col min="10250" max="10250" width="17.7109375" style="28" customWidth="1"/>
+    <col min="10251" max="10251" width="16.28515625" style="28" customWidth="1"/>
+    <col min="10252" max="10252" width="14" style="28" customWidth="1"/>
+    <col min="10253" max="10253" width="17" style="28" customWidth="1"/>
+    <col min="10254" max="10254" width="14.42578125" style="28" customWidth="1"/>
+    <col min="10255" max="10498" width="8.85546875" style="28"/>
+    <col min="10499" max="10499" width="9.7109375" style="28" customWidth="1"/>
+    <col min="10500" max="10500" width="21.85546875" style="28" customWidth="1"/>
+    <col min="10501" max="10501" width="13" style="28" customWidth="1"/>
+    <col min="10502" max="10504" width="14" style="28" customWidth="1"/>
+    <col min="10505" max="10505" width="17.140625" style="28" customWidth="1"/>
+    <col min="10506" max="10506" width="17.7109375" style="28" customWidth="1"/>
+    <col min="10507" max="10507" width="16.28515625" style="28" customWidth="1"/>
+    <col min="10508" max="10508" width="14" style="28" customWidth="1"/>
+    <col min="10509" max="10509" width="17" style="28" customWidth="1"/>
+    <col min="10510" max="10510" width="14.42578125" style="28" customWidth="1"/>
+    <col min="10511" max="10754" width="8.85546875" style="28"/>
+    <col min="10755" max="10755" width="9.7109375" style="28" customWidth="1"/>
+    <col min="10756" max="10756" width="21.85546875" style="28" customWidth="1"/>
+    <col min="10757" max="10757" width="13" style="28" customWidth="1"/>
+    <col min="10758" max="10760" width="14" style="28" customWidth="1"/>
+    <col min="10761" max="10761" width="17.140625" style="28" customWidth="1"/>
+    <col min="10762" max="10762" width="17.7109375" style="28" customWidth="1"/>
+    <col min="10763" max="10763" width="16.28515625" style="28" customWidth="1"/>
+    <col min="10764" max="10764" width="14" style="28" customWidth="1"/>
+    <col min="10765" max="10765" width="17" style="28" customWidth="1"/>
+    <col min="10766" max="10766" width="14.42578125" style="28" customWidth="1"/>
+    <col min="10767" max="11010" width="8.85546875" style="28"/>
+    <col min="11011" max="11011" width="9.7109375" style="28" customWidth="1"/>
+    <col min="11012" max="11012" width="21.85546875" style="28" customWidth="1"/>
+    <col min="11013" max="11013" width="13" style="28" customWidth="1"/>
+    <col min="11014" max="11016" width="14" style="28" customWidth="1"/>
+    <col min="11017" max="11017" width="17.140625" style="28" customWidth="1"/>
+    <col min="11018" max="11018" width="17.7109375" style="28" customWidth="1"/>
+    <col min="11019" max="11019" width="16.28515625" style="28" customWidth="1"/>
+    <col min="11020" max="11020" width="14" style="28" customWidth="1"/>
+    <col min="11021" max="11021" width="17" style="28" customWidth="1"/>
+    <col min="11022" max="11022" width="14.42578125" style="28" customWidth="1"/>
+    <col min="11023" max="11266" width="8.85546875" style="28"/>
+    <col min="11267" max="11267" width="9.7109375" style="28" customWidth="1"/>
+    <col min="11268" max="11268" width="21.85546875" style="28" customWidth="1"/>
+    <col min="11269" max="11269" width="13" style="28" customWidth="1"/>
+    <col min="11270" max="11272" width="14" style="28" customWidth="1"/>
+    <col min="11273" max="11273" width="17.140625" style="28" customWidth="1"/>
+    <col min="11274" max="11274" width="17.7109375" style="28" customWidth="1"/>
+    <col min="11275" max="11275" width="16.28515625" style="28" customWidth="1"/>
+    <col min="11276" max="11276" width="14" style="28" customWidth="1"/>
+    <col min="11277" max="11277" width="17" style="28" customWidth="1"/>
+    <col min="11278" max="11278" width="14.42578125" style="28" customWidth="1"/>
+    <col min="11279" max="11522" width="8.85546875" style="28"/>
+    <col min="11523" max="11523" width="9.7109375" style="28" customWidth="1"/>
+    <col min="11524" max="11524" width="21.85546875" style="28" customWidth="1"/>
+    <col min="11525" max="11525" width="13" style="28" customWidth="1"/>
+    <col min="11526" max="11528" width="14" style="28" customWidth="1"/>
+    <col min="11529" max="11529" width="17.140625" style="28" customWidth="1"/>
+    <col min="11530" max="11530" width="17.7109375" style="28" customWidth="1"/>
+    <col min="11531" max="11531" width="16.28515625" style="28" customWidth="1"/>
+    <col min="11532" max="11532" width="14" style="28" customWidth="1"/>
+    <col min="11533" max="11533" width="17" style="28" customWidth="1"/>
+    <col min="11534" max="11534" width="14.42578125" style="28" customWidth="1"/>
+    <col min="11535" max="11778" width="8.85546875" style="28"/>
+    <col min="11779" max="11779" width="9.7109375" style="28" customWidth="1"/>
+    <col min="11780" max="11780" width="21.85546875" style="28" customWidth="1"/>
+    <col min="11781" max="11781" width="13" style="28" customWidth="1"/>
+    <col min="11782" max="11784" width="14" style="28" customWidth="1"/>
+    <col min="11785" max="11785" width="17.140625" style="28" customWidth="1"/>
+    <col min="11786" max="11786" width="17.7109375" style="28" customWidth="1"/>
+    <col min="11787" max="11787" width="16.28515625" style="28" customWidth="1"/>
+    <col min="11788" max="11788" width="14" style="28" customWidth="1"/>
+    <col min="11789" max="11789" width="17" style="28" customWidth="1"/>
+    <col min="11790" max="11790" width="14.42578125" style="28" customWidth="1"/>
+    <col min="11791" max="12034" width="8.85546875" style="28"/>
+    <col min="12035" max="12035" width="9.7109375" style="28" customWidth="1"/>
+    <col min="12036" max="12036" width="21.85546875" style="28" customWidth="1"/>
+    <col min="12037" max="12037" width="13" style="28" customWidth="1"/>
+    <col min="12038" max="12040" width="14" style="28" customWidth="1"/>
+    <col min="12041" max="12041" width="17.140625" style="28" customWidth="1"/>
+    <col min="12042" max="12042" width="17.7109375" style="28" customWidth="1"/>
+    <col min="12043" max="12043" width="16.28515625" style="28" customWidth="1"/>
+    <col min="12044" max="12044" width="14" style="28" customWidth="1"/>
+    <col min="12045" max="12045" width="17" style="28" customWidth="1"/>
+    <col min="12046" max="12046" width="14.42578125" style="28" customWidth="1"/>
+    <col min="12047" max="12290" width="8.85546875" style="28"/>
+    <col min="12291" max="12291" width="9.7109375" style="28" customWidth="1"/>
+    <col min="12292" max="12292" width="21.85546875" style="28" customWidth="1"/>
+    <col min="12293" max="12293" width="13" style="28" customWidth="1"/>
+    <col min="12294" max="12296" width="14" style="28" customWidth="1"/>
+    <col min="12297" max="12297" width="17.140625" style="28" customWidth="1"/>
+    <col min="12298" max="12298" width="17.7109375" style="28" customWidth="1"/>
+    <col min="12299" max="12299" width="16.28515625" style="28" customWidth="1"/>
+    <col min="12300" max="12300" width="14" style="28" customWidth="1"/>
+    <col min="12301" max="12301" width="17" style="28" customWidth="1"/>
+    <col min="12302" max="12302" width="14.42578125" style="28" customWidth="1"/>
+    <col min="12303" max="12546" width="8.85546875" style="28"/>
+    <col min="12547" max="12547" width="9.7109375" style="28" customWidth="1"/>
+    <col min="12548" max="12548" width="21.85546875" style="28" customWidth="1"/>
+    <col min="12549" max="12549" width="13" style="28" customWidth="1"/>
+    <col min="12550" max="12552" width="14" style="28" customWidth="1"/>
+    <col min="12553" max="12553" width="17.140625" style="28" customWidth="1"/>
+    <col min="12554" max="12554" width="17.7109375" style="28" customWidth="1"/>
+    <col min="12555" max="12555" width="16.28515625" style="28" customWidth="1"/>
+    <col min="12556" max="12556" width="14" style="28" customWidth="1"/>
+    <col min="12557" max="12557" width="17" style="28" customWidth="1"/>
+    <col min="12558" max="12558" width="14.42578125" style="28" customWidth="1"/>
+    <col min="12559" max="12802" width="8.85546875" style="28"/>
+    <col min="12803" max="12803" width="9.7109375" style="28" customWidth="1"/>
+    <col min="12804" max="12804" width="21.85546875" style="28" customWidth="1"/>
+    <col min="12805" max="12805" width="13" style="28" customWidth="1"/>
+    <col min="12806" max="12808" width="14" style="28" customWidth="1"/>
+    <col min="12809" max="12809" width="17.140625" style="28" customWidth="1"/>
+    <col min="12810" max="12810" width="17.7109375" style="28" customWidth="1"/>
+    <col min="12811" max="12811" width="16.28515625" style="28" customWidth="1"/>
+    <col min="12812" max="12812" width="14" style="28" customWidth="1"/>
+    <col min="12813" max="12813" width="17" style="28" customWidth="1"/>
+    <col min="12814" max="12814" width="14.42578125" style="28" customWidth="1"/>
+    <col min="12815" max="13058" width="8.85546875" style="28"/>
+    <col min="13059" max="13059" width="9.7109375" style="28" customWidth="1"/>
+    <col min="13060" max="13060" width="21.85546875" style="28" customWidth="1"/>
+    <col min="13061" max="13061" width="13" style="28" customWidth="1"/>
+    <col min="13062" max="13064" width="14" style="28" customWidth="1"/>
+    <col min="13065" max="13065" width="17.140625" style="28" customWidth="1"/>
+    <col min="13066" max="13066" width="17.7109375" style="28" customWidth="1"/>
+    <col min="13067" max="13067" width="16.28515625" style="28" customWidth="1"/>
+    <col min="13068" max="13068" width="14" style="28" customWidth="1"/>
+    <col min="13069" max="13069" width="17" style="28" customWidth="1"/>
+    <col min="13070" max="13070" width="14.42578125" style="28" customWidth="1"/>
+    <col min="13071" max="13314" width="8.85546875" style="28"/>
+    <col min="13315" max="13315" width="9.7109375" style="28" customWidth="1"/>
+    <col min="13316" max="13316" width="21.85546875" style="28" customWidth="1"/>
+    <col min="13317" max="13317" width="13" style="28" customWidth="1"/>
+    <col min="13318" max="13320" width="14" style="28" customWidth="1"/>
+    <col min="13321" max="13321" width="17.140625" style="28" customWidth="1"/>
+    <col min="13322" max="13322" width="17.7109375" style="28" customWidth="1"/>
+    <col min="13323" max="13323" width="16.28515625" style="28" customWidth="1"/>
+    <col min="13324" max="13324" width="14" style="28" customWidth="1"/>
+    <col min="13325" max="13325" width="17" style="28" customWidth="1"/>
+    <col min="13326" max="13326" width="14.42578125" style="28" customWidth="1"/>
+    <col min="13327" max="13570" width="8.85546875" style="28"/>
+    <col min="13571" max="13571" width="9.7109375" style="28" customWidth="1"/>
+    <col min="13572" max="13572" width="21.85546875" style="28" customWidth="1"/>
+    <col min="13573" max="13573" width="13" style="28" customWidth="1"/>
+    <col min="13574" max="13576" width="14" style="28" customWidth="1"/>
+    <col min="13577" max="13577" width="17.140625" style="28" customWidth="1"/>
+    <col min="13578" max="13578" width="17.7109375" style="28" customWidth="1"/>
+    <col min="13579" max="13579" width="16.28515625" style="28" customWidth="1"/>
+    <col min="13580" max="13580" width="14" style="28" customWidth="1"/>
+    <col min="13581" max="13581" width="17" style="28" customWidth="1"/>
+    <col min="13582" max="13582" width="14.42578125" style="28" customWidth="1"/>
+    <col min="13583" max="13826" width="8.85546875" style="28"/>
+    <col min="13827" max="13827" width="9.7109375" style="28" customWidth="1"/>
+    <col min="13828" max="13828" width="21.85546875" style="28" customWidth="1"/>
+    <col min="13829" max="13829" width="13" style="28" customWidth="1"/>
+    <col min="13830" max="13832" width="14" style="28" customWidth="1"/>
+    <col min="13833" max="13833" width="17.140625" style="28" customWidth="1"/>
+    <col min="13834" max="13834" width="17.7109375" style="28" customWidth="1"/>
+    <col min="13835" max="13835" width="16.28515625" style="28" customWidth="1"/>
+    <col min="13836" max="13836" width="14" style="28" customWidth="1"/>
+    <col min="13837" max="13837" width="17" style="28" customWidth="1"/>
+    <col min="13838" max="13838" width="14.42578125" style="28" customWidth="1"/>
+    <col min="13839" max="14082" width="8.85546875" style="28"/>
+    <col min="14083" max="14083" width="9.7109375" style="28" customWidth="1"/>
+    <col min="14084" max="14084" width="21.85546875" style="28" customWidth="1"/>
+    <col min="14085" max="14085" width="13" style="28" customWidth="1"/>
+    <col min="14086" max="14088" width="14" style="28" customWidth="1"/>
+    <col min="14089" max="14089" width="17.140625" style="28" customWidth="1"/>
+    <col min="14090" max="14090" width="17.7109375" style="28" customWidth="1"/>
+    <col min="14091" max="14091" width="16.28515625" style="28" customWidth="1"/>
+    <col min="14092" max="14092" width="14" style="28" customWidth="1"/>
+    <col min="14093" max="14093" width="17" style="28" customWidth="1"/>
+    <col min="14094" max="14094" width="14.42578125" style="28" customWidth="1"/>
+    <col min="14095" max="14338" width="8.85546875" style="28"/>
+    <col min="14339" max="14339" width="9.7109375" style="28" customWidth="1"/>
+    <col min="14340" max="14340" width="21.85546875" style="28" customWidth="1"/>
+    <col min="14341" max="14341" width="13" style="28" customWidth="1"/>
+    <col min="14342" max="14344" width="14" style="28" customWidth="1"/>
+    <col min="14345" max="14345" width="17.140625" style="28" customWidth="1"/>
+    <col min="14346" max="14346" width="17.7109375" style="28" customWidth="1"/>
+    <col min="14347" max="14347" width="16.28515625" style="28" customWidth="1"/>
+    <col min="14348" max="14348" width="14" style="28" customWidth="1"/>
+    <col min="14349" max="14349" width="17" style="28" customWidth="1"/>
+    <col min="14350" max="14350" width="14.42578125" style="28" customWidth="1"/>
+    <col min="14351" max="14594" width="8.85546875" style="28"/>
+    <col min="14595" max="14595" width="9.7109375" style="28" customWidth="1"/>
+    <col min="14596" max="14596" width="21.85546875" style="28" customWidth="1"/>
+    <col min="14597" max="14597" width="13" style="28" customWidth="1"/>
+    <col min="14598" max="14600" width="14" style="28" customWidth="1"/>
+    <col min="14601" max="14601" width="17.140625" style="28" customWidth="1"/>
+    <col min="14602" max="14602" width="17.7109375" style="28" customWidth="1"/>
+    <col min="14603" max="14603" width="16.28515625" style="28" customWidth="1"/>
+    <col min="14604" max="14604" width="14" style="28" customWidth="1"/>
+    <col min="14605" max="14605" width="17" style="28" customWidth="1"/>
+    <col min="14606" max="14606" width="14.42578125" style="28" customWidth="1"/>
+    <col min="14607" max="14850" width="8.85546875" style="28"/>
+    <col min="14851" max="14851" width="9.7109375" style="28" customWidth="1"/>
+    <col min="14852" max="14852" width="21.85546875" style="28" customWidth="1"/>
+    <col min="14853" max="14853" width="13" style="28" customWidth="1"/>
+    <col min="14854" max="14856" width="14" style="28" customWidth="1"/>
+    <col min="14857" max="14857" width="17.140625" style="28" customWidth="1"/>
+    <col min="14858" max="14858" width="17.7109375" style="28" customWidth="1"/>
+    <col min="14859" max="14859" width="16.28515625" style="28" customWidth="1"/>
+    <col min="14860" max="14860" width="14" style="28" customWidth="1"/>
+    <col min="14861" max="14861" width="17" style="28" customWidth="1"/>
+    <col min="14862" max="14862" width="14.42578125" style="28" customWidth="1"/>
+    <col min="14863" max="15106" width="8.85546875" style="28"/>
+    <col min="15107" max="15107" width="9.7109375" style="28" customWidth="1"/>
+    <col min="15108" max="15108" width="21.85546875" style="28" customWidth="1"/>
+    <col min="15109" max="15109" width="13" style="28" customWidth="1"/>
+    <col min="15110" max="15112" width="14" style="28" customWidth="1"/>
+    <col min="15113" max="15113" width="17.140625" style="28" customWidth="1"/>
+    <col min="15114" max="15114" width="17.7109375" style="28" customWidth="1"/>
+    <col min="15115" max="15115" width="16.28515625" style="28" customWidth="1"/>
+    <col min="15116" max="15116" width="14" style="28" customWidth="1"/>
+    <col min="15117" max="15117" width="17" style="28" customWidth="1"/>
+    <col min="15118" max="15118" width="14.42578125" style="28" customWidth="1"/>
+    <col min="15119" max="15362" width="8.85546875" style="28"/>
+    <col min="15363" max="15363" width="9.7109375" style="28" customWidth="1"/>
+    <col min="15364" max="15364" width="21.85546875" style="28" customWidth="1"/>
+    <col min="15365" max="15365" width="13" style="28" customWidth="1"/>
+    <col min="15366" max="15368" width="14" style="28" customWidth="1"/>
+    <col min="15369" max="15369" width="17.140625" style="28" customWidth="1"/>
+    <col min="15370" max="15370" width="17.7109375" style="28" customWidth="1"/>
+    <col min="15371" max="15371" width="16.28515625" style="28" customWidth="1"/>
+    <col min="15372" max="15372" width="14" style="28" customWidth="1"/>
+    <col min="15373" max="15373" width="17" style="28" customWidth="1"/>
+    <col min="15374" max="15374" width="14.42578125" style="28" customWidth="1"/>
+    <col min="15375" max="15618" width="8.85546875" style="28"/>
+    <col min="15619" max="15619" width="9.7109375" style="28" customWidth="1"/>
+    <col min="15620" max="15620" width="21.85546875" style="28" customWidth="1"/>
+    <col min="15621" max="15621" width="13" style="28" customWidth="1"/>
+    <col min="15622" max="15624" width="14" style="28" customWidth="1"/>
+    <col min="15625" max="15625" width="17.140625" style="28" customWidth="1"/>
+    <col min="15626" max="15626" width="17.7109375" style="28" customWidth="1"/>
+    <col min="15627" max="15627" width="16.28515625" style="28" customWidth="1"/>
+    <col min="15628" max="15628" width="14" style="28" customWidth="1"/>
+    <col min="15629" max="15629" width="17" style="28" customWidth="1"/>
+    <col min="15630" max="15630" width="14.42578125" style="28" customWidth="1"/>
+    <col min="15631" max="15874" width="8.85546875" style="28"/>
+    <col min="15875" max="15875" width="9.7109375" style="28" customWidth="1"/>
+    <col min="15876" max="15876" width="21.85546875" style="28" customWidth="1"/>
+    <col min="15877" max="15877" width="13" style="28" customWidth="1"/>
+    <col min="15878" max="15880" width="14" style="28" customWidth="1"/>
+    <col min="15881" max="15881" width="17.140625" style="28" customWidth="1"/>
+    <col min="15882" max="15882" width="17.7109375" style="28" customWidth="1"/>
+    <col min="15883" max="15883" width="16.28515625" style="28" customWidth="1"/>
+    <col min="15884" max="15884" width="14" style="28" customWidth="1"/>
+    <col min="15885" max="15885" width="17" style="28" customWidth="1"/>
+    <col min="15886" max="15886" width="14.42578125" style="28" customWidth="1"/>
+    <col min="15887" max="16130" width="8.85546875" style="28"/>
+    <col min="16131" max="16131" width="9.7109375" style="28" customWidth="1"/>
+    <col min="16132" max="16132" width="21.85546875" style="28" customWidth="1"/>
+    <col min="16133" max="16133" width="13" style="28" customWidth="1"/>
+    <col min="16134" max="16136" width="14" style="28" customWidth="1"/>
+    <col min="16137" max="16137" width="17.140625" style="28" customWidth="1"/>
+    <col min="16138" max="16138" width="17.7109375" style="28" customWidth="1"/>
+    <col min="16139" max="16139" width="16.28515625" style="28" customWidth="1"/>
+    <col min="16140" max="16140" width="14" style="28" customWidth="1"/>
+    <col min="16141" max="16141" width="17" style="28" customWidth="1"/>
+    <col min="16142" max="16142" width="14.42578125" style="28" customWidth="1"/>
+    <col min="16143" max="16143" width="8.85546875" style="28"/>
+    <col min="16144" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="28" customFormat="1" ht="12.75">
-      <c r="B1" s="152" t="s">
+    <row r="1" spans="2:13" s="27" customFormat="1" ht="12.75">
+      <c r="B1" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="165" t="str">
+      <c r="C1" s="134" t="str">
         <f>OVERALLLIGHT</f>
         <v>AMBER</v>
       </c>
-      <c r="D1" s="164"/>
+      <c r="D1" s="133"/>
     </row>
-    <row r="2" spans="2:13" s="28" customFormat="1" ht="12.75">
-      <c r="B2" s="152" t="s">
+    <row r="2" spans="2:13" s="27" customFormat="1" ht="12.75">
+      <c r="B2" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="162" t="str">
+      <c r="C2" s="131" t="str">
         <f>MILESTONELIGHT</f>
         <v>RED</v>
       </c>
-      <c r="D2" s="159"/>
+      <c r="D2" s="128"/>
     </row>
-    <row r="3" spans="2:13" s="28" customFormat="1" ht="12.75">
-      <c r="B3" s="152" t="s">
+    <row r="3" spans="2:13" s="27" customFormat="1" ht="12.75">
+      <c r="B3" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="162" t="str">
+      <c r="C3" s="131" t="str">
         <f>ISSUELIGHT</f>
         <v>GREEN</v>
       </c>
-      <c r="D3" s="159"/>
+      <c r="D3" s="128"/>
     </row>
-    <row r="4" spans="2:13" s="28" customFormat="1" ht="12.75">
-      <c r="B4" s="152" t="s">
+    <row r="4" spans="2:13" s="27" customFormat="1" ht="12.75">
+      <c r="B4" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="162" t="str">
+      <c r="C4" s="131" t="str">
         <f>RISKLIGHT</f>
         <v>GREEN</v>
       </c>
-      <c r="D4" s="159"/>
+      <c r="D4" s="128"/>
     </row>
-    <row r="5" spans="2:13" s="28" customFormat="1" ht="12.75">
-      <c r="B5" s="152" t="s">
+    <row r="5" spans="2:13" s="27" customFormat="1" ht="12.75">
+      <c r="B5" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="162" t="str">
+      <c r="C5" s="131" t="str">
         <f>CHANGELIGHT</f>
         <v>GREEN</v>
       </c>
-      <c r="D5" s="159"/>
+      <c r="D5" s="128"/>
     </row>
-    <row r="6" spans="2:13" s="28" customFormat="1" ht="12.75">
-      <c r="B6" s="152" t="s">
+    <row r="6" spans="2:13" s="27" customFormat="1" ht="12.75">
+      <c r="B6" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="163" t="str">
+      <c r="C6" s="132" t="str">
         <f>DEPENDENCYLIGHT</f>
         <v/>
       </c>
-      <c r="D6" s="159"/>
+      <c r="D6" s="128"/>
     </row>
-    <row r="7" spans="2:13" s="28" customFormat="1" ht="12.75">
-      <c r="B7" s="152" t="s">
+    <row r="7" spans="2:13" s="27" customFormat="1" ht="12.75">
+      <c r="B7" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="163" t="str">
+      <c r="C7" s="132" t="str">
         <f>MEASURELIGHT</f>
         <v/>
       </c>
-      <c r="D7" s="159"/>
+      <c r="D7" s="128"/>
     </row>
-    <row r="8" spans="2:13" s="28" customFormat="1">
-      <c r="B8" s="152" t="s">
+    <row r="8" spans="2:13" s="27" customFormat="1">
+      <c r="B8" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="162" t="str">
+      <c r="C8" s="131" t="str">
         <f>COMMUNICATIONLIGHT</f>
-        <v>AMBER</v>
-      </c>
-      <c r="D8" s="159"/>
-      <c r="F8" s="29"/>
+        <v>GREEN</v>
+      </c>
+      <c r="D8" s="128"/>
+      <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="2:13" s="28" customFormat="1">
-      <c r="B9" s="152" t="s">
+    <row r="9" spans="2:13" s="27" customFormat="1">
+      <c r="B9" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="161" t="str">
+      <c r="C9" s="130" t="str">
         <f>FINANCELIGHT</f>
         <v>GREEN</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="128"/>
+      <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="2:13" s="28" customFormat="1" ht="12.75">
-      <c r="B10" s="152"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="159"/>
+    <row r="10" spans="2:13" s="27" customFormat="1" ht="12.75">
+      <c r="B10" s="121"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="128"/>
     </row>
-    <row r="11" spans="2:13" s="28" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B11" s="152"/>
-      <c r="C11" s="158" t="str">
+    <row r="11" spans="2:13" s="27" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B11" s="121"/>
+      <c r="C11" s="127" t="str">
         <f>ProjNo</f>
         <v>RT029</v>
       </c>
-      <c r="D11" s="157" t="str">
+      <c r="D11" s="126" t="str">
         <f>ProjName</f>
         <v>Cloud Based Bioinformatics Tools</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="28" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B12" s="152"/>
-      <c r="C12" s="156" t="s">
+    <row r="12" spans="2:13" s="27" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B12" s="121"/>
+      <c r="C12" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="155">
+      <c r="D12" s="124">
         <f>ReportFrom</f>
         <v>41244</v>
       </c>
-      <c r="F12" s="149"/>
+      <c r="F12" s="118"/>
     </row>
-    <row r="13" spans="2:13" s="28" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B13" s="152"/>
-      <c r="C13" s="154" t="s">
+    <row r="13" spans="2:13" s="27" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B13" s="121"/>
+      <c r="C13" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="153">
+      <c r="D13" s="122">
         <f>LastDateReport</f>
         <v>41334</v>
       </c>
-      <c r="F13" s="149"/>
+      <c r="F13" s="118"/>
     </row>
-    <row r="14" spans="2:13" s="28" customFormat="1" ht="6" customHeight="1">
-      <c r="B14" s="152"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="149"/>
+    <row r="14" spans="2:13" s="27" customFormat="1" ht="6" customHeight="1">
+      <c r="B14" s="121"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="118"/>
     </row>
-    <row r="15" spans="2:13" s="28" customFormat="1" ht="18.95" customHeight="1">
-      <c r="C15" s="148" t="s">
+    <row r="15" spans="2:13" s="27" customFormat="1" ht="18.95" customHeight="1">
+      <c r="C15" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="I15" s="148" t="s">
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="I15" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="148" t="str">
+      <c r="J15" s="117" t="str">
         <f>FINANCELIGHT</f>
         <v>GREEN</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="M15" s="148"/>
+      <c r="K15" s="117"/>
+      <c r="M15" s="117"/>
     </row>
-    <row r="17" spans="1:21" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
+    <row r="17" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
     </row>
-    <row r="18" spans="1:21" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="145" t="s">
+    <row r="18" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="142" t="s">
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="141"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="1:21" s="28" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="139" t="s">
+    <row r="19" spans="1:21" s="27" customFormat="1" ht="57" customHeight="1" thickBot="1">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="138" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="137" t="s">
+      <c r="F19" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="136" t="s">
+      <c r="H19" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="135" t="s">
+      <c r="I19" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="134" t="s">
+      <c r="J19" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="133" t="s">
+      <c r="K19" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="132" t="s">
+      <c r="L19" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
     </row>
-    <row r="20" spans="1:21" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="129">
+    <row r="20" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="104">
         <f>R46</f>
         <v>289000</v>
       </c>
-      <c r="F20" s="128">
+      <c r="F20" s="103">
         <f>D38</f>
         <v>104000</v>
       </c>
-      <c r="G20" s="128">
+      <c r="G20" s="103">
         <f>H38</f>
         <v>152482</v>
       </c>
-      <c r="H20" s="127">
+      <c r="H20" s="102">
         <f>E20-F20</f>
         <v>185000</v>
       </c>
-      <c r="I20" s="126">
+      <c r="I20" s="101">
         <f>E20-I38</f>
         <v>0</v>
       </c>
-      <c r="J20" s="125">
+      <c r="J20" s="100">
         <f>R52</f>
         <v>323892</v>
       </c>
-      <c r="K20" s="124">
+      <c r="K20" s="99">
         <f>L38</f>
         <v>102384</v>
       </c>
-      <c r="L20" s="123">
+      <c r="L20" s="98">
         <f>J20-K20</f>
         <v>221508</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
     </row>
-    <row r="22" spans="1:21" s="28" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29" t="s">
+    <row r="22" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="122" t="s">
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="T22" s="122" t="s">
+      <c r="T22" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="U22" s="121"/>
+      <c r="U22" s="96"/>
     </row>
-    <row r="23" spans="1:21" s="94" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="120" t="s">
+    <row r="23" spans="1:21" s="87" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A23" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="116" t="s">
+      <c r="C23" s="151"/>
+      <c r="D23" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="117" t="s">
+      <c r="E23" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="114" t="s">
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="113" t="s">
+      <c r="J23" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="112"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="110" t="s">
+      <c r="K23" s="161"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="98"/>
-      <c r="P23" s="97" t="s">
+      <c r="N23" s="89"/>
+      <c r="P23" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="97" t="s">
+      <c r="Q23" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="S23" s="109" t="s">
+      <c r="S23" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="T23" s="108" t="str">
+      <c r="T23" s="94" t="str">
         <f>IF(I38&lt;&gt;I39,"RED","Correct "&amp;I38&amp;" = "&amp;I39)</f>
         <v>Correct 289000 = 289000</v>
       </c>
-      <c r="U23" s="107" t="s">
+      <c r="U23" s="152" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="94" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A24" s="106"/>
-      <c r="B24" s="105" t="s">
+    <row r="24" spans="1:21" s="87" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A24" s="149"/>
+      <c r="B24" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="102" t="s">
+      <c r="D24" s="136"/>
+      <c r="E24" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="101" t="s">
+      <c r="G24" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="100" t="s">
+      <c r="H24" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="103"/>
-      <c r="J24" s="102" t="s">
+      <c r="I24" s="141"/>
+      <c r="J24" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="101" t="s">
+      <c r="K24" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="100" t="s">
+      <c r="L24" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="99"/>
-      <c r="N24" s="98"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="S24" s="94" t="s">
+      <c r="M24" s="164"/>
+      <c r="N24" s="89"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="137"/>
+      <c r="S24" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="T24" s="96">
+      <c r="T24" s="88">
         <f>I39*0.3</f>
         <v>86700</v>
       </c>
-      <c r="U24" s="95"/>
+      <c r="U24" s="153"/>
     </row>
-    <row r="25" spans="1:21" s="28" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="78">
+    <row r="25" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="71">
         <v>1</v>
       </c>
-      <c r="B25" s="93">
+      <c r="B25" s="86">
         <v>41091</v>
       </c>
-      <c r="C25" s="92">
+      <c r="C25" s="85">
         <v>41274</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="84">
         <v>104000</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="78">
         <v>122279</v>
       </c>
-      <c r="F25" s="79">
-        <v>0</v>
-      </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="71">
-        <f>SUM(E25:G25)</f>
+      <c r="F25" s="72">
+        <v>0</v>
+      </c>
+      <c r="G25" s="72"/>
+      <c r="H25" s="64">
+        <f t="shared" ref="H25:H37" si="0">SUM(E25:G25)</f>
         <v>122279</v>
       </c>
-      <c r="I25" s="86">
+      <c r="I25" s="79">
         <f>H25</f>
         <v>122279</v>
       </c>
-      <c r="J25" s="85">
+      <c r="J25" s="78">
         <v>2364</v>
       </c>
-      <c r="K25" s="79">
+      <c r="K25" s="72">
         <v>72474</v>
       </c>
-      <c r="L25" s="71">
-        <f>SUM(J25:K25)</f>
+      <c r="L25" s="64">
+        <f t="shared" ref="L25:L37" si="1">SUM(J25:K25)</f>
         <v>74838</v>
       </c>
-      <c r="M25" s="84">
+      <c r="M25" s="77">
         <f>L25</f>
         <v>74838</v>
       </c>
-      <c r="N25" s="29" t="str">
+      <c r="N25" s="28" t="str">
         <f>IF(H25&gt;0,IF(I25&lt;&gt;H25,"WARNING!! UPDATE: I25 $"&amp;I25&amp;" WITH ACTUAL SPEND:$ "&amp;H25,""),"")</f>
         <v/>
       </c>
-      <c r="O25" s="29"/>
-      <c r="P25" s="61">
-        <f>IF(H25&gt;0,H25,I25)</f>
+      <c r="O25" s="28"/>
+      <c r="P25" s="54">
+        <f t="shared" ref="P25:P37" si="2">IF(H25&gt;0,H25,I25)</f>
         <v>122279</v>
       </c>
-      <c r="Q25" s="60">
-        <f>IF(L25&gt;0,L25,M25)</f>
+      <c r="Q25" s="53">
+        <f t="shared" ref="Q25:Q37" si="3">IF(L25&gt;0,L25,M25)</f>
         <v>74838</v>
       </c>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29" t="str">
+      <c r="R25" s="28"/>
+      <c r="S25" s="28" t="str">
         <f>S24&amp;" or more in last quarter"</f>
         <v>30% of funds or more in last quarter</v>
       </c>
-      <c r="T25" s="29" t="str">
+      <c r="T25" s="28" t="str">
         <f>IF(LASTQUARTER&gt;T24-1,"RED","Less than "&amp; S24&amp;" in last quarter: "&amp;LASTQUARTER)</f>
         <v>Less than 30% of funds in last quarter: 15552</v>
       </c>
-      <c r="U25" s="90">
-        <f>M25+I25</f>
+      <c r="U25" s="83">
+        <f t="shared" ref="U25:U37" si="4">M25+I25</f>
         <v>197117</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="28" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="78">
+    <row r="26" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="71">
         <v>2</v>
       </c>
-      <c r="B26" s="89">
-        <f>C25+1</f>
+      <c r="B26" s="82">
+        <f t="shared" ref="B26:B37" si="5">C25+1</f>
         <v>41275</v>
       </c>
-      <c r="C26" s="88">
+      <c r="C26" s="81">
         <v>41364</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="85">
+      <c r="D26" s="80"/>
+      <c r="E26" s="78">
         <v>30203</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="71">
-        <f>SUM(E26:G26)</f>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="64">
+        <f t="shared" si="0"/>
         <v>30203</v>
       </c>
-      <c r="I26" s="86">
+      <c r="I26" s="79">
         <f>H26</f>
         <v>30203</v>
       </c>
-      <c r="J26" s="85"/>
-      <c r="K26" s="79">
+      <c r="J26" s="78"/>
+      <c r="K26" s="72">
         <v>9910</v>
       </c>
-      <c r="L26" s="71">
-        <f>SUM(J26:K26)</f>
+      <c r="L26" s="64">
+        <f t="shared" si="1"/>
         <v>9910</v>
       </c>
-      <c r="M26" s="84">
+      <c r="M26" s="77">
         <f>L26</f>
         <v>9910</v>
       </c>
-      <c r="N26" s="29" t="str">
+      <c r="N26" s="28" t="str">
         <f>IF(H26&gt;0,IF(I26&lt;&gt;H26,"WARNING!! UPDATE: I26 $"&amp;I26&amp;" WITH ACTUAL SPEND:$ "&amp;H26,""),"")</f>
         <v/>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="61">
-        <f>IF(H26&gt;0,H26,I26)</f>
+      <c r="O26" s="28"/>
+      <c r="P26" s="54">
+        <f t="shared" si="2"/>
         <v>30203</v>
       </c>
-      <c r="Q26" s="60">
-        <f>IF(L26&gt;0,L26,M26)</f>
+      <c r="Q26" s="53">
+        <f t="shared" si="3"/>
         <v>9910</v>
       </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29" t="s">
+      <c r="R26" s="28"/>
+      <c r="S26" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="28">
         <f>LASTQUARTER</f>
         <v>15552</v>
       </c>
-      <c r="U26" s="74">
-        <f>M26+I26</f>
+      <c r="U26" s="67">
+        <f t="shared" si="4"/>
         <v>40113</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="28" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="78">
+    <row r="27" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="71">
         <v>3</v>
       </c>
-      <c r="B27" s="89">
-        <f>C26+1</f>
+      <c r="B27" s="82">
+        <f t="shared" si="5"/>
         <v>41365</v>
       </c>
-      <c r="C27" s="88">
+      <c r="C27" s="81">
         <v>41455</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="71">
-        <f>SUM(E27:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="86">
+      <c r="D27" s="80"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="79">
         <v>60141</v>
       </c>
-      <c r="J27" s="85">
+      <c r="J27" s="78">
         <v>6000</v>
       </c>
-      <c r="K27" s="79"/>
-      <c r="L27" s="71">
-        <f>SUM(J27:K27)</f>
+      <c r="K27" s="72"/>
+      <c r="L27" s="64">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="M27" s="84">
+      <c r="M27" s="77">
         <v>2825</v>
       </c>
-      <c r="N27" s="29" t="str">
+      <c r="N27" s="28" t="str">
         <f>IF(H27&gt;0,IF(I27&lt;&gt;H27,"WARNING!! UPDATE: I27 $"&amp;I27&amp;" WITH ACTUAL SPEND:$ "&amp;H27,""),"")</f>
         <v/>
       </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="61">
-        <f>IF(H27&gt;0,H27,I27)</f>
+      <c r="O27" s="28"/>
+      <c r="P27" s="54">
+        <f t="shared" si="2"/>
         <v>60141</v>
       </c>
-      <c r="Q27" s="60">
-        <f>IF(L27&gt;0,L27,M27)</f>
+      <c r="Q27" s="53">
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29" t="s">
+      <c r="R27" s="28"/>
+      <c r="S27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="46">
+      <c r="T27" s="39">
         <f>I39*0.2</f>
         <v>57800</v>
       </c>
-      <c r="U27" s="74">
-        <f>M27+I27</f>
+      <c r="U27" s="67">
+        <f t="shared" si="4"/>
         <v>62966</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="28" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="78">
+    <row r="28" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="71">
         <v>4</v>
       </c>
-      <c r="B28" s="89">
-        <f>C27+1</f>
+      <c r="B28" s="82">
+        <f t="shared" si="5"/>
         <v>41456</v>
       </c>
-      <c r="C28" s="88">
+      <c r="C28" s="81">
         <v>41547</v>
       </c>
-      <c r="D28" s="87"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="71">
-        <f>SUM(E28:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="86">
+      <c r="D28" s="80"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="79">
         <v>60825</v>
       </c>
-      <c r="J28" s="85">
+      <c r="J28" s="78">
         <v>6000</v>
       </c>
-      <c r="K28" s="79"/>
-      <c r="L28" s="71">
-        <f>SUM(J28:K28)</f>
+      <c r="K28" s="72"/>
+      <c r="L28" s="64">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="M28" s="84">
+      <c r="M28" s="77">
         <v>16637</v>
       </c>
-      <c r="N28" s="29" t="str">
+      <c r="N28" s="28" t="str">
         <f>IF(H28&gt;0,IF(I28&lt;&gt;H28,"WARNING!! UPDATE: I28 $"&amp;I28&amp;" WITH ACTUAL SPEND:$ "&amp;H28,""),"")</f>
         <v/>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="61">
-        <f>IF(H28&gt;0,H28,I28)</f>
+      <c r="O28" s="28"/>
+      <c r="P28" s="54">
+        <f t="shared" si="2"/>
         <v>60825</v>
       </c>
-      <c r="Q28" s="60">
-        <f>IF(L28&gt;0,L28,M28)</f>
+      <c r="Q28" s="53">
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29" t="str">
+      <c r="R28" s="28"/>
+      <c r="S28" s="28" t="str">
         <f>S27&amp; " or more in last quarter"</f>
         <v>20% of funds or more in last quarter</v>
       </c>
-      <c r="T28" s="29" t="str">
+      <c r="T28" s="28" t="str">
         <f>IF(LASTQUARTER&gt;T27-1,"AMBER","Less than "&amp;S27&amp;" in last quarter: "&amp;LASTQUARTER)</f>
         <v>Less than 20% of funds in last quarter: 15552</v>
       </c>
-      <c r="U28" s="74">
-        <f>M28+I28</f>
+      <c r="U28" s="67">
+        <f t="shared" si="4"/>
         <v>77462</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="28" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="78">
+    <row r="29" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="71">
         <v>5</v>
       </c>
-      <c r="B29" s="89">
-        <f>C28+1</f>
+      <c r="B29" s="82">
+        <f t="shared" si="5"/>
         <v>41548</v>
       </c>
-      <c r="C29" s="88">
+      <c r="C29" s="81">
         <v>41639</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="71">
-        <f>SUM(E29:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="86">
+      <c r="D29" s="80"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="79">
         <v>15552</v>
       </c>
-      <c r="J29" s="85">
+      <c r="J29" s="78">
         <v>5636</v>
       </c>
-      <c r="K29" s="79"/>
-      <c r="L29" s="71">
-        <f>SUM(J29:K29)</f>
+      <c r="K29" s="72"/>
+      <c r="L29" s="64">
+        <f t="shared" si="1"/>
         <v>5636</v>
       </c>
-      <c r="M29" s="84">
+      <c r="M29" s="77">
         <v>4927</v>
       </c>
-      <c r="N29" s="29" t="str">
+      <c r="N29" s="28" t="str">
         <f>IF(H29&gt;0,IF(I29&lt;&gt;H29,"WARNING!! UPDATE: I29 $"&amp;I29&amp;" WITH ACTUAL SPEND:$ "&amp;H29,""),"")</f>
         <v/>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="61">
-        <f>IF(H29&gt;0,H29,I29)</f>
+      <c r="O29" s="28"/>
+      <c r="P29" s="54">
+        <f t="shared" si="2"/>
         <v>15552</v>
       </c>
-      <c r="Q29" s="60">
-        <f>IF(L29&gt;0,L29,M29)</f>
+      <c r="Q29" s="53">
+        <f t="shared" si="3"/>
         <v>5636</v>
       </c>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29" t="s">
+      <c r="R29" s="28"/>
+      <c r="S29" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="T29" s="29" t="str">
+      <c r="T29" s="28" t="str">
         <f>IF(T23="RED","RED",IF(T25="RED","RED",IF(T28="AMBER","AMBER","GREEN")))</f>
         <v>GREEN</v>
       </c>
-      <c r="U29" s="74">
-        <f>M29+I29</f>
+      <c r="U29" s="67">
+        <f t="shared" si="4"/>
         <v>20479</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="28" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="78">
+    <row r="30" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="71">
         <v>6</v>
       </c>
-      <c r="B30" s="77">
-        <f>C29+1</f>
+      <c r="B30" s="70">
+        <f t="shared" si="5"/>
         <v>41640</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="69">
         <v>41729</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="71">
-        <f>SUM(E30:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="74">
-        <f>H30</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="73"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="71">
-        <f>SUM(J30:K30)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="79">
+      <c r="D30" s="74"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="67">
+        <f t="shared" ref="I30:I37" si="6">H30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="66"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="72">
         <v>110637</v>
       </c>
-      <c r="N30" s="29" t="str">
+      <c r="N30" s="28" t="str">
         <f>IF(H30&gt;0,IF(I30&lt;&gt;H30,"WARNING!! UPDATE: I30 $"&amp;I30&amp;" WITH ACTUAL SPEND:$ "&amp;H30,""),"")</f>
         <v/>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="61">
-        <f>IF(H30&gt;0,H30,I30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="60">
-        <f>IF(L30&gt;0,L30,M30)</f>
+      <c r="O30" s="28"/>
+      <c r="P30" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="53">
+        <f t="shared" si="3"/>
         <v>110637</v>
       </c>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="74">
-        <f>M30+I30</f>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="67">
+        <f t="shared" si="4"/>
         <v>110637</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="28" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="78">
+    <row r="31" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="71">
         <v>7</v>
       </c>
-      <c r="B31" s="77">
-        <f>C30+1</f>
+      <c r="B31" s="70">
+        <f t="shared" si="5"/>
         <v>41730</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="69">
         <v>41820</v>
       </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="71">
-        <f>SUM(E31:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="74">
-        <f>H31</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="71">
-        <f>SUM(J31:K31)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="79">
+      <c r="D31" s="74"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="66"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="72">
         <v>110638</v>
       </c>
-      <c r="N31" s="29" t="str">
+      <c r="N31" s="28" t="str">
         <f>IF(H31&gt;0,IF(I31&lt;&gt;H31,"WARNING!! UPDATE: I31 $"&amp;I31&amp;" WITH ACTUAL SPEND:$ "&amp;H31,""),"")</f>
         <v/>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="61">
-        <f>IF(H31&gt;0,H31,I31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="60">
-        <f>IF(L31&gt;0,L31,M31)</f>
+      <c r="O31" s="28"/>
+      <c r="P31" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="53">
+        <f t="shared" si="3"/>
         <v>110638</v>
       </c>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="74">
-        <f>M31+I31</f>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="67">
+        <f t="shared" si="4"/>
         <v>110638</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="28" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A32" s="78">
+    <row r="32" spans="1:21" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A32" s="71">
         <v>8</v>
       </c>
-      <c r="B32" s="77">
-        <f>C31+1</f>
+      <c r="B32" s="70">
+        <f t="shared" si="5"/>
         <v>41821</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="69">
         <v>41912</v>
       </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="71">
-        <f>SUM(E32:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="74">
-        <f>H32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="73"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="71">
-        <f>SUM(J32:K32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="79">
-        <f>L32</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="29" t="str">
+      <c r="D32" s="74"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="66"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="72">
+        <f t="shared" ref="M32:M37" si="7">L32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="28" t="str">
         <f>IF(H32&gt;0,IF(I32&lt;&gt;H32,"WARNING!! UPDATE: I32 $"&amp;I32&amp;" WITH ACTUAL SPEND:$ "&amp;H32,""),"")</f>
         <v/>
       </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="61">
-        <f>IF(H32&gt;0,H32,I32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="60">
-        <f>IF(L32&gt;0,L32,M32)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="74">
-        <f>M32+I32</f>
+      <c r="O32" s="28"/>
+      <c r="P32" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="67">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A33" s="78">
+    <row r="33" spans="1:21" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A33" s="71">
         <v>9</v>
       </c>
-      <c r="B33" s="77">
-        <f>C32+1</f>
+      <c r="B33" s="70">
+        <f t="shared" si="5"/>
         <v>41913</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="69">
         <v>42004</v>
       </c>
-      <c r="D33" s="81"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="71">
-        <f>SUM(E33:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="74">
-        <f>H33</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="73"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="71">
-        <f>SUM(J33:K33)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="79">
-        <f>L33</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="29" t="str">
+      <c r="D33" s="74"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="66"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="28" t="str">
         <f>IF(H33&gt;0,IF(I33&lt;&gt;H33,"WARNING!! UPDATE: I33 $"&amp;I33&amp;" WITH ACTUAL SPEND:$ "&amp;H33,""),"")</f>
         <v/>
       </c>
-      <c r="O33" s="29"/>
-      <c r="P33" s="61">
-        <f>IF(H33&gt;0,H33,I33)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="60">
-        <f>IF(L33&gt;0,L33,M33)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="74">
-        <f>M33+I33</f>
+      <c r="O33" s="28"/>
+      <c r="P33" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="67">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A34" s="78">
+    <row r="34" spans="1:21" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A34" s="71">
         <v>10</v>
       </c>
-      <c r="B34" s="77">
-        <f>C33+1</f>
+      <c r="B34" s="70">
+        <f t="shared" si="5"/>
         <v>42005</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="69">
         <v>42094</v>
       </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="71">
-        <f>SUM(E34:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="74">
-        <f>H34</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="73"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="71">
-        <f>SUM(J34:K34)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="79">
-        <f>L34</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="29" t="str">
+      <c r="D34" s="73"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="66"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="28" t="str">
         <f>IF(H34&gt;0,IF(I34&lt;&gt;H34,"WARNING!! UPDATE: I34 $"&amp;I34&amp;" WITH ACTUAL SPEND:$ "&amp;H34,""),"")</f>
         <v/>
       </c>
-      <c r="O34" s="29"/>
-      <c r="P34" s="61">
-        <f>IF(H34&gt;0,H34,I34)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="60">
-        <f>IF(L34&gt;0,L34,M34)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="74">
-        <f>M34+I34</f>
+      <c r="O34" s="28"/>
+      <c r="P34" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="67">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="28" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A35" s="78">
+    <row r="35" spans="1:21" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A35" s="71">
         <v>11</v>
       </c>
-      <c r="B35" s="77">
-        <f>C34+1</f>
+      <c r="B35" s="70">
+        <f t="shared" si="5"/>
         <v>42095</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="69">
         <v>42185</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="71">
-        <f>SUM(E35:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="74">
-        <f>H35</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="71">
-        <f>SUM(J35:K35)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="79">
-        <f>L35</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="29" t="str">
+      <c r="D35" s="73"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="66"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="28" t="str">
         <f>IF(H35&gt;0,IF(I35&lt;&gt;H35,"WARNING!! UPDATE: I35 $"&amp;I35&amp;" WITH ACTUAL SPEND:$ "&amp;H35,""),"")</f>
         <v/>
       </c>
-      <c r="O35" s="29"/>
-      <c r="P35" s="61">
-        <f>IF(H35&gt;0,H35,I35)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="60">
-        <f>IF(L35&gt;0,L35,M35)</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="74">
-        <f>M35+I35</f>
+      <c r="O35" s="28"/>
+      <c r="P35" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="67">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="28" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A36" s="78">
+    <row r="36" spans="1:21" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A36" s="71">
         <v>12</v>
       </c>
-      <c r="B36" s="77">
-        <f>C35+1</f>
+      <c r="B36" s="70">
+        <f t="shared" si="5"/>
         <v>42186</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36" s="69">
         <v>42277</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="71">
-        <f>SUM(E36:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="74">
-        <f>H36</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="73"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="71">
-        <f>SUM(J36:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="60">
-        <f>L36</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="31" t="str">
+      <c r="D36" s="68"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="66"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="30" t="str">
         <f>IF(H36&gt;0,IF(I36&lt;&gt;H36,"WARNING!! UPDATE: I36 $"&amp;I36&amp;" WITH ACTUAL SPEND:$ "&amp;H36,""),"")</f>
         <v/>
       </c>
-      <c r="O36" s="31"/>
-      <c r="P36" s="61">
-        <f>IF(H36&gt;0,H36,I36)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="60">
-        <f>IF(L36&gt;0,L36,M36)</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="66">
-        <f>M36+I36</f>
+      <c r="O36" s="30"/>
+      <c r="P36" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="59">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="28" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A37" s="70">
+    <row r="37" spans="1:21" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+      <c r="A37" s="63">
         <v>13</v>
       </c>
-      <c r="B37" s="69">
-        <f>C36+1</f>
+      <c r="B37" s="62">
+        <f t="shared" si="5"/>
         <v>42278</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="61">
         <v>42369</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="63">
-        <f>SUM(E37:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="66">
-        <f>H37</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="65"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="63">
-        <f>SUM(J37:K37)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="62">
-        <f>L37</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="31" t="str">
+      <c r="D37" s="60"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="58"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="30" t="str">
         <f>IF(H37&gt;0,IF(I37&lt;&gt;H37,"WARNING!! UPDATE: I37 $"&amp;I37&amp;" WITH ACTUAL SPEND:$ "&amp;H37,""),"")</f>
         <v/>
       </c>
-      <c r="O37" s="31"/>
-      <c r="P37" s="61">
-        <f>IF(H37&gt;0,H37,I37)</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="60">
-        <f>IF(L37&gt;0,L37,M37)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="59">
-        <f>M37+I37</f>
+      <c r="O37" s="30"/>
+      <c r="P37" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="52">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="28" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="57" t="s">
+    <row r="38" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="28"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="56">
-        <f>SUM(D25:D37)</f>
+      <c r="D38" s="49">
+        <f t="shared" ref="D38:M38" si="8">SUM(D25:D37)</f>
         <v>104000</v>
       </c>
-      <c r="E38" s="54">
-        <f>SUM(E25:E37)</f>
+      <c r="E38" s="47">
+        <f t="shared" si="8"/>
         <v>152482</v>
       </c>
-      <c r="F38" s="53">
-        <f>SUM(F25:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="53">
-        <f>SUM(G25:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="52">
-        <f>SUM(H25:H37)</f>
+      <c r="F38" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="45">
+        <f t="shared" si="8"/>
         <v>152482</v>
       </c>
-      <c r="I38" s="55">
-        <f>SUM(I25:I37)</f>
+      <c r="I38" s="48">
+        <f t="shared" si="8"/>
         <v>289000</v>
       </c>
-      <c r="J38" s="54">
-        <f>SUM(J25:J37)</f>
+      <c r="J38" s="47">
+        <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="K38" s="53">
-        <f>SUM(K25:K37)</f>
+      <c r="K38" s="46">
+        <f t="shared" si="8"/>
         <v>82384</v>
       </c>
-      <c r="L38" s="52">
-        <f>SUM(L25:L37)</f>
+      <c r="L38" s="45">
+        <f t="shared" si="8"/>
         <v>102384</v>
       </c>
-      <c r="M38" s="51">
-        <f>SUM(M25:M37)</f>
+      <c r="M38" s="44">
+        <f t="shared" si="8"/>
         <v>330412</v>
       </c>
-      <c r="N38" s="50"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="49">
+      <c r="N38" s="43"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="42">
         <f>SUM(P25:P37)</f>
         <v>289000</v>
       </c>
-      <c r="Q38" s="48">
+      <c r="Q38" s="41">
         <f>SUM(Q25:Q37)</f>
         <v>323659</v>
       </c>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
     </row>
-    <row r="39" spans="1:21" s="28" customFormat="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="31" t="s">
+    <row r="39" spans="1:21" s="27" customFormat="1">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="47">
+      <c r="I39" s="40">
         <f>E20</f>
         <v>289000</v>
       </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
     </row>
-    <row r="40" spans="1:21" s="28" customFormat="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
+    <row r="40" spans="1:21" s="27" customFormat="1">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
     </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="45" t="str">
+    <row r="41" spans="1:21" s="27" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="157" t="str">
         <f>IF(N25&gt;"",N25,IF(N26&gt;"",N26,IF(N27&gt;"",N27,IF(N28&gt;"",N28,IF(N29&gt;"",N29,IF(N30&gt;"",N30,IF(N31&gt;"",N31,IF(N32&gt;"",N32,IF(N33&gt;"",N33,IF(N34&gt;"",N34,IF(N35&gt;"",N35,IF(N36&gt;"",N36,IF(N37&gt;"",N37,IF(I38&lt;&gt;I39,"Your total estimate in cell I38 does not yet equal the Nectar Funds Allocated",""))))))))))))))</f>
         <v/>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="158"/>
+      <c r="L41" s="159"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
     </row>
-    <row r="42" spans="1:21" s="28" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="42" t="s">
+    <row r="42" spans="1:21" s="27" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
     </row>
-    <row r="43" spans="1:21" s="28" customFormat="1" ht="54" customHeight="1" thickBot="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
+    <row r="43" spans="1:21" s="27" customFormat="1" ht="54" customHeight="1" thickBot="1">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
     </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="36">
+    <row r="45" spans="1:21" s="27" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="35">
         <f>C25</f>
         <v>41274</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="35">
         <f>C26</f>
         <v>41364</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="35">
         <f>C27</f>
         <v>41455</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="35">
         <f>C28</f>
         <v>41547</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="35">
         <f>C29</f>
         <v>41639</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="35">
         <f>C30</f>
         <v>41729</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="35">
         <f>C31</f>
         <v>41820</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="35">
         <f>C32</f>
         <v>41912</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="35">
         <f>C33</f>
         <v>42004</v>
       </c>
-      <c r="N45" s="36">
+      <c r="N45" s="35">
         <f>C34</f>
         <v>42094</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="35">
         <f>C35</f>
         <v>42185</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45" s="35">
         <f>C36</f>
         <v>42277</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="35">
         <f>C37</f>
         <v>42369</v>
       </c>
-      <c r="R45" s="35" t="s">
+      <c r="R45" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
     </row>
-    <row r="46" spans="1:21" s="28" customFormat="1" ht="26.25" hidden="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="34" t="s">
+    <row r="46" spans="1:21" s="27" customFormat="1" ht="26.25" hidden="1">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="33">
+      <c r="D46" s="33"/>
+      <c r="E46" s="32">
         <v>208000</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="32">
         <v>260000</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="32">
         <v>260000</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="32">
         <v>289000</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="32">
         <v>289000</v>
       </c>
-      <c r="J46" s="33">
+      <c r="J46" s="32">
         <v>289000</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="32">
         <v>289000</v>
       </c>
-      <c r="L46" s="33">
+      <c r="L46" s="32">
         <v>289000</v>
       </c>
-      <c r="M46" s="33">
+      <c r="M46" s="32">
         <v>289000</v>
       </c>
-      <c r="N46" s="33">
+      <c r="N46" s="32">
         <v>289000</v>
       </c>
-      <c r="O46" s="33">
+      <c r="O46" s="32">
         <v>289000</v>
       </c>
-      <c r="P46" s="33">
+      <c r="P46" s="32">
         <v>289000</v>
       </c>
-      <c r="Q46" s="33">
+      <c r="Q46" s="32">
         <v>289000</v>
       </c>
-      <c r="R46" s="32">
+      <c r="R46" s="31">
         <f>Q46</f>
         <v>289000</v>
       </c>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
     </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" hidden="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="31" t="s">
+    <row r="47" spans="1:21" s="27" customFormat="1" hidden="1">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="30">
+      <c r="D47" s="30"/>
+      <c r="E47" s="29">
         <f>I25</f>
         <v>122279</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="29">
         <f>I26</f>
         <v>30203</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G47" s="29">
         <f>I27</f>
         <v>60141</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="29">
         <f>I28</f>
         <v>60825</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="29">
         <f>I29</f>
         <v>15552</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="29">
         <f>I30</f>
         <v>0</v>
       </c>
-      <c r="K47" s="30">
+      <c r="K47" s="29">
         <f>I31</f>
         <v>0</v>
       </c>
-      <c r="L47" s="30">
+      <c r="L47" s="29">
         <f>I32</f>
         <v>0</v>
       </c>
-      <c r="M47" s="30">
+      <c r="M47" s="29">
         <f>I33</f>
         <v>0</v>
       </c>
-      <c r="N47" s="30">
+      <c r="N47" s="29">
         <f>I34</f>
         <v>0</v>
       </c>
-      <c r="O47" s="30">
+      <c r="O47" s="29">
         <f>I35</f>
         <v>0</v>
       </c>
-      <c r="P47" s="30">
+      <c r="P47" s="29">
         <f>I36</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="30">
+      <c r="Q47" s="29">
         <f>I37</f>
         <v>0</v>
       </c>
-      <c r="R47" s="30">
+      <c r="R47" s="29">
         <f>SUM(E47:Q47)</f>
         <v>289000</v>
       </c>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
     </row>
-    <row r="48" spans="1:21" s="28" customFormat="1" hidden="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="31" t="s">
+    <row r="48" spans="1:21" s="27" customFormat="1" hidden="1">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="30">
+      <c r="D48" s="30"/>
+      <c r="E48" s="29">
         <f>E47</f>
         <v>122279</v>
       </c>
-      <c r="F48" s="30">
-        <f>E48+F47</f>
+      <c r="F48" s="29">
+        <f t="shared" ref="F48:Q48" si="9">E48+F47</f>
         <v>152482</v>
       </c>
-      <c r="G48" s="30">
-        <f>F48+G47</f>
+      <c r="G48" s="29">
+        <f t="shared" si="9"/>
         <v>212623</v>
       </c>
-      <c r="H48" s="30">
-        <f>G48+H47</f>
+      <c r="H48" s="29">
+        <f t="shared" si="9"/>
         <v>273448</v>
       </c>
-      <c r="I48" s="30">
-        <f>H48+I47</f>
+      <c r="I48" s="29">
+        <f t="shared" si="9"/>
         <v>289000</v>
       </c>
-      <c r="J48" s="30">
-        <f>I48+J47</f>
+      <c r="J48" s="29">
+        <f t="shared" si="9"/>
         <v>289000</v>
       </c>
-      <c r="K48" s="30">
-        <f>J48+K47</f>
+      <c r="K48" s="29">
+        <f t="shared" si="9"/>
         <v>289000</v>
       </c>
-      <c r="L48" s="30">
-        <f>K48+L47</f>
+      <c r="L48" s="29">
+        <f t="shared" si="9"/>
         <v>289000</v>
       </c>
-      <c r="M48" s="30">
-        <f>L48+M47</f>
+      <c r="M48" s="29">
+        <f t="shared" si="9"/>
         <v>289000</v>
       </c>
-      <c r="N48" s="30">
-        <f>M48+N47</f>
+      <c r="N48" s="29">
+        <f t="shared" si="9"/>
         <v>289000</v>
       </c>
-      <c r="O48" s="30">
-        <f>N48+O47</f>
+      <c r="O48" s="29">
+        <f t="shared" si="9"/>
         <v>289000</v>
       </c>
-      <c r="P48" s="30">
-        <f>O48+P47</f>
+      <c r="P48" s="29">
+        <f t="shared" si="9"/>
         <v>289000</v>
       </c>
-      <c r="Q48" s="30">
-        <f>P48+Q47</f>
+      <c r="Q48" s="29">
+        <f t="shared" si="9"/>
         <v>289000</v>
       </c>
-      <c r="R48" s="30">
+      <c r="R48" s="29">
         <f>Q48</f>
         <v>289000</v>
       </c>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
     </row>
-    <row r="49" spans="3:18" s="28" customFormat="1" ht="12.75" hidden="1">
-      <c r="C49" s="31" t="s">
+    <row r="49" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+      <c r="C49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="30">
+      <c r="D49" s="30"/>
+      <c r="E49" s="29">
         <f>H25</f>
         <v>122279</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="29">
         <f>H26</f>
         <v>30203</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="29">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="29">
         <f>H28</f>
         <v>0</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="29">
         <f>H29</f>
         <v>0</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="29">
         <f>H30</f>
         <v>0</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="29">
         <f>H31</f>
         <v>0</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="29">
         <f>H32</f>
         <v>0</v>
       </c>
-      <c r="M49" s="30">
+      <c r="M49" s="29">
         <f>H33</f>
         <v>0</v>
       </c>
-      <c r="N49" s="30">
+      <c r="N49" s="29">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="O49" s="30">
+      <c r="O49" s="29">
         <f>H35</f>
         <v>0</v>
       </c>
-      <c r="P49" s="30">
+      <c r="P49" s="29">
         <f>H36</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="30">
+      <c r="Q49" s="29">
         <f>H37</f>
         <v>0</v>
       </c>
-      <c r="R49" s="30">
+      <c r="R49" s="29">
         <f>SUM(E49:Q49)</f>
         <v>152482</v>
       </c>
     </row>
-    <row r="50" spans="3:18" s="28" customFormat="1" ht="12.75" hidden="1">
-      <c r="C50" s="31" t="s">
+    <row r="50" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+      <c r="C50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="30">
+      <c r="D50" s="30"/>
+      <c r="E50" s="29">
         <f>IF(E45&gt;LastDateReport,NA(),E49)</f>
         <v>122279</v>
       </c>
-      <c r="F50" s="30" t="e">
-        <f>IF(F45&gt;LastDateReport,NA(),E50+F49)</f>
+      <c r="F50" s="29" t="e">
+        <f t="shared" ref="F50:Q50" si="10">IF(F45&gt;LastDateReport,NA(),E50+F49)</f>
         <v>#N/A</v>
       </c>
-      <c r="G50" s="30" t="e">
-        <f>IF(G45&gt;LastDateReport,NA(),F50+G49)</f>
+      <c r="G50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="H50" s="30" t="e">
-        <f>IF(H45&gt;LastDateReport,NA(),G50+H49)</f>
+      <c r="H50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="I50" s="30" t="e">
-        <f>IF(I45&gt;LastDateReport,NA(),H50+I49)</f>
+      <c r="I50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="J50" s="30" t="e">
-        <f>IF(J45&gt;LastDateReport,NA(),I50+J49)</f>
+      <c r="J50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="K50" s="30" t="e">
-        <f>IF(K45&gt;LastDateReport,NA(),J50+K49)</f>
+      <c r="K50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="L50" s="30" t="e">
-        <f>IF(L45&gt;LastDateReport,NA(),K50+L49)</f>
+      <c r="L50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="M50" s="30" t="e">
-        <f>IF(M45&gt;LastDateReport,NA(),L50+M49)</f>
+      <c r="M50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="N50" s="30" t="e">
-        <f>IF(N45&gt;LastDateReport,NA(),M50+N49)</f>
+      <c r="N50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="O50" s="30" t="e">
-        <f>IF(O45&gt;LastDateReport,NA(),N50+O49)</f>
+      <c r="O50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="P50" s="30" t="e">
-        <f>IF(P45&gt;LastDateReport,NA(),O50+P49)</f>
+      <c r="P50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="Q50" s="30" t="e">
-        <f>IF(Q45&gt;LastDateReport,NA(),P50+Q49)</f>
+      <c r="Q50" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="R50" s="30">
+      <c r="R50" s="29">
         <f>H38</f>
         <v>152482</v>
       </c>
     </row>
-    <row r="51" spans="3:18" s="28" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="C51" s="31" t="s">
+    <row r="51" spans="3:18" s="27" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="C51" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="30">
+      <c r="D51" s="30"/>
+      <c r="E51" s="29">
         <f>IF(E45&gt;LastDateReport,NA(),D25)</f>
         <v>104000</v>
       </c>
-      <c r="F51" s="30" t="e">
+      <c r="F51" s="29" t="e">
         <f>IF(F45&gt;LastDateReport,NA(),$D26+E51)</f>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="30" t="e">
+      <c r="G51" s="29" t="e">
         <f>IF(G45&gt;LastDateReport,NA(),D27+F51)</f>
         <v>#N/A</v>
       </c>
-      <c r="H51" s="30" t="e">
+      <c r="H51" s="29" t="e">
         <f>IF(H45&gt;LastDateReport,NA(),D28+G51)</f>
         <v>#N/A</v>
       </c>
-      <c r="I51" s="30" t="e">
+      <c r="I51" s="29" t="e">
         <f>IF(I45&gt;LastDateReport,NA(),D29+H51)</f>
         <v>#N/A</v>
       </c>
-      <c r="J51" s="30" t="e">
+      <c r="J51" s="29" t="e">
         <f>IF(J45&gt;LastDateReport,NA(),D30+I51)</f>
         <v>#N/A</v>
       </c>
-      <c r="K51" s="30" t="e">
+      <c r="K51" s="29" t="e">
         <f>IF(K45&gt;LastDateReport,NA(),D31+J51)</f>
         <v>#N/A</v>
       </c>
-      <c r="L51" s="30" t="e">
+      <c r="L51" s="29" t="e">
         <f>IF(L45&gt;LastDateReport,NA(),D32+K51)</f>
         <v>#N/A</v>
       </c>
-      <c r="M51" s="30" t="e">
+      <c r="M51" s="29" t="e">
         <f>IF(M45&gt;LastDateReport,NA(),D33+L51)</f>
         <v>#N/A</v>
       </c>
-      <c r="N51" s="30" t="e">
+      <c r="N51" s="29" t="e">
         <f>IF(N45&gt;LastDateReport,NA(),D34+M51)</f>
         <v>#N/A</v>
       </c>
-      <c r="O51" s="30" t="e">
+      <c r="O51" s="29" t="e">
         <f>IF(O45&gt;LastDateReport,NA(),D35+N51)</f>
         <v>#N/A</v>
       </c>
-      <c r="P51" s="30" t="e">
+      <c r="P51" s="29" t="e">
         <f>IF(P45&gt;LastDateReport,NA(),D36+O51)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q51" s="30" t="e">
+      <c r="Q51" s="29" t="e">
         <f>IF(Q45&gt;LastDateReport,NA(),D37+P51)</f>
         <v>#N/A</v>
       </c>
-      <c r="R51" s="30">
+      <c r="R51" s="29">
         <f>D38</f>
         <v>104000</v>
       </c>
     </row>
-    <row r="52" spans="3:18" s="28" customFormat="1" ht="25.5" hidden="1">
-      <c r="C52" s="34" t="s">
+    <row r="52" spans="3:18" s="27" customFormat="1" ht="25.5" hidden="1">
+      <c r="C52" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="33">
+      <c r="D52" s="33"/>
+      <c r="E52" s="32">
         <v>66426</v>
       </c>
-      <c r="F52" s="33">
+      <c r="F52" s="32">
         <v>114892</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G52" s="32">
         <v>323892</v>
       </c>
-      <c r="H52" s="33">
+      <c r="H52" s="32">
         <v>323892</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I52" s="32">
         <v>323892</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J52" s="32">
         <v>323892</v>
       </c>
-      <c r="K52" s="33">
+      <c r="K52" s="32">
         <v>323892</v>
       </c>
-      <c r="L52" s="33">
+      <c r="L52" s="32">
         <v>323892</v>
       </c>
-      <c r="M52" s="33">
+      <c r="M52" s="32">
         <v>323892</v>
       </c>
-      <c r="N52" s="33">
+      <c r="N52" s="32">
         <v>323892</v>
       </c>
-      <c r="O52" s="33">
+      <c r="O52" s="32">
         <v>323892</v>
       </c>
-      <c r="P52" s="33">
+      <c r="P52" s="32">
         <v>323892</v>
       </c>
-      <c r="Q52" s="33">
+      <c r="Q52" s="32">
         <v>323892</v>
       </c>
-      <c r="R52" s="32">
+      <c r="R52" s="31">
         <f>Q52</f>
         <v>323892</v>
       </c>
     </row>
-    <row r="53" spans="3:18" s="28" customFormat="1" ht="12.75" hidden="1">
-      <c r="C53" s="31" t="s">
+    <row r="53" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+      <c r="C53" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="30">
+      <c r="D53" s="30"/>
+      <c r="E53" s="29">
         <f>$M25</f>
         <v>74838</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="29">
         <f>$M26</f>
         <v>9910</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="29">
         <f>M$27</f>
         <v>2825</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H53" s="29">
         <f>$M28</f>
         <v>16637</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="29">
         <f>M29</f>
         <v>4927</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="29">
         <f>M30</f>
         <v>110637</v>
       </c>
-      <c r="K53" s="30">
+      <c r="K53" s="29">
         <f>M31</f>
         <v>110638</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="29">
         <f>M32</f>
         <v>0</v>
       </c>
-      <c r="M53" s="30">
+      <c r="M53" s="29">
         <f>M33</f>
         <v>0</v>
       </c>
-      <c r="N53" s="30">
+      <c r="N53" s="29">
         <f>M34</f>
         <v>0</v>
       </c>
-      <c r="O53" s="30">
+      <c r="O53" s="29">
         <f>M35</f>
         <v>0</v>
       </c>
-      <c r="P53" s="30">
+      <c r="P53" s="29">
         <f>M36</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="30">
+      <c r="Q53" s="29">
         <f>M37</f>
         <v>0</v>
       </c>
-      <c r="R53" s="30">
+      <c r="R53" s="29">
         <f>SUM(E53:Q53)</f>
         <v>330412</v>
       </c>
     </row>
-    <row r="54" spans="3:18" s="28" customFormat="1" ht="12.75" hidden="1">
-      <c r="C54" s="31" t="s">
+    <row r="54" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+      <c r="C54" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="30">
+      <c r="D54" s="30"/>
+      <c r="E54" s="29">
         <f>IF(E45&gt;LastDateReport,NA(),E53)</f>
         <v>74838</v>
       </c>
-      <c r="F54" s="30">
-        <f>E54+F53</f>
+      <c r="F54" s="29">
+        <f t="shared" ref="F54:Q54" si="11">E54+F53</f>
         <v>84748</v>
       </c>
-      <c r="G54" s="30">
-        <f>F54+G53</f>
+      <c r="G54" s="29">
+        <f t="shared" si="11"/>
         <v>87573</v>
       </c>
-      <c r="H54" s="30">
-        <f>G54+H53</f>
+      <c r="H54" s="29">
+        <f t="shared" si="11"/>
         <v>104210</v>
       </c>
-      <c r="I54" s="30">
-        <f>H54+I53</f>
+      <c r="I54" s="29">
+        <f t="shared" si="11"/>
         <v>109137</v>
       </c>
-      <c r="J54" s="30">
-        <f>I54+J53</f>
+      <c r="J54" s="29">
+        <f t="shared" si="11"/>
         <v>219774</v>
       </c>
-      <c r="K54" s="30">
-        <f>J54+K53</f>
+      <c r="K54" s="29">
+        <f t="shared" si="11"/>
         <v>330412</v>
       </c>
-      <c r="L54" s="30">
-        <f>K54+L53</f>
+      <c r="L54" s="29">
+        <f t="shared" si="11"/>
         <v>330412</v>
       </c>
-      <c r="M54" s="30">
-        <f>L54+M53</f>
+      <c r="M54" s="29">
+        <f t="shared" si="11"/>
         <v>330412</v>
       </c>
-      <c r="N54" s="30">
-        <f>M54+N53</f>
+      <c r="N54" s="29">
+        <f t="shared" si="11"/>
         <v>330412</v>
       </c>
-      <c r="O54" s="30">
-        <f>N54+O53</f>
+      <c r="O54" s="29">
+        <f t="shared" si="11"/>
         <v>330412</v>
       </c>
-      <c r="P54" s="30">
-        <f>O54+P53</f>
+      <c r="P54" s="29">
+        <f t="shared" si="11"/>
         <v>330412</v>
       </c>
-      <c r="Q54" s="30">
-        <f>P54+Q53</f>
+      <c r="Q54" s="29">
+        <f t="shared" si="11"/>
         <v>330412</v>
       </c>
-      <c r="R54" s="30">
+      <c r="R54" s="29">
         <f>L38</f>
         <v>102384</v>
       </c>
     </row>
-    <row r="55" spans="3:18" s="28" customFormat="1" ht="12.75" hidden="1">
-      <c r="C55" s="31" t="s">
+    <row r="55" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+      <c r="C55" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="30">
+      <c r="D55" s="30"/>
+      <c r="E55" s="29">
         <f>L25</f>
         <v>74838</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="29">
         <f>L26</f>
         <v>9910</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="29">
         <f>L27</f>
         <v>6000</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H55" s="29">
         <f>L28</f>
         <v>6000</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I55" s="29">
         <f>L29</f>
         <v>5636</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J55" s="29">
         <f>L30</f>
         <v>0</v>
       </c>
-      <c r="K55" s="30">
+      <c r="K55" s="29">
         <f>L31</f>
         <v>0</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="29">
         <f>L32</f>
         <v>0</v>
       </c>
-      <c r="M55" s="30">
+      <c r="M55" s="29">
         <f>L33</f>
         <v>0</v>
       </c>
-      <c r="N55" s="30">
+      <c r="N55" s="29">
         <f>L34</f>
         <v>0</v>
       </c>
-      <c r="O55" s="30">
+      <c r="O55" s="29">
         <f>L35</f>
         <v>0</v>
       </c>
-      <c r="P55" s="30">
+      <c r="P55" s="29">
         <f>L36</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="30">
+      <c r="Q55" s="29">
         <f>L37</f>
         <v>0</v>
       </c>
-      <c r="R55" s="30">
+      <c r="R55" s="29">
         <f>SUM(E55:Q55)</f>
         <v>102384</v>
       </c>
     </row>
-    <row r="56" spans="3:18" s="28" customFormat="1" ht="12.75" hidden="1">
-      <c r="C56" s="31" t="s">
+    <row r="56" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+      <c r="C56" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="30">
+      <c r="D56" s="30"/>
+      <c r="E56" s="29">
         <f>IF(E45&gt;LastDateReport,NA(),E55)</f>
         <v>74838</v>
       </c>
-      <c r="F56" s="30" t="e">
-        <f>IF(F45&gt;LastDateReport,NA(),E56+F55)</f>
+      <c r="F56" s="29" t="e">
+        <f t="shared" ref="F56:Q56" si="12">IF(F45&gt;LastDateReport,NA(),E56+F55)</f>
         <v>#N/A</v>
       </c>
-      <c r="G56" s="30" t="e">
-        <f>IF(G45&gt;LastDateReport,NA(),F56+G55)</f>
+      <c r="G56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="H56" s="30" t="e">
-        <f>IF(H45&gt;LastDateReport,NA(),G56+H55)</f>
+      <c r="H56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="I56" s="30" t="e">
-        <f>IF(I45&gt;LastDateReport,NA(),H56+I55)</f>
+      <c r="I56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="J56" s="30" t="e">
-        <f>IF(J45&gt;LastDateReport,NA(),I56+J55)</f>
+      <c r="J56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="K56" s="30" t="e">
-        <f>IF(K45&gt;LastDateReport,NA(),J56+K55)</f>
+      <c r="K56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="L56" s="30" t="e">
-        <f>IF(L45&gt;LastDateReport,NA(),K56+L55)</f>
+      <c r="L56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="M56" s="30" t="e">
-        <f>IF(M45&gt;LastDateReport,NA(),L56+M55)</f>
+      <c r="M56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N56" s="30" t="e">
-        <f>IF(N45&gt;LastDateReport,NA(),M56+N55)</f>
+      <c r="N56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="O56" s="30" t="e">
-        <f>IF(O45&gt;LastDateReport,NA(),N56+O55)</f>
+      <c r="O56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="P56" s="30" t="e">
-        <f>IF(P45&gt;LastDateReport,NA(),O56+P55)</f>
+      <c r="P56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="Q56" s="30" t="e">
-        <f>IF(Q45&gt;LastDateReport,NA(),P56+Q55)</f>
+      <c r="Q56" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="R56" s="30">
+      <c r="R56" s="29">
         <f>L38</f>
         <v>102384</v>
       </c>
     </row>
-    <row r="57" spans="3:18" s="28" customFormat="1" hidden="1">
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
+    <row r="57" spans="3:18" s="27" customFormat="1" hidden="1">
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:L18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="U23:U24"/>
@@ -7347,824 +7344,830 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="M23:M24"/>
     <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="164" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="161" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="162" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="160" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="161" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="159" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="160" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="158" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="159" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="157" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="158" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="156" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="155" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="156" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="155" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="153" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="152" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="153" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="152" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="150" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="150" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="149" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="147" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="146" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="147" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="146" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="144" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="143" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="144" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="143" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="141" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="140" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="141" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="140" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="138" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="137" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="138" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="137" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="135" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="134" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="135" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="134" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="132" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="131" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="132" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="131" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="129" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="128" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="129" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="128" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="126" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="125" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="126" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="125" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="122" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="123" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="122" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="120" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="119" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="120" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="119" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="117" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="116" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="113" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="114" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="113" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="111" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="108" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="expression" dxfId="106" priority="107">
+    <cfRule type="expression" dxfId="108" priority="107">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="expression" dxfId="105" priority="106">
+    <cfRule type="expression" dxfId="107" priority="106">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="expression" dxfId="104" priority="105">
+    <cfRule type="expression" dxfId="106" priority="105">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="103" priority="104">
+    <cfRule type="expression" dxfId="105" priority="104">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="104" priority="103">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30">
-    <cfRule type="expression" dxfId="101" priority="102">
+    <cfRule type="expression" dxfId="103" priority="102">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="expression" dxfId="100" priority="101">
+    <cfRule type="expression" dxfId="102" priority="101">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="99" priority="100">
+    <cfRule type="expression" dxfId="101" priority="100">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="expression" dxfId="98" priority="99">
+    <cfRule type="expression" dxfId="100" priority="99">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="expression" dxfId="97" priority="98">
+    <cfRule type="expression" dxfId="99" priority="98">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="96" priority="97">
+    <cfRule type="expression" dxfId="98" priority="97">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="expression" dxfId="95" priority="96">
+    <cfRule type="expression" dxfId="97" priority="96">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="expression" dxfId="94" priority="95">
+    <cfRule type="expression" dxfId="96" priority="95">
       <formula>M25&lt;&gt;Q25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="93" priority="94">
+    <cfRule type="expression" dxfId="95" priority="94">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="92" priority="93">
+    <cfRule type="expression" dxfId="94" priority="93">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="91" priority="92">
+    <cfRule type="expression" dxfId="93" priority="92">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="90" priority="91">
+    <cfRule type="expression" dxfId="92" priority="91">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="89" priority="90">
+    <cfRule type="expression" dxfId="91" priority="90">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="90" priority="89">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="87" priority="88">
+    <cfRule type="expression" dxfId="89" priority="88">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="86" priority="87">
+    <cfRule type="expression" dxfId="88" priority="87">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="85" priority="86">
+    <cfRule type="expression" dxfId="87" priority="86">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="84" priority="85">
+    <cfRule type="expression" dxfId="86" priority="85">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="83" priority="84">
+    <cfRule type="expression" dxfId="85" priority="84">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="82" priority="83">
+    <cfRule type="expression" dxfId="84" priority="83">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="81" priority="82">
+    <cfRule type="expression" dxfId="83" priority="82">
       <formula>I25&lt;&gt;P25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="80" priority="81">
+    <cfRule type="expression" dxfId="82" priority="81">
       <formula>$I$38=$I$39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="80" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="80" priority="79">
       <formula>$M$38&gt;($J$20-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="79" priority="78">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="78" priority="77">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="75" priority="76">
+    <cfRule type="expression" dxfId="77" priority="76">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="76" priority="75">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="75" priority="74">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="72" priority="73">
+    <cfRule type="expression" dxfId="74" priority="73">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="73" priority="72">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="72" priority="71">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="71" priority="70">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="70" priority="69">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="69" priority="68">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="68" priority="67">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="65" priority="66">
+    <cfRule type="expression" dxfId="67" priority="66">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="66" priority="65">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="63" priority="64">
+    <cfRule type="expression" dxfId="65" priority="64">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="64" priority="63">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="63" priority="62">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="62" priority="61">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="61" priority="60">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="60" priority="59">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="59" priority="58">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="58" priority="57">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="57" priority="56">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="56" priority="55">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="55" priority="54">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="54" priority="53">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="53" priority="52">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="52" priority="51">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="51" priority="50">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="50" priority="49">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="48" priority="47">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="47" priority="46">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="45" priority="44">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="44" priority="43">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="43" priority="42">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="42" priority="41">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="41" priority="40">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="40" priority="39">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="39" priority="38">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="36" priority="35">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$C25&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8195,20 +8198,20 @@
     <hyperlink ref="B9" location="'9.Finance'!FINANCESTART" display="9.Finance"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;F</oddHeader>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8219,6 +8222,7 @@
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="11.140625" customWidth="1"/>
     <col min="18" max="18" width="11.140625" customWidth="1"/>
@@ -8240,30 +8244,30 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="165"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="26"/>
+      <c r="K1" s="165"/>
       <c r="L1" s="22"/>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="26"/>
+      <c r="N1" s="165"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="26"/>
+      <c r="Q1" s="165"/>
       <c r="R1" s="22"/>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="26"/>
+      <c r="T1" s="165"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -8435,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="11">
-        <f t="shared" ref="Q5:Q15" si="3">($O5-$L5)*E5</f>
+        <f t="shared" ref="Q5:Q14" si="3">($O5-$L5)*E5</f>
         <v>0</v>
       </c>
       <c r="S5" s="11">
@@ -9159,7 +9163,7 @@
       <c r="E19" s="19">
         <v>10000</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <v>2364</v>
       </c>
     </row>
@@ -9263,6 +9267,39 @@
         <v>117257</v>
       </c>
     </row>
+    <row r="23" spans="1:20">
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="11">
+        <f>G21+H21</f>
+        <v>197116.75</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
+        <f>J22+K22</f>
+        <v>237229.75</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11">
+        <f t="shared" ref="L23:T23" si="11">M22+N22</f>
+        <v>308315.75</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11">
+        <f t="shared" si="11"/>
+        <v>385777.75</v>
+      </c>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11">
+        <f t="shared" si="11"/>
+        <v>407856</v>
+      </c>
+    </row>
     <row r="24" spans="1:20">
       <c r="E24">
         <f>SUM(E2:E20)</f>
@@ -9299,6 +9336,18 @@
         <v>103317.5</v>
       </c>
       <c r="S26" s="11"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="K28" s="11">
+        <f>K23-54768-97714</f>
+        <v>84747.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="K29" s="25">
+        <f>K28/2</f>
+        <v>42373.875</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9309,12 +9358,12 @@
     <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="165" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C19&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="164" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C19&gt;LastDateReport</formula>
     </cfRule>
   </conditionalFormatting>

--- a/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/Reporting Financial Calculations.xlsx
+++ b/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/Reporting Financial Calculations.xlsx
@@ -183,15 +183,6 @@
     <t>Dec-March</t>
   </si>
   <si>
-    <t>March-May</t>
-  </si>
-  <si>
-    <t>May-August</t>
-  </si>
-  <si>
-    <t>Aug-Nov</t>
-  </si>
-  <si>
     <t>Cumulative</t>
   </si>
   <si>
@@ -398,6 +389,15 @@
   </si>
   <si>
     <t>total combined?</t>
+  </si>
+  <si>
+    <t>March-June</t>
+  </si>
+  <si>
+    <t>July-Sep</t>
+  </si>
+  <si>
+    <t>Sep - Dec</t>
   </si>
 </sst>
 </file>
@@ -1878,45 +1878,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1970,6 +1931,45 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5245,7 +5245,7 @@
   <sheetData>
     <row r="1" spans="2:13" s="27" customFormat="1" ht="12.75">
       <c r="B1" s="121" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" s="134" t="str">
         <f>OVERALLLIGHT</f>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="2" spans="2:13" s="27" customFormat="1" ht="12.75">
       <c r="B2" s="121" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="131" t="str">
         <f>MILESTONELIGHT</f>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="3" spans="2:13" s="27" customFormat="1" ht="12.75">
       <c r="B3" s="121" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="131" t="str">
         <f>ISSUELIGHT</f>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="4" spans="2:13" s="27" customFormat="1" ht="12.75">
       <c r="B4" s="121" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="131" t="str">
         <f>RISKLIGHT</f>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="5" spans="2:13" s="27" customFormat="1" ht="12.75">
       <c r="B5" s="121" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="131" t="str">
         <f>CHANGELIGHT</f>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="6" spans="2:13" s="27" customFormat="1" ht="12.75">
       <c r="B6" s="121" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="132" t="str">
         <f>DEPENDENCYLIGHT</f>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="7" spans="2:13" s="27" customFormat="1" ht="12.75">
       <c r="B7" s="121" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="132" t="str">
         <f>MEASURELIGHT</f>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="8" spans="2:13" s="27" customFormat="1">
       <c r="B8" s="121" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="131" t="str">
         <f>COMMUNICATIONLIGHT</f>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="9" spans="2:13" s="27" customFormat="1">
       <c r="B9" s="121" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="130" t="str">
         <f>FINANCELIGHT</f>
@@ -5354,7 +5354,7 @@
     <row r="12" spans="2:13" s="27" customFormat="1" ht="15.95" customHeight="1">
       <c r="B12" s="121"/>
       <c r="C12" s="125" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12" s="124">
         <f>ReportFrom</f>
@@ -5365,7 +5365,7 @@
     <row r="13" spans="2:13" s="27" customFormat="1" ht="15.95" customHeight="1">
       <c r="B13" s="121"/>
       <c r="C13" s="123" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="122">
         <f>LastDateReport</f>
@@ -5382,13 +5382,13 @@
     </row>
     <row r="15" spans="2:13" s="27" customFormat="1" ht="18.95" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" s="117"/>
       <c r="E15" s="117"/>
       <c r="F15" s="117"/>
       <c r="I15" s="117" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J15" s="117" t="str">
         <f>FINANCELIGHT</f>
@@ -5425,18 +5425,18 @@
       <c r="B18" s="28"/>
       <c r="C18" s="116"/>
       <c r="D18" s="115"/>
-      <c r="E18" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
+      <c r="E18" s="159" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="161"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="145" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="146"/>
-      <c r="L18" s="147"/>
+      <c r="J18" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="163"/>
+      <c r="L18" s="164"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
@@ -5451,32 +5451,32 @@
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="114" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="113" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F19" s="112" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G19" s="112" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H19" s="111" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I19" s="110" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J19" s="109" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K19" s="108" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L19" s="107" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
@@ -5550,109 +5550,109 @@
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="28"/>
       <c r="S22" s="97" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T22" s="97" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U22" s="96"/>
     </row>
     <row r="23" spans="1:21" s="87" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="148" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="150" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="135" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="138" t="s">
+      <c r="A23" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140" t="s">
+      <c r="B23" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="160" t="s">
+      <c r="C23" s="138"/>
+      <c r="D23" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="161"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="163" t="s">
+      <c r="E23" s="155" t="s">
         <v>64</v>
       </c>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="147" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="148"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="150" t="s">
+        <v>61</v>
+      </c>
       <c r="N23" s="89"/>
-      <c r="P23" s="137" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q23" s="137" t="s">
-        <v>62</v>
+      <c r="P23" s="152" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="152" t="s">
+        <v>59</v>
       </c>
       <c r="S23" s="95" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T23" s="94" t="str">
         <f>IF(I38&lt;&gt;I39,"RED","Correct "&amp;I38&amp;" = "&amp;I39)</f>
         <v>Correct 289000 = 289000</v>
       </c>
-      <c r="U23" s="152" t="s">
-        <v>60</v>
+      <c r="U23" s="139" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="87" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A24" s="149"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="93" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="136"/>
+        <v>55</v>
+      </c>
+      <c r="D24" s="154"/>
       <c r="E24" s="92" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F24" s="91" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G24" s="91" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H24" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="141"/>
+        <v>42</v>
+      </c>
+      <c r="I24" s="158"/>
       <c r="J24" s="92" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K24" s="91" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L24" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="164"/>
+        <v>42</v>
+      </c>
+      <c r="M24" s="151"/>
       <c r="N24" s="89"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="137"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
       <c r="S24" s="87" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T24" s="88">
         <f>I39*0.3</f>
         <v>86700</v>
       </c>
-      <c r="U24" s="153"/>
+      <c r="U24" s="140"/>
     </row>
     <row r="25" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="71">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="R26" s="28"/>
       <c r="S26" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T26" s="28">
         <f>LASTQUARTER</f>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="R27" s="28"/>
       <c r="S27" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T27" s="39">
         <f>I39*0.2</f>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T29" s="28" t="str">
         <f>IF(T23="RED","RED",IF(T25="RED","RED",IF(T28="AMBER","AMBER","GREEN")))</f>
@@ -6398,7 +6398,7 @@
       <c r="A38" s="28"/>
       <c r="B38" s="51"/>
       <c r="C38" s="50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D38" s="49">
         <f t="shared" ref="D38:M38" si="8">SUM(D25:D37)</f>
@@ -6464,7 +6464,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I39" s="40">
         <f>E20</f>
@@ -6512,16 +6512,16 @@
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="157" t="str">
+      <c r="F41" s="144" t="str">
         <f>IF(N25&gt;"",N25,IF(N26&gt;"",N26,IF(N27&gt;"",N27,IF(N28&gt;"",N28,IF(N29&gt;"",N29,IF(N30&gt;"",N30,IF(N31&gt;"",N31,IF(N32&gt;"",N32,IF(N33&gt;"",N33,IF(N34&gt;"",N34,IF(N35&gt;"",N35,IF(N36&gt;"",N36,IF(N37&gt;"",N37,IF(I38&lt;&gt;I39,"Your total estimate in cell I38 does not yet equal the Nectar Funds Allocated",""))))))))))))))</f>
         <v/>
       </c>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="159"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="146"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
       <c r="O41" s="28"/>
@@ -6536,7 +6536,7 @@
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="28"/>
@@ -6560,17 +6560,17 @@
     <row r="43" spans="1:21" s="27" customFormat="1" ht="54" customHeight="1" thickBot="1">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="156"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="143"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
@@ -6638,7 +6638,7 @@
         <v>42369</v>
       </c>
       <c r="R45" s="34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S45" s="28"/>
       <c r="T45" s="28"/>
@@ -6648,7 +6648,7 @@
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="32">
@@ -6702,7 +6702,7 @@
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="29">
@@ -6769,7 +6769,7 @@
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="29">
@@ -6834,7 +6834,7 @@
     </row>
     <row r="49" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
       <c r="C49" s="30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="29">
@@ -6896,7 +6896,7 @@
     </row>
     <row r="50" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
       <c r="C50" s="30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="29">
@@ -6958,7 +6958,7 @@
     </row>
     <row r="51" spans="3:18" s="27" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="C51" s="30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="29">
@@ -7020,7 +7020,7 @@
     </row>
     <row r="52" spans="3:18" s="27" customFormat="1" ht="25.5" hidden="1">
       <c r="C52" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="32">
@@ -7069,7 +7069,7 @@
     </row>
     <row r="53" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
       <c r="C53" s="30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="29">
@@ -7131,7 +7131,7 @@
     </row>
     <row r="54" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
       <c r="C54" s="30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="29">
@@ -7193,7 +7193,7 @@
     </row>
     <row r="55" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
       <c r="C55" s="30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="29">
@@ -7255,7 +7255,7 @@
     </row>
     <row r="56" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
       <c r="C56" s="30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="29">
@@ -7336,6 +7336,8 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="U23:U24"/>
@@ -7348,8 +7350,6 @@
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="I23:I24"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
     <cfRule type="cellIs" dxfId="165" priority="164" operator="equal">
@@ -8210,22 +8210,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="61.5" thickBot="1">
@@ -8255,17 +8263,17 @@
       <c r="K1" s="165"/>
       <c r="L1" s="22"/>
       <c r="M1" s="165" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="N1" s="165"/>
       <c r="O1" s="22"/>
       <c r="P1" s="165" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="165"/>
       <c r="R1" s="22"/>
       <c r="S1" s="165" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="T1" s="165"/>
     </row>
@@ -8308,34 +8316,34 @@
       </c>
       <c r="E3" s="13"/>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1">
@@ -8819,26 +8827,26 @@
         <v>0</v>
       </c>
       <c r="L11" s="24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="1"/>
-        <v>44100</v>
+        <v>29400</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="0"/>
-        <v>8733.75</v>
+        <v>5822.5</v>
       </c>
       <c r="O11" s="24">
         <v>1</v>
       </c>
       <c r="P11" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="Q11" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2911.25</v>
       </c>
       <c r="R11" s="24">
         <v>1</v>
@@ -8932,26 +8940,26 @@
         <v>1856</v>
       </c>
       <c r="L13" s="23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="1"/>
-        <v>9371.25</v>
+        <v>18742.5</v>
       </c>
       <c r="N13" s="11">
         <f>($L13-$I13)*E13</f>
-        <v>1856</v>
+        <v>3712</v>
       </c>
       <c r="O13" s="24">
         <v>1</v>
       </c>
       <c r="P13" s="11">
         <f t="shared" si="2"/>
-        <v>9371.25</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="11">
         <f>($O13-$L13)*E13</f>
-        <v>1856</v>
+        <v>0</v>
       </c>
       <c r="R13" s="24">
         <v>1</v>
@@ -9076,26 +9084,26 @@
         <v>0</v>
       </c>
       <c r="L15" s="21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17151.25</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4927</v>
       </c>
       <c r="O15" s="23">
         <v>0.75</v>
       </c>
       <c r="P15" s="11">
         <f t="shared" si="2"/>
-        <v>51453.75</v>
+        <v>34302.5</v>
       </c>
       <c r="Q15" s="11">
         <f>($O15-$L15)*E15</f>
-        <v>14781</v>
+        <v>9854</v>
       </c>
       <c r="R15" s="23">
         <v>1</v>
@@ -9122,7 +9130,7 @@
       </c>
       <c r="E16" s="15"/>
       <c r="S16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1">
@@ -9207,19 +9215,19 @@
       </c>
       <c r="M21" s="11">
         <f>SUM(M4:M15)</f>
-        <v>60141.25</v>
+        <v>71963.75</v>
       </c>
       <c r="N21" s="11">
         <f>SUM(N4:N15)</f>
-        <v>10944.75</v>
+        <v>14816.5</v>
       </c>
       <c r="P21" s="11">
         <f>SUM(P4:P15)</f>
-        <v>60825</v>
+        <v>49002.5</v>
       </c>
       <c r="Q21" s="11">
         <f>SUM(Q4:Q15)</f>
-        <v>16637</v>
+        <v>12765.25</v>
       </c>
       <c r="S21" s="11">
         <f>SUM(S4:S15)</f>
@@ -9232,7 +9240,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="F22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J22" s="11">
         <f>G21+J21</f>
@@ -9244,11 +9252,11 @@
       </c>
       <c r="M22" s="11">
         <f>M21+J22</f>
-        <v>212622.75</v>
+        <v>224445.25</v>
       </c>
       <c r="N22" s="11">
         <f>N21+K22</f>
-        <v>95693</v>
+        <v>99564.75</v>
       </c>
       <c r="P22" s="11">
         <f>P21+M22</f>
@@ -9269,7 +9277,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="F23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H23" s="11">
         <f>G21+H21</f>
@@ -9284,8 +9292,8 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11">
-        <f t="shared" ref="L23:T23" si="11">M22+N22</f>
-        <v>308315.75</v>
+        <f t="shared" ref="N23:T23" si="11">M22+N22</f>
+        <v>324010</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>

--- a/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/Reporting Financial Calculations.xlsx
+++ b/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/Reporting Financial Calculations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="29320" windowHeight="18940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Finance 2" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,12 @@
     <definedName name="TOTALEIF">'Finance 2'!$E$20</definedName>
     <definedName name="YesNo">'[1]Data- TO BE HIDDEN'!$E$2:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -403,16 +408,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[&gt;=1000]#,##0,&quot;&quot;;0"/>
-    <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[&gt;=1000]#,##0,&quot;&quot;;0"/>
+    <numFmt numFmtId="168" formatCode="[$-C09]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,53 +711,53 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,16 +1538,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,7 +1558,7 @@
         <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,7 +1571,7 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="67" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="68" applyNumberFormat="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
@@ -1608,19 +1613,19 @@
     <xf numFmtId="15" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1630,18 +1635,18 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,102 +1663,102 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="6" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="37" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="6" borderId="37" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="39" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="6" borderId="39" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1781,21 +1786,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="8" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="8" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1830,7 +1835,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1839,13 +1844,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="9" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="9" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,6 +1882,24 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1952,24 +1975,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4515,735 +4520,735 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
   <dimension ref="A1:WVW57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B10" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="28" customWidth="1"/>
     <col min="5" max="5" width="13" style="28" customWidth="1"/>
     <col min="6" max="8" width="14" style="28" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="28" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="28" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="28" customWidth="1"/>
     <col min="12" max="12" width="14" style="28" customWidth="1"/>
     <col min="13" max="13" width="17" style="28" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="28" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="28" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="28" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="28" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="28" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="16" style="28" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="28" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="34.42578125" style="28" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" style="28" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="28" customWidth="1"/>
-    <col min="22" max="258" width="8.85546875" style="28"/>
-    <col min="259" max="259" width="9.7109375" style="28" customWidth="1"/>
-    <col min="260" max="260" width="21.85546875" style="28" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="28" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="34.5" style="28" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" style="28" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="28" customWidth="1"/>
+    <col min="22" max="258" width="8.83203125" style="28"/>
+    <col min="259" max="259" width="9.6640625" style="28" customWidth="1"/>
+    <col min="260" max="260" width="21.83203125" style="28" customWidth="1"/>
     <col min="261" max="261" width="13" style="28" customWidth="1"/>
     <col min="262" max="264" width="14" style="28" customWidth="1"/>
-    <col min="265" max="265" width="17.140625" style="28" customWidth="1"/>
-    <col min="266" max="266" width="17.7109375" style="28" customWidth="1"/>
-    <col min="267" max="267" width="16.28515625" style="28" customWidth="1"/>
+    <col min="265" max="265" width="17.1640625" style="28" customWidth="1"/>
+    <col min="266" max="266" width="17.6640625" style="28" customWidth="1"/>
+    <col min="267" max="267" width="16.33203125" style="28" customWidth="1"/>
     <col min="268" max="268" width="14" style="28" customWidth="1"/>
     <col min="269" max="269" width="17" style="28" customWidth="1"/>
-    <col min="270" max="270" width="14.42578125" style="28" customWidth="1"/>
-    <col min="271" max="514" width="8.85546875" style="28"/>
-    <col min="515" max="515" width="9.7109375" style="28" customWidth="1"/>
-    <col min="516" max="516" width="21.85546875" style="28" customWidth="1"/>
+    <col min="270" max="270" width="14.5" style="28" customWidth="1"/>
+    <col min="271" max="514" width="8.83203125" style="28"/>
+    <col min="515" max="515" width="9.6640625" style="28" customWidth="1"/>
+    <col min="516" max="516" width="21.83203125" style="28" customWidth="1"/>
     <col min="517" max="517" width="13" style="28" customWidth="1"/>
     <col min="518" max="520" width="14" style="28" customWidth="1"/>
-    <col min="521" max="521" width="17.140625" style="28" customWidth="1"/>
-    <col min="522" max="522" width="17.7109375" style="28" customWidth="1"/>
-    <col min="523" max="523" width="16.28515625" style="28" customWidth="1"/>
+    <col min="521" max="521" width="17.1640625" style="28" customWidth="1"/>
+    <col min="522" max="522" width="17.6640625" style="28" customWidth="1"/>
+    <col min="523" max="523" width="16.33203125" style="28" customWidth="1"/>
     <col min="524" max="524" width="14" style="28" customWidth="1"/>
     <col min="525" max="525" width="17" style="28" customWidth="1"/>
-    <col min="526" max="526" width="14.42578125" style="28" customWidth="1"/>
-    <col min="527" max="770" width="8.85546875" style="28"/>
-    <col min="771" max="771" width="9.7109375" style="28" customWidth="1"/>
-    <col min="772" max="772" width="21.85546875" style="28" customWidth="1"/>
+    <col min="526" max="526" width="14.5" style="28" customWidth="1"/>
+    <col min="527" max="770" width="8.83203125" style="28"/>
+    <col min="771" max="771" width="9.6640625" style="28" customWidth="1"/>
+    <col min="772" max="772" width="21.83203125" style="28" customWidth="1"/>
     <col min="773" max="773" width="13" style="28" customWidth="1"/>
     <col min="774" max="776" width="14" style="28" customWidth="1"/>
-    <col min="777" max="777" width="17.140625" style="28" customWidth="1"/>
-    <col min="778" max="778" width="17.7109375" style="28" customWidth="1"/>
-    <col min="779" max="779" width="16.28515625" style="28" customWidth="1"/>
+    <col min="777" max="777" width="17.1640625" style="28" customWidth="1"/>
+    <col min="778" max="778" width="17.6640625" style="28" customWidth="1"/>
+    <col min="779" max="779" width="16.33203125" style="28" customWidth="1"/>
     <col min="780" max="780" width="14" style="28" customWidth="1"/>
     <col min="781" max="781" width="17" style="28" customWidth="1"/>
-    <col min="782" max="782" width="14.42578125" style="28" customWidth="1"/>
-    <col min="783" max="1026" width="8.85546875" style="28"/>
-    <col min="1027" max="1027" width="9.7109375" style="28" customWidth="1"/>
-    <col min="1028" max="1028" width="21.85546875" style="28" customWidth="1"/>
+    <col min="782" max="782" width="14.5" style="28" customWidth="1"/>
+    <col min="783" max="1026" width="8.83203125" style="28"/>
+    <col min="1027" max="1027" width="9.6640625" style="28" customWidth="1"/>
+    <col min="1028" max="1028" width="21.83203125" style="28" customWidth="1"/>
     <col min="1029" max="1029" width="13" style="28" customWidth="1"/>
     <col min="1030" max="1032" width="14" style="28" customWidth="1"/>
-    <col min="1033" max="1033" width="17.140625" style="28" customWidth="1"/>
-    <col min="1034" max="1034" width="17.7109375" style="28" customWidth="1"/>
-    <col min="1035" max="1035" width="16.28515625" style="28" customWidth="1"/>
+    <col min="1033" max="1033" width="17.1640625" style="28" customWidth="1"/>
+    <col min="1034" max="1034" width="17.6640625" style="28" customWidth="1"/>
+    <col min="1035" max="1035" width="16.33203125" style="28" customWidth="1"/>
     <col min="1036" max="1036" width="14" style="28" customWidth="1"/>
     <col min="1037" max="1037" width="17" style="28" customWidth="1"/>
-    <col min="1038" max="1038" width="14.42578125" style="28" customWidth="1"/>
-    <col min="1039" max="1282" width="8.85546875" style="28"/>
-    <col min="1283" max="1283" width="9.7109375" style="28" customWidth="1"/>
-    <col min="1284" max="1284" width="21.85546875" style="28" customWidth="1"/>
+    <col min="1038" max="1038" width="14.5" style="28" customWidth="1"/>
+    <col min="1039" max="1282" width="8.83203125" style="28"/>
+    <col min="1283" max="1283" width="9.6640625" style="28" customWidth="1"/>
+    <col min="1284" max="1284" width="21.83203125" style="28" customWidth="1"/>
     <col min="1285" max="1285" width="13" style="28" customWidth="1"/>
     <col min="1286" max="1288" width="14" style="28" customWidth="1"/>
-    <col min="1289" max="1289" width="17.140625" style="28" customWidth="1"/>
-    <col min="1290" max="1290" width="17.7109375" style="28" customWidth="1"/>
-    <col min="1291" max="1291" width="16.28515625" style="28" customWidth="1"/>
+    <col min="1289" max="1289" width="17.1640625" style="28" customWidth="1"/>
+    <col min="1290" max="1290" width="17.6640625" style="28" customWidth="1"/>
+    <col min="1291" max="1291" width="16.33203125" style="28" customWidth="1"/>
     <col min="1292" max="1292" width="14" style="28" customWidth="1"/>
     <col min="1293" max="1293" width="17" style="28" customWidth="1"/>
-    <col min="1294" max="1294" width="14.42578125" style="28" customWidth="1"/>
-    <col min="1295" max="1538" width="8.85546875" style="28"/>
-    <col min="1539" max="1539" width="9.7109375" style="28" customWidth="1"/>
-    <col min="1540" max="1540" width="21.85546875" style="28" customWidth="1"/>
+    <col min="1294" max="1294" width="14.5" style="28" customWidth="1"/>
+    <col min="1295" max="1538" width="8.83203125" style="28"/>
+    <col min="1539" max="1539" width="9.6640625" style="28" customWidth="1"/>
+    <col min="1540" max="1540" width="21.83203125" style="28" customWidth="1"/>
     <col min="1541" max="1541" width="13" style="28" customWidth="1"/>
     <col min="1542" max="1544" width="14" style="28" customWidth="1"/>
-    <col min="1545" max="1545" width="17.140625" style="28" customWidth="1"/>
-    <col min="1546" max="1546" width="17.7109375" style="28" customWidth="1"/>
-    <col min="1547" max="1547" width="16.28515625" style="28" customWidth="1"/>
+    <col min="1545" max="1545" width="17.1640625" style="28" customWidth="1"/>
+    <col min="1546" max="1546" width="17.6640625" style="28" customWidth="1"/>
+    <col min="1547" max="1547" width="16.33203125" style="28" customWidth="1"/>
     <col min="1548" max="1548" width="14" style="28" customWidth="1"/>
     <col min="1549" max="1549" width="17" style="28" customWidth="1"/>
-    <col min="1550" max="1550" width="14.42578125" style="28" customWidth="1"/>
-    <col min="1551" max="1794" width="8.85546875" style="28"/>
-    <col min="1795" max="1795" width="9.7109375" style="28" customWidth="1"/>
-    <col min="1796" max="1796" width="21.85546875" style="28" customWidth="1"/>
+    <col min="1550" max="1550" width="14.5" style="28" customWidth="1"/>
+    <col min="1551" max="1794" width="8.83203125" style="28"/>
+    <col min="1795" max="1795" width="9.6640625" style="28" customWidth="1"/>
+    <col min="1796" max="1796" width="21.83203125" style="28" customWidth="1"/>
     <col min="1797" max="1797" width="13" style="28" customWidth="1"/>
     <col min="1798" max="1800" width="14" style="28" customWidth="1"/>
-    <col min="1801" max="1801" width="17.140625" style="28" customWidth="1"/>
-    <col min="1802" max="1802" width="17.7109375" style="28" customWidth="1"/>
-    <col min="1803" max="1803" width="16.28515625" style="28" customWidth="1"/>
+    <col min="1801" max="1801" width="17.1640625" style="28" customWidth="1"/>
+    <col min="1802" max="1802" width="17.6640625" style="28" customWidth="1"/>
+    <col min="1803" max="1803" width="16.33203125" style="28" customWidth="1"/>
     <col min="1804" max="1804" width="14" style="28" customWidth="1"/>
     <col min="1805" max="1805" width="17" style="28" customWidth="1"/>
-    <col min="1806" max="1806" width="14.42578125" style="28" customWidth="1"/>
-    <col min="1807" max="2050" width="8.85546875" style="28"/>
-    <col min="2051" max="2051" width="9.7109375" style="28" customWidth="1"/>
-    <col min="2052" max="2052" width="21.85546875" style="28" customWidth="1"/>
+    <col min="1806" max="1806" width="14.5" style="28" customWidth="1"/>
+    <col min="1807" max="2050" width="8.83203125" style="28"/>
+    <col min="2051" max="2051" width="9.6640625" style="28" customWidth="1"/>
+    <col min="2052" max="2052" width="21.83203125" style="28" customWidth="1"/>
     <col min="2053" max="2053" width="13" style="28" customWidth="1"/>
     <col min="2054" max="2056" width="14" style="28" customWidth="1"/>
-    <col min="2057" max="2057" width="17.140625" style="28" customWidth="1"/>
-    <col min="2058" max="2058" width="17.7109375" style="28" customWidth="1"/>
-    <col min="2059" max="2059" width="16.28515625" style="28" customWidth="1"/>
+    <col min="2057" max="2057" width="17.1640625" style="28" customWidth="1"/>
+    <col min="2058" max="2058" width="17.6640625" style="28" customWidth="1"/>
+    <col min="2059" max="2059" width="16.33203125" style="28" customWidth="1"/>
     <col min="2060" max="2060" width="14" style="28" customWidth="1"/>
     <col min="2061" max="2061" width="17" style="28" customWidth="1"/>
-    <col min="2062" max="2062" width="14.42578125" style="28" customWidth="1"/>
-    <col min="2063" max="2306" width="8.85546875" style="28"/>
-    <col min="2307" max="2307" width="9.7109375" style="28" customWidth="1"/>
-    <col min="2308" max="2308" width="21.85546875" style="28" customWidth="1"/>
+    <col min="2062" max="2062" width="14.5" style="28" customWidth="1"/>
+    <col min="2063" max="2306" width="8.83203125" style="28"/>
+    <col min="2307" max="2307" width="9.6640625" style="28" customWidth="1"/>
+    <col min="2308" max="2308" width="21.83203125" style="28" customWidth="1"/>
     <col min="2309" max="2309" width="13" style="28" customWidth="1"/>
     <col min="2310" max="2312" width="14" style="28" customWidth="1"/>
-    <col min="2313" max="2313" width="17.140625" style="28" customWidth="1"/>
-    <col min="2314" max="2314" width="17.7109375" style="28" customWidth="1"/>
-    <col min="2315" max="2315" width="16.28515625" style="28" customWidth="1"/>
+    <col min="2313" max="2313" width="17.1640625" style="28" customWidth="1"/>
+    <col min="2314" max="2314" width="17.6640625" style="28" customWidth="1"/>
+    <col min="2315" max="2315" width="16.33203125" style="28" customWidth="1"/>
     <col min="2316" max="2316" width="14" style="28" customWidth="1"/>
     <col min="2317" max="2317" width="17" style="28" customWidth="1"/>
-    <col min="2318" max="2318" width="14.42578125" style="28" customWidth="1"/>
-    <col min="2319" max="2562" width="8.85546875" style="28"/>
-    <col min="2563" max="2563" width="9.7109375" style="28" customWidth="1"/>
-    <col min="2564" max="2564" width="21.85546875" style="28" customWidth="1"/>
+    <col min="2318" max="2318" width="14.5" style="28" customWidth="1"/>
+    <col min="2319" max="2562" width="8.83203125" style="28"/>
+    <col min="2563" max="2563" width="9.6640625" style="28" customWidth="1"/>
+    <col min="2564" max="2564" width="21.83203125" style="28" customWidth="1"/>
     <col min="2565" max="2565" width="13" style="28" customWidth="1"/>
     <col min="2566" max="2568" width="14" style="28" customWidth="1"/>
-    <col min="2569" max="2569" width="17.140625" style="28" customWidth="1"/>
-    <col min="2570" max="2570" width="17.7109375" style="28" customWidth="1"/>
-    <col min="2571" max="2571" width="16.28515625" style="28" customWidth="1"/>
+    <col min="2569" max="2569" width="17.1640625" style="28" customWidth="1"/>
+    <col min="2570" max="2570" width="17.6640625" style="28" customWidth="1"/>
+    <col min="2571" max="2571" width="16.33203125" style="28" customWidth="1"/>
     <col min="2572" max="2572" width="14" style="28" customWidth="1"/>
     <col min="2573" max="2573" width="17" style="28" customWidth="1"/>
-    <col min="2574" max="2574" width="14.42578125" style="28" customWidth="1"/>
-    <col min="2575" max="2818" width="8.85546875" style="28"/>
-    <col min="2819" max="2819" width="9.7109375" style="28" customWidth="1"/>
-    <col min="2820" max="2820" width="21.85546875" style="28" customWidth="1"/>
+    <col min="2574" max="2574" width="14.5" style="28" customWidth="1"/>
+    <col min="2575" max="2818" width="8.83203125" style="28"/>
+    <col min="2819" max="2819" width="9.6640625" style="28" customWidth="1"/>
+    <col min="2820" max="2820" width="21.83203125" style="28" customWidth="1"/>
     <col min="2821" max="2821" width="13" style="28" customWidth="1"/>
     <col min="2822" max="2824" width="14" style="28" customWidth="1"/>
-    <col min="2825" max="2825" width="17.140625" style="28" customWidth="1"/>
-    <col min="2826" max="2826" width="17.7109375" style="28" customWidth="1"/>
-    <col min="2827" max="2827" width="16.28515625" style="28" customWidth="1"/>
+    <col min="2825" max="2825" width="17.1640625" style="28" customWidth="1"/>
+    <col min="2826" max="2826" width="17.6640625" style="28" customWidth="1"/>
+    <col min="2827" max="2827" width="16.33203125" style="28" customWidth="1"/>
     <col min="2828" max="2828" width="14" style="28" customWidth="1"/>
     <col min="2829" max="2829" width="17" style="28" customWidth="1"/>
-    <col min="2830" max="2830" width="14.42578125" style="28" customWidth="1"/>
-    <col min="2831" max="3074" width="8.85546875" style="28"/>
-    <col min="3075" max="3075" width="9.7109375" style="28" customWidth="1"/>
-    <col min="3076" max="3076" width="21.85546875" style="28" customWidth="1"/>
+    <col min="2830" max="2830" width="14.5" style="28" customWidth="1"/>
+    <col min="2831" max="3074" width="8.83203125" style="28"/>
+    <col min="3075" max="3075" width="9.6640625" style="28" customWidth="1"/>
+    <col min="3076" max="3076" width="21.83203125" style="28" customWidth="1"/>
     <col min="3077" max="3077" width="13" style="28" customWidth="1"/>
     <col min="3078" max="3080" width="14" style="28" customWidth="1"/>
-    <col min="3081" max="3081" width="17.140625" style="28" customWidth="1"/>
-    <col min="3082" max="3082" width="17.7109375" style="28" customWidth="1"/>
-    <col min="3083" max="3083" width="16.28515625" style="28" customWidth="1"/>
+    <col min="3081" max="3081" width="17.1640625" style="28" customWidth="1"/>
+    <col min="3082" max="3082" width="17.6640625" style="28" customWidth="1"/>
+    <col min="3083" max="3083" width="16.33203125" style="28" customWidth="1"/>
     <col min="3084" max="3084" width="14" style="28" customWidth="1"/>
     <col min="3085" max="3085" width="17" style="28" customWidth="1"/>
-    <col min="3086" max="3086" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3087" max="3330" width="8.85546875" style="28"/>
-    <col min="3331" max="3331" width="9.7109375" style="28" customWidth="1"/>
-    <col min="3332" max="3332" width="21.85546875" style="28" customWidth="1"/>
+    <col min="3086" max="3086" width="14.5" style="28" customWidth="1"/>
+    <col min="3087" max="3330" width="8.83203125" style="28"/>
+    <col min="3331" max="3331" width="9.6640625" style="28" customWidth="1"/>
+    <col min="3332" max="3332" width="21.83203125" style="28" customWidth="1"/>
     <col min="3333" max="3333" width="13" style="28" customWidth="1"/>
     <col min="3334" max="3336" width="14" style="28" customWidth="1"/>
-    <col min="3337" max="3337" width="17.140625" style="28" customWidth="1"/>
-    <col min="3338" max="3338" width="17.7109375" style="28" customWidth="1"/>
-    <col min="3339" max="3339" width="16.28515625" style="28" customWidth="1"/>
+    <col min="3337" max="3337" width="17.1640625" style="28" customWidth="1"/>
+    <col min="3338" max="3338" width="17.6640625" style="28" customWidth="1"/>
+    <col min="3339" max="3339" width="16.33203125" style="28" customWidth="1"/>
     <col min="3340" max="3340" width="14" style="28" customWidth="1"/>
     <col min="3341" max="3341" width="17" style="28" customWidth="1"/>
-    <col min="3342" max="3342" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3343" max="3586" width="8.85546875" style="28"/>
-    <col min="3587" max="3587" width="9.7109375" style="28" customWidth="1"/>
-    <col min="3588" max="3588" width="21.85546875" style="28" customWidth="1"/>
+    <col min="3342" max="3342" width="14.5" style="28" customWidth="1"/>
+    <col min="3343" max="3586" width="8.83203125" style="28"/>
+    <col min="3587" max="3587" width="9.6640625" style="28" customWidth="1"/>
+    <col min="3588" max="3588" width="21.83203125" style="28" customWidth="1"/>
     <col min="3589" max="3589" width="13" style="28" customWidth="1"/>
     <col min="3590" max="3592" width="14" style="28" customWidth="1"/>
-    <col min="3593" max="3593" width="17.140625" style="28" customWidth="1"/>
-    <col min="3594" max="3594" width="17.7109375" style="28" customWidth="1"/>
-    <col min="3595" max="3595" width="16.28515625" style="28" customWidth="1"/>
+    <col min="3593" max="3593" width="17.1640625" style="28" customWidth="1"/>
+    <col min="3594" max="3594" width="17.6640625" style="28" customWidth="1"/>
+    <col min="3595" max="3595" width="16.33203125" style="28" customWidth="1"/>
     <col min="3596" max="3596" width="14" style="28" customWidth="1"/>
     <col min="3597" max="3597" width="17" style="28" customWidth="1"/>
-    <col min="3598" max="3598" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3599" max="3842" width="8.85546875" style="28"/>
-    <col min="3843" max="3843" width="9.7109375" style="28" customWidth="1"/>
-    <col min="3844" max="3844" width="21.85546875" style="28" customWidth="1"/>
+    <col min="3598" max="3598" width="14.5" style="28" customWidth="1"/>
+    <col min="3599" max="3842" width="8.83203125" style="28"/>
+    <col min="3843" max="3843" width="9.6640625" style="28" customWidth="1"/>
+    <col min="3844" max="3844" width="21.83203125" style="28" customWidth="1"/>
     <col min="3845" max="3845" width="13" style="28" customWidth="1"/>
     <col min="3846" max="3848" width="14" style="28" customWidth="1"/>
-    <col min="3849" max="3849" width="17.140625" style="28" customWidth="1"/>
-    <col min="3850" max="3850" width="17.7109375" style="28" customWidth="1"/>
-    <col min="3851" max="3851" width="16.28515625" style="28" customWidth="1"/>
+    <col min="3849" max="3849" width="17.1640625" style="28" customWidth="1"/>
+    <col min="3850" max="3850" width="17.6640625" style="28" customWidth="1"/>
+    <col min="3851" max="3851" width="16.33203125" style="28" customWidth="1"/>
     <col min="3852" max="3852" width="14" style="28" customWidth="1"/>
     <col min="3853" max="3853" width="17" style="28" customWidth="1"/>
-    <col min="3854" max="3854" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3855" max="4098" width="8.85546875" style="28"/>
-    <col min="4099" max="4099" width="9.7109375" style="28" customWidth="1"/>
-    <col min="4100" max="4100" width="21.85546875" style="28" customWidth="1"/>
+    <col min="3854" max="3854" width="14.5" style="28" customWidth="1"/>
+    <col min="3855" max="4098" width="8.83203125" style="28"/>
+    <col min="4099" max="4099" width="9.6640625" style="28" customWidth="1"/>
+    <col min="4100" max="4100" width="21.83203125" style="28" customWidth="1"/>
     <col min="4101" max="4101" width="13" style="28" customWidth="1"/>
     <col min="4102" max="4104" width="14" style="28" customWidth="1"/>
-    <col min="4105" max="4105" width="17.140625" style="28" customWidth="1"/>
-    <col min="4106" max="4106" width="17.7109375" style="28" customWidth="1"/>
-    <col min="4107" max="4107" width="16.28515625" style="28" customWidth="1"/>
+    <col min="4105" max="4105" width="17.1640625" style="28" customWidth="1"/>
+    <col min="4106" max="4106" width="17.6640625" style="28" customWidth="1"/>
+    <col min="4107" max="4107" width="16.33203125" style="28" customWidth="1"/>
     <col min="4108" max="4108" width="14" style="28" customWidth="1"/>
     <col min="4109" max="4109" width="17" style="28" customWidth="1"/>
-    <col min="4110" max="4110" width="14.42578125" style="28" customWidth="1"/>
-    <col min="4111" max="4354" width="8.85546875" style="28"/>
-    <col min="4355" max="4355" width="9.7109375" style="28" customWidth="1"/>
-    <col min="4356" max="4356" width="21.85546875" style="28" customWidth="1"/>
+    <col min="4110" max="4110" width="14.5" style="28" customWidth="1"/>
+    <col min="4111" max="4354" width="8.83203125" style="28"/>
+    <col min="4355" max="4355" width="9.6640625" style="28" customWidth="1"/>
+    <col min="4356" max="4356" width="21.83203125" style="28" customWidth="1"/>
     <col min="4357" max="4357" width="13" style="28" customWidth="1"/>
     <col min="4358" max="4360" width="14" style="28" customWidth="1"/>
-    <col min="4361" max="4361" width="17.140625" style="28" customWidth="1"/>
-    <col min="4362" max="4362" width="17.7109375" style="28" customWidth="1"/>
-    <col min="4363" max="4363" width="16.28515625" style="28" customWidth="1"/>
+    <col min="4361" max="4361" width="17.1640625" style="28" customWidth="1"/>
+    <col min="4362" max="4362" width="17.6640625" style="28" customWidth="1"/>
+    <col min="4363" max="4363" width="16.33203125" style="28" customWidth="1"/>
     <col min="4364" max="4364" width="14" style="28" customWidth="1"/>
     <col min="4365" max="4365" width="17" style="28" customWidth="1"/>
-    <col min="4366" max="4366" width="14.42578125" style="28" customWidth="1"/>
-    <col min="4367" max="4610" width="8.85546875" style="28"/>
-    <col min="4611" max="4611" width="9.7109375" style="28" customWidth="1"/>
-    <col min="4612" max="4612" width="21.85546875" style="28" customWidth="1"/>
+    <col min="4366" max="4366" width="14.5" style="28" customWidth="1"/>
+    <col min="4367" max="4610" width="8.83203125" style="28"/>
+    <col min="4611" max="4611" width="9.6640625" style="28" customWidth="1"/>
+    <col min="4612" max="4612" width="21.83203125" style="28" customWidth="1"/>
     <col min="4613" max="4613" width="13" style="28" customWidth="1"/>
     <col min="4614" max="4616" width="14" style="28" customWidth="1"/>
-    <col min="4617" max="4617" width="17.140625" style="28" customWidth="1"/>
-    <col min="4618" max="4618" width="17.7109375" style="28" customWidth="1"/>
-    <col min="4619" max="4619" width="16.28515625" style="28" customWidth="1"/>
+    <col min="4617" max="4617" width="17.1640625" style="28" customWidth="1"/>
+    <col min="4618" max="4618" width="17.6640625" style="28" customWidth="1"/>
+    <col min="4619" max="4619" width="16.33203125" style="28" customWidth="1"/>
     <col min="4620" max="4620" width="14" style="28" customWidth="1"/>
     <col min="4621" max="4621" width="17" style="28" customWidth="1"/>
-    <col min="4622" max="4622" width="14.42578125" style="28" customWidth="1"/>
-    <col min="4623" max="4866" width="8.85546875" style="28"/>
-    <col min="4867" max="4867" width="9.7109375" style="28" customWidth="1"/>
-    <col min="4868" max="4868" width="21.85546875" style="28" customWidth="1"/>
+    <col min="4622" max="4622" width="14.5" style="28" customWidth="1"/>
+    <col min="4623" max="4866" width="8.83203125" style="28"/>
+    <col min="4867" max="4867" width="9.6640625" style="28" customWidth="1"/>
+    <col min="4868" max="4868" width="21.83203125" style="28" customWidth="1"/>
     <col min="4869" max="4869" width="13" style="28" customWidth="1"/>
     <col min="4870" max="4872" width="14" style="28" customWidth="1"/>
-    <col min="4873" max="4873" width="17.140625" style="28" customWidth="1"/>
-    <col min="4874" max="4874" width="17.7109375" style="28" customWidth="1"/>
-    <col min="4875" max="4875" width="16.28515625" style="28" customWidth="1"/>
+    <col min="4873" max="4873" width="17.1640625" style="28" customWidth="1"/>
+    <col min="4874" max="4874" width="17.6640625" style="28" customWidth="1"/>
+    <col min="4875" max="4875" width="16.33203125" style="28" customWidth="1"/>
     <col min="4876" max="4876" width="14" style="28" customWidth="1"/>
     <col min="4877" max="4877" width="17" style="28" customWidth="1"/>
-    <col min="4878" max="4878" width="14.42578125" style="28" customWidth="1"/>
-    <col min="4879" max="5122" width="8.85546875" style="28"/>
-    <col min="5123" max="5123" width="9.7109375" style="28" customWidth="1"/>
-    <col min="5124" max="5124" width="21.85546875" style="28" customWidth="1"/>
+    <col min="4878" max="4878" width="14.5" style="28" customWidth="1"/>
+    <col min="4879" max="5122" width="8.83203125" style="28"/>
+    <col min="5123" max="5123" width="9.6640625" style="28" customWidth="1"/>
+    <col min="5124" max="5124" width="21.83203125" style="28" customWidth="1"/>
     <col min="5125" max="5125" width="13" style="28" customWidth="1"/>
     <col min="5126" max="5128" width="14" style="28" customWidth="1"/>
-    <col min="5129" max="5129" width="17.140625" style="28" customWidth="1"/>
-    <col min="5130" max="5130" width="17.7109375" style="28" customWidth="1"/>
-    <col min="5131" max="5131" width="16.28515625" style="28" customWidth="1"/>
+    <col min="5129" max="5129" width="17.1640625" style="28" customWidth="1"/>
+    <col min="5130" max="5130" width="17.6640625" style="28" customWidth="1"/>
+    <col min="5131" max="5131" width="16.33203125" style="28" customWidth="1"/>
     <col min="5132" max="5132" width="14" style="28" customWidth="1"/>
     <col min="5133" max="5133" width="17" style="28" customWidth="1"/>
-    <col min="5134" max="5134" width="14.42578125" style="28" customWidth="1"/>
-    <col min="5135" max="5378" width="8.85546875" style="28"/>
-    <col min="5379" max="5379" width="9.7109375" style="28" customWidth="1"/>
-    <col min="5380" max="5380" width="21.85546875" style="28" customWidth="1"/>
+    <col min="5134" max="5134" width="14.5" style="28" customWidth="1"/>
+    <col min="5135" max="5378" width="8.83203125" style="28"/>
+    <col min="5379" max="5379" width="9.6640625" style="28" customWidth="1"/>
+    <col min="5380" max="5380" width="21.83203125" style="28" customWidth="1"/>
     <col min="5381" max="5381" width="13" style="28" customWidth="1"/>
     <col min="5382" max="5384" width="14" style="28" customWidth="1"/>
-    <col min="5385" max="5385" width="17.140625" style="28" customWidth="1"/>
-    <col min="5386" max="5386" width="17.7109375" style="28" customWidth="1"/>
-    <col min="5387" max="5387" width="16.28515625" style="28" customWidth="1"/>
+    <col min="5385" max="5385" width="17.1640625" style="28" customWidth="1"/>
+    <col min="5386" max="5386" width="17.6640625" style="28" customWidth="1"/>
+    <col min="5387" max="5387" width="16.33203125" style="28" customWidth="1"/>
     <col min="5388" max="5388" width="14" style="28" customWidth="1"/>
     <col min="5389" max="5389" width="17" style="28" customWidth="1"/>
-    <col min="5390" max="5390" width="14.42578125" style="28" customWidth="1"/>
-    <col min="5391" max="5634" width="8.85546875" style="28"/>
-    <col min="5635" max="5635" width="9.7109375" style="28" customWidth="1"/>
-    <col min="5636" max="5636" width="21.85546875" style="28" customWidth="1"/>
+    <col min="5390" max="5390" width="14.5" style="28" customWidth="1"/>
+    <col min="5391" max="5634" width="8.83203125" style="28"/>
+    <col min="5635" max="5635" width="9.6640625" style="28" customWidth="1"/>
+    <col min="5636" max="5636" width="21.83203125" style="28" customWidth="1"/>
     <col min="5637" max="5637" width="13" style="28" customWidth="1"/>
     <col min="5638" max="5640" width="14" style="28" customWidth="1"/>
-    <col min="5641" max="5641" width="17.140625" style="28" customWidth="1"/>
-    <col min="5642" max="5642" width="17.7109375" style="28" customWidth="1"/>
-    <col min="5643" max="5643" width="16.28515625" style="28" customWidth="1"/>
+    <col min="5641" max="5641" width="17.1640625" style="28" customWidth="1"/>
+    <col min="5642" max="5642" width="17.6640625" style="28" customWidth="1"/>
+    <col min="5643" max="5643" width="16.33203125" style="28" customWidth="1"/>
     <col min="5644" max="5644" width="14" style="28" customWidth="1"/>
     <col min="5645" max="5645" width="17" style="28" customWidth="1"/>
-    <col min="5646" max="5646" width="14.42578125" style="28" customWidth="1"/>
-    <col min="5647" max="5890" width="8.85546875" style="28"/>
-    <col min="5891" max="5891" width="9.7109375" style="28" customWidth="1"/>
-    <col min="5892" max="5892" width="21.85546875" style="28" customWidth="1"/>
+    <col min="5646" max="5646" width="14.5" style="28" customWidth="1"/>
+    <col min="5647" max="5890" width="8.83203125" style="28"/>
+    <col min="5891" max="5891" width="9.6640625" style="28" customWidth="1"/>
+    <col min="5892" max="5892" width="21.83203125" style="28" customWidth="1"/>
     <col min="5893" max="5893" width="13" style="28" customWidth="1"/>
     <col min="5894" max="5896" width="14" style="28" customWidth="1"/>
-    <col min="5897" max="5897" width="17.140625" style="28" customWidth="1"/>
-    <col min="5898" max="5898" width="17.7109375" style="28" customWidth="1"/>
-    <col min="5899" max="5899" width="16.28515625" style="28" customWidth="1"/>
+    <col min="5897" max="5897" width="17.1640625" style="28" customWidth="1"/>
+    <col min="5898" max="5898" width="17.6640625" style="28" customWidth="1"/>
+    <col min="5899" max="5899" width="16.33203125" style="28" customWidth="1"/>
     <col min="5900" max="5900" width="14" style="28" customWidth="1"/>
     <col min="5901" max="5901" width="17" style="28" customWidth="1"/>
-    <col min="5902" max="5902" width="14.42578125" style="28" customWidth="1"/>
-    <col min="5903" max="6146" width="8.85546875" style="28"/>
-    <col min="6147" max="6147" width="9.7109375" style="28" customWidth="1"/>
-    <col min="6148" max="6148" width="21.85546875" style="28" customWidth="1"/>
+    <col min="5902" max="5902" width="14.5" style="28" customWidth="1"/>
+    <col min="5903" max="6146" width="8.83203125" style="28"/>
+    <col min="6147" max="6147" width="9.6640625" style="28" customWidth="1"/>
+    <col min="6148" max="6148" width="21.83203125" style="28" customWidth="1"/>
     <col min="6149" max="6149" width="13" style="28" customWidth="1"/>
     <col min="6150" max="6152" width="14" style="28" customWidth="1"/>
-    <col min="6153" max="6153" width="17.140625" style="28" customWidth="1"/>
-    <col min="6154" max="6154" width="17.7109375" style="28" customWidth="1"/>
-    <col min="6155" max="6155" width="16.28515625" style="28" customWidth="1"/>
+    <col min="6153" max="6153" width="17.1640625" style="28" customWidth="1"/>
+    <col min="6154" max="6154" width="17.6640625" style="28" customWidth="1"/>
+    <col min="6155" max="6155" width="16.33203125" style="28" customWidth="1"/>
     <col min="6156" max="6156" width="14" style="28" customWidth="1"/>
     <col min="6157" max="6157" width="17" style="28" customWidth="1"/>
-    <col min="6158" max="6158" width="14.42578125" style="28" customWidth="1"/>
-    <col min="6159" max="6402" width="8.85546875" style="28"/>
-    <col min="6403" max="6403" width="9.7109375" style="28" customWidth="1"/>
-    <col min="6404" max="6404" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6158" max="6158" width="14.5" style="28" customWidth="1"/>
+    <col min="6159" max="6402" width="8.83203125" style="28"/>
+    <col min="6403" max="6403" width="9.6640625" style="28" customWidth="1"/>
+    <col min="6404" max="6404" width="21.83203125" style="28" customWidth="1"/>
     <col min="6405" max="6405" width="13" style="28" customWidth="1"/>
     <col min="6406" max="6408" width="14" style="28" customWidth="1"/>
-    <col min="6409" max="6409" width="17.140625" style="28" customWidth="1"/>
-    <col min="6410" max="6410" width="17.7109375" style="28" customWidth="1"/>
-    <col min="6411" max="6411" width="16.28515625" style="28" customWidth="1"/>
+    <col min="6409" max="6409" width="17.1640625" style="28" customWidth="1"/>
+    <col min="6410" max="6410" width="17.6640625" style="28" customWidth="1"/>
+    <col min="6411" max="6411" width="16.33203125" style="28" customWidth="1"/>
     <col min="6412" max="6412" width="14" style="28" customWidth="1"/>
     <col min="6413" max="6413" width="17" style="28" customWidth="1"/>
-    <col min="6414" max="6414" width="14.42578125" style="28" customWidth="1"/>
-    <col min="6415" max="6658" width="8.85546875" style="28"/>
-    <col min="6659" max="6659" width="9.7109375" style="28" customWidth="1"/>
-    <col min="6660" max="6660" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6414" max="6414" width="14.5" style="28" customWidth="1"/>
+    <col min="6415" max="6658" width="8.83203125" style="28"/>
+    <col min="6659" max="6659" width="9.6640625" style="28" customWidth="1"/>
+    <col min="6660" max="6660" width="21.83203125" style="28" customWidth="1"/>
     <col min="6661" max="6661" width="13" style="28" customWidth="1"/>
     <col min="6662" max="6664" width="14" style="28" customWidth="1"/>
-    <col min="6665" max="6665" width="17.140625" style="28" customWidth="1"/>
-    <col min="6666" max="6666" width="17.7109375" style="28" customWidth="1"/>
-    <col min="6667" max="6667" width="16.28515625" style="28" customWidth="1"/>
+    <col min="6665" max="6665" width="17.1640625" style="28" customWidth="1"/>
+    <col min="6666" max="6666" width="17.6640625" style="28" customWidth="1"/>
+    <col min="6667" max="6667" width="16.33203125" style="28" customWidth="1"/>
     <col min="6668" max="6668" width="14" style="28" customWidth="1"/>
     <col min="6669" max="6669" width="17" style="28" customWidth="1"/>
-    <col min="6670" max="6670" width="14.42578125" style="28" customWidth="1"/>
-    <col min="6671" max="6914" width="8.85546875" style="28"/>
-    <col min="6915" max="6915" width="9.7109375" style="28" customWidth="1"/>
-    <col min="6916" max="6916" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6670" max="6670" width="14.5" style="28" customWidth="1"/>
+    <col min="6671" max="6914" width="8.83203125" style="28"/>
+    <col min="6915" max="6915" width="9.6640625" style="28" customWidth="1"/>
+    <col min="6916" max="6916" width="21.83203125" style="28" customWidth="1"/>
     <col min="6917" max="6917" width="13" style="28" customWidth="1"/>
     <col min="6918" max="6920" width="14" style="28" customWidth="1"/>
-    <col min="6921" max="6921" width="17.140625" style="28" customWidth="1"/>
-    <col min="6922" max="6922" width="17.7109375" style="28" customWidth="1"/>
-    <col min="6923" max="6923" width="16.28515625" style="28" customWidth="1"/>
+    <col min="6921" max="6921" width="17.1640625" style="28" customWidth="1"/>
+    <col min="6922" max="6922" width="17.6640625" style="28" customWidth="1"/>
+    <col min="6923" max="6923" width="16.33203125" style="28" customWidth="1"/>
     <col min="6924" max="6924" width="14" style="28" customWidth="1"/>
     <col min="6925" max="6925" width="17" style="28" customWidth="1"/>
-    <col min="6926" max="6926" width="14.42578125" style="28" customWidth="1"/>
-    <col min="6927" max="7170" width="8.85546875" style="28"/>
-    <col min="7171" max="7171" width="9.7109375" style="28" customWidth="1"/>
-    <col min="7172" max="7172" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6926" max="6926" width="14.5" style="28" customWidth="1"/>
+    <col min="6927" max="7170" width="8.83203125" style="28"/>
+    <col min="7171" max="7171" width="9.6640625" style="28" customWidth="1"/>
+    <col min="7172" max="7172" width="21.83203125" style="28" customWidth="1"/>
     <col min="7173" max="7173" width="13" style="28" customWidth="1"/>
     <col min="7174" max="7176" width="14" style="28" customWidth="1"/>
-    <col min="7177" max="7177" width="17.140625" style="28" customWidth="1"/>
-    <col min="7178" max="7178" width="17.7109375" style="28" customWidth="1"/>
-    <col min="7179" max="7179" width="16.28515625" style="28" customWidth="1"/>
+    <col min="7177" max="7177" width="17.1640625" style="28" customWidth="1"/>
+    <col min="7178" max="7178" width="17.6640625" style="28" customWidth="1"/>
+    <col min="7179" max="7179" width="16.33203125" style="28" customWidth="1"/>
     <col min="7180" max="7180" width="14" style="28" customWidth="1"/>
     <col min="7181" max="7181" width="17" style="28" customWidth="1"/>
-    <col min="7182" max="7182" width="14.42578125" style="28" customWidth="1"/>
-    <col min="7183" max="7426" width="8.85546875" style="28"/>
-    <col min="7427" max="7427" width="9.7109375" style="28" customWidth="1"/>
-    <col min="7428" max="7428" width="21.85546875" style="28" customWidth="1"/>
+    <col min="7182" max="7182" width="14.5" style="28" customWidth="1"/>
+    <col min="7183" max="7426" width="8.83203125" style="28"/>
+    <col min="7427" max="7427" width="9.6640625" style="28" customWidth="1"/>
+    <col min="7428" max="7428" width="21.83203125" style="28" customWidth="1"/>
     <col min="7429" max="7429" width="13" style="28" customWidth="1"/>
     <col min="7430" max="7432" width="14" style="28" customWidth="1"/>
-    <col min="7433" max="7433" width="17.140625" style="28" customWidth="1"/>
-    <col min="7434" max="7434" width="17.7109375" style="28" customWidth="1"/>
-    <col min="7435" max="7435" width="16.28515625" style="28" customWidth="1"/>
+    <col min="7433" max="7433" width="17.1640625" style="28" customWidth="1"/>
+    <col min="7434" max="7434" width="17.6640625" style="28" customWidth="1"/>
+    <col min="7435" max="7435" width="16.33203125" style="28" customWidth="1"/>
     <col min="7436" max="7436" width="14" style="28" customWidth="1"/>
     <col min="7437" max="7437" width="17" style="28" customWidth="1"/>
-    <col min="7438" max="7438" width="14.42578125" style="28" customWidth="1"/>
-    <col min="7439" max="7682" width="8.85546875" style="28"/>
-    <col min="7683" max="7683" width="9.7109375" style="28" customWidth="1"/>
-    <col min="7684" max="7684" width="21.85546875" style="28" customWidth="1"/>
+    <col min="7438" max="7438" width="14.5" style="28" customWidth="1"/>
+    <col min="7439" max="7682" width="8.83203125" style="28"/>
+    <col min="7683" max="7683" width="9.6640625" style="28" customWidth="1"/>
+    <col min="7684" max="7684" width="21.83203125" style="28" customWidth="1"/>
     <col min="7685" max="7685" width="13" style="28" customWidth="1"/>
     <col min="7686" max="7688" width="14" style="28" customWidth="1"/>
-    <col min="7689" max="7689" width="17.140625" style="28" customWidth="1"/>
-    <col min="7690" max="7690" width="17.7109375" style="28" customWidth="1"/>
-    <col min="7691" max="7691" width="16.28515625" style="28" customWidth="1"/>
+    <col min="7689" max="7689" width="17.1640625" style="28" customWidth="1"/>
+    <col min="7690" max="7690" width="17.6640625" style="28" customWidth="1"/>
+    <col min="7691" max="7691" width="16.33203125" style="28" customWidth="1"/>
     <col min="7692" max="7692" width="14" style="28" customWidth="1"/>
     <col min="7693" max="7693" width="17" style="28" customWidth="1"/>
-    <col min="7694" max="7694" width="14.42578125" style="28" customWidth="1"/>
-    <col min="7695" max="7938" width="8.85546875" style="28"/>
-    <col min="7939" max="7939" width="9.7109375" style="28" customWidth="1"/>
-    <col min="7940" max="7940" width="21.85546875" style="28" customWidth="1"/>
+    <col min="7694" max="7694" width="14.5" style="28" customWidth="1"/>
+    <col min="7695" max="7938" width="8.83203125" style="28"/>
+    <col min="7939" max="7939" width="9.6640625" style="28" customWidth="1"/>
+    <col min="7940" max="7940" width="21.83203125" style="28" customWidth="1"/>
     <col min="7941" max="7941" width="13" style="28" customWidth="1"/>
     <col min="7942" max="7944" width="14" style="28" customWidth="1"/>
-    <col min="7945" max="7945" width="17.140625" style="28" customWidth="1"/>
-    <col min="7946" max="7946" width="17.7109375" style="28" customWidth="1"/>
-    <col min="7947" max="7947" width="16.28515625" style="28" customWidth="1"/>
+    <col min="7945" max="7945" width="17.1640625" style="28" customWidth="1"/>
+    <col min="7946" max="7946" width="17.6640625" style="28" customWidth="1"/>
+    <col min="7947" max="7947" width="16.33203125" style="28" customWidth="1"/>
     <col min="7948" max="7948" width="14" style="28" customWidth="1"/>
     <col min="7949" max="7949" width="17" style="28" customWidth="1"/>
-    <col min="7950" max="7950" width="14.42578125" style="28" customWidth="1"/>
-    <col min="7951" max="8194" width="8.85546875" style="28"/>
-    <col min="8195" max="8195" width="9.7109375" style="28" customWidth="1"/>
-    <col min="8196" max="8196" width="21.85546875" style="28" customWidth="1"/>
+    <col min="7950" max="7950" width="14.5" style="28" customWidth="1"/>
+    <col min="7951" max="8194" width="8.83203125" style="28"/>
+    <col min="8195" max="8195" width="9.6640625" style="28" customWidth="1"/>
+    <col min="8196" max="8196" width="21.83203125" style="28" customWidth="1"/>
     <col min="8197" max="8197" width="13" style="28" customWidth="1"/>
     <col min="8198" max="8200" width="14" style="28" customWidth="1"/>
-    <col min="8201" max="8201" width="17.140625" style="28" customWidth="1"/>
-    <col min="8202" max="8202" width="17.7109375" style="28" customWidth="1"/>
-    <col min="8203" max="8203" width="16.28515625" style="28" customWidth="1"/>
+    <col min="8201" max="8201" width="17.1640625" style="28" customWidth="1"/>
+    <col min="8202" max="8202" width="17.6640625" style="28" customWidth="1"/>
+    <col min="8203" max="8203" width="16.33203125" style="28" customWidth="1"/>
     <col min="8204" max="8204" width="14" style="28" customWidth="1"/>
     <col min="8205" max="8205" width="17" style="28" customWidth="1"/>
-    <col min="8206" max="8206" width="14.42578125" style="28" customWidth="1"/>
-    <col min="8207" max="8450" width="8.85546875" style="28"/>
-    <col min="8451" max="8451" width="9.7109375" style="28" customWidth="1"/>
-    <col min="8452" max="8452" width="21.85546875" style="28" customWidth="1"/>
+    <col min="8206" max="8206" width="14.5" style="28" customWidth="1"/>
+    <col min="8207" max="8450" width="8.83203125" style="28"/>
+    <col min="8451" max="8451" width="9.6640625" style="28" customWidth="1"/>
+    <col min="8452" max="8452" width="21.83203125" style="28" customWidth="1"/>
     <col min="8453" max="8453" width="13" style="28" customWidth="1"/>
     <col min="8454" max="8456" width="14" style="28" customWidth="1"/>
-    <col min="8457" max="8457" width="17.140625" style="28" customWidth="1"/>
-    <col min="8458" max="8458" width="17.7109375" style="28" customWidth="1"/>
-    <col min="8459" max="8459" width="16.28515625" style="28" customWidth="1"/>
+    <col min="8457" max="8457" width="17.1640625" style="28" customWidth="1"/>
+    <col min="8458" max="8458" width="17.6640625" style="28" customWidth="1"/>
+    <col min="8459" max="8459" width="16.33203125" style="28" customWidth="1"/>
     <col min="8460" max="8460" width="14" style="28" customWidth="1"/>
     <col min="8461" max="8461" width="17" style="28" customWidth="1"/>
-    <col min="8462" max="8462" width="14.42578125" style="28" customWidth="1"/>
-    <col min="8463" max="8706" width="8.85546875" style="28"/>
-    <col min="8707" max="8707" width="9.7109375" style="28" customWidth="1"/>
-    <col min="8708" max="8708" width="21.85546875" style="28" customWidth="1"/>
+    <col min="8462" max="8462" width="14.5" style="28" customWidth="1"/>
+    <col min="8463" max="8706" width="8.83203125" style="28"/>
+    <col min="8707" max="8707" width="9.6640625" style="28" customWidth="1"/>
+    <col min="8708" max="8708" width="21.83203125" style="28" customWidth="1"/>
     <col min="8709" max="8709" width="13" style="28" customWidth="1"/>
     <col min="8710" max="8712" width="14" style="28" customWidth="1"/>
-    <col min="8713" max="8713" width="17.140625" style="28" customWidth="1"/>
-    <col min="8714" max="8714" width="17.7109375" style="28" customWidth="1"/>
-    <col min="8715" max="8715" width="16.28515625" style="28" customWidth="1"/>
+    <col min="8713" max="8713" width="17.1640625" style="28" customWidth="1"/>
+    <col min="8714" max="8714" width="17.6640625" style="28" customWidth="1"/>
+    <col min="8715" max="8715" width="16.33203125" style="28" customWidth="1"/>
     <col min="8716" max="8716" width="14" style="28" customWidth="1"/>
     <col min="8717" max="8717" width="17" style="28" customWidth="1"/>
-    <col min="8718" max="8718" width="14.42578125" style="28" customWidth="1"/>
-    <col min="8719" max="8962" width="8.85546875" style="28"/>
-    <col min="8963" max="8963" width="9.7109375" style="28" customWidth="1"/>
-    <col min="8964" max="8964" width="21.85546875" style="28" customWidth="1"/>
+    <col min="8718" max="8718" width="14.5" style="28" customWidth="1"/>
+    <col min="8719" max="8962" width="8.83203125" style="28"/>
+    <col min="8963" max="8963" width="9.6640625" style="28" customWidth="1"/>
+    <col min="8964" max="8964" width="21.83203125" style="28" customWidth="1"/>
     <col min="8965" max="8965" width="13" style="28" customWidth="1"/>
     <col min="8966" max="8968" width="14" style="28" customWidth="1"/>
-    <col min="8969" max="8969" width="17.140625" style="28" customWidth="1"/>
-    <col min="8970" max="8970" width="17.7109375" style="28" customWidth="1"/>
-    <col min="8971" max="8971" width="16.28515625" style="28" customWidth="1"/>
+    <col min="8969" max="8969" width="17.1640625" style="28" customWidth="1"/>
+    <col min="8970" max="8970" width="17.6640625" style="28" customWidth="1"/>
+    <col min="8971" max="8971" width="16.33203125" style="28" customWidth="1"/>
     <col min="8972" max="8972" width="14" style="28" customWidth="1"/>
     <col min="8973" max="8973" width="17" style="28" customWidth="1"/>
-    <col min="8974" max="8974" width="14.42578125" style="28" customWidth="1"/>
-    <col min="8975" max="9218" width="8.85546875" style="28"/>
-    <col min="9219" max="9219" width="9.7109375" style="28" customWidth="1"/>
-    <col min="9220" max="9220" width="21.85546875" style="28" customWidth="1"/>
+    <col min="8974" max="8974" width="14.5" style="28" customWidth="1"/>
+    <col min="8975" max="9218" width="8.83203125" style="28"/>
+    <col min="9219" max="9219" width="9.6640625" style="28" customWidth="1"/>
+    <col min="9220" max="9220" width="21.83203125" style="28" customWidth="1"/>
     <col min="9221" max="9221" width="13" style="28" customWidth="1"/>
     <col min="9222" max="9224" width="14" style="28" customWidth="1"/>
-    <col min="9225" max="9225" width="17.140625" style="28" customWidth="1"/>
-    <col min="9226" max="9226" width="17.7109375" style="28" customWidth="1"/>
-    <col min="9227" max="9227" width="16.28515625" style="28" customWidth="1"/>
+    <col min="9225" max="9225" width="17.1640625" style="28" customWidth="1"/>
+    <col min="9226" max="9226" width="17.6640625" style="28" customWidth="1"/>
+    <col min="9227" max="9227" width="16.33203125" style="28" customWidth="1"/>
     <col min="9228" max="9228" width="14" style="28" customWidth="1"/>
     <col min="9229" max="9229" width="17" style="28" customWidth="1"/>
-    <col min="9230" max="9230" width="14.42578125" style="28" customWidth="1"/>
-    <col min="9231" max="9474" width="8.85546875" style="28"/>
-    <col min="9475" max="9475" width="9.7109375" style="28" customWidth="1"/>
-    <col min="9476" max="9476" width="21.85546875" style="28" customWidth="1"/>
+    <col min="9230" max="9230" width="14.5" style="28" customWidth="1"/>
+    <col min="9231" max="9474" width="8.83203125" style="28"/>
+    <col min="9475" max="9475" width="9.6640625" style="28" customWidth="1"/>
+    <col min="9476" max="9476" width="21.83203125" style="28" customWidth="1"/>
     <col min="9477" max="9477" width="13" style="28" customWidth="1"/>
     <col min="9478" max="9480" width="14" style="28" customWidth="1"/>
-    <col min="9481" max="9481" width="17.140625" style="28" customWidth="1"/>
-    <col min="9482" max="9482" width="17.7109375" style="28" customWidth="1"/>
-    <col min="9483" max="9483" width="16.28515625" style="28" customWidth="1"/>
+    <col min="9481" max="9481" width="17.1640625" style="28" customWidth="1"/>
+    <col min="9482" max="9482" width="17.6640625" style="28" customWidth="1"/>
+    <col min="9483" max="9483" width="16.33203125" style="28" customWidth="1"/>
     <col min="9484" max="9484" width="14" style="28" customWidth="1"/>
     <col min="9485" max="9485" width="17" style="28" customWidth="1"/>
-    <col min="9486" max="9486" width="14.42578125" style="28" customWidth="1"/>
-    <col min="9487" max="9730" width="8.85546875" style="28"/>
-    <col min="9731" max="9731" width="9.7109375" style="28" customWidth="1"/>
-    <col min="9732" max="9732" width="21.85546875" style="28" customWidth="1"/>
+    <col min="9486" max="9486" width="14.5" style="28" customWidth="1"/>
+    <col min="9487" max="9730" width="8.83203125" style="28"/>
+    <col min="9731" max="9731" width="9.6640625" style="28" customWidth="1"/>
+    <col min="9732" max="9732" width="21.83203125" style="28" customWidth="1"/>
     <col min="9733" max="9733" width="13" style="28" customWidth="1"/>
     <col min="9734" max="9736" width="14" style="28" customWidth="1"/>
-    <col min="9737" max="9737" width="17.140625" style="28" customWidth="1"/>
-    <col min="9738" max="9738" width="17.7109375" style="28" customWidth="1"/>
-    <col min="9739" max="9739" width="16.28515625" style="28" customWidth="1"/>
+    <col min="9737" max="9737" width="17.1640625" style="28" customWidth="1"/>
+    <col min="9738" max="9738" width="17.6640625" style="28" customWidth="1"/>
+    <col min="9739" max="9739" width="16.33203125" style="28" customWidth="1"/>
     <col min="9740" max="9740" width="14" style="28" customWidth="1"/>
     <col min="9741" max="9741" width="17" style="28" customWidth="1"/>
-    <col min="9742" max="9742" width="14.42578125" style="28" customWidth="1"/>
-    <col min="9743" max="9986" width="8.85546875" style="28"/>
-    <col min="9987" max="9987" width="9.7109375" style="28" customWidth="1"/>
-    <col min="9988" max="9988" width="21.85546875" style="28" customWidth="1"/>
+    <col min="9742" max="9742" width="14.5" style="28" customWidth="1"/>
+    <col min="9743" max="9986" width="8.83203125" style="28"/>
+    <col min="9987" max="9987" width="9.6640625" style="28" customWidth="1"/>
+    <col min="9988" max="9988" width="21.83203125" style="28" customWidth="1"/>
     <col min="9989" max="9989" width="13" style="28" customWidth="1"/>
     <col min="9990" max="9992" width="14" style="28" customWidth="1"/>
-    <col min="9993" max="9993" width="17.140625" style="28" customWidth="1"/>
-    <col min="9994" max="9994" width="17.7109375" style="28" customWidth="1"/>
-    <col min="9995" max="9995" width="16.28515625" style="28" customWidth="1"/>
+    <col min="9993" max="9993" width="17.1640625" style="28" customWidth="1"/>
+    <col min="9994" max="9994" width="17.6640625" style="28" customWidth="1"/>
+    <col min="9995" max="9995" width="16.33203125" style="28" customWidth="1"/>
     <col min="9996" max="9996" width="14" style="28" customWidth="1"/>
     <col min="9997" max="9997" width="17" style="28" customWidth="1"/>
-    <col min="9998" max="9998" width="14.42578125" style="28" customWidth="1"/>
-    <col min="9999" max="10242" width="8.85546875" style="28"/>
-    <col min="10243" max="10243" width="9.7109375" style="28" customWidth="1"/>
-    <col min="10244" max="10244" width="21.85546875" style="28" customWidth="1"/>
+    <col min="9998" max="9998" width="14.5" style="28" customWidth="1"/>
+    <col min="9999" max="10242" width="8.83203125" style="28"/>
+    <col min="10243" max="10243" width="9.6640625" style="28" customWidth="1"/>
+    <col min="10244" max="10244" width="21.83203125" style="28" customWidth="1"/>
     <col min="10245" max="10245" width="13" style="28" customWidth="1"/>
     <col min="10246" max="10248" width="14" style="28" customWidth="1"/>
-    <col min="10249" max="10249" width="17.140625" style="28" customWidth="1"/>
-    <col min="10250" max="10250" width="17.7109375" style="28" customWidth="1"/>
-    <col min="10251" max="10251" width="16.28515625" style="28" customWidth="1"/>
+    <col min="10249" max="10249" width="17.1640625" style="28" customWidth="1"/>
+    <col min="10250" max="10250" width="17.6640625" style="28" customWidth="1"/>
+    <col min="10251" max="10251" width="16.33203125" style="28" customWidth="1"/>
     <col min="10252" max="10252" width="14" style="28" customWidth="1"/>
     <col min="10253" max="10253" width="17" style="28" customWidth="1"/>
-    <col min="10254" max="10254" width="14.42578125" style="28" customWidth="1"/>
-    <col min="10255" max="10498" width="8.85546875" style="28"/>
-    <col min="10499" max="10499" width="9.7109375" style="28" customWidth="1"/>
-    <col min="10500" max="10500" width="21.85546875" style="28" customWidth="1"/>
+    <col min="10254" max="10254" width="14.5" style="28" customWidth="1"/>
+    <col min="10255" max="10498" width="8.83203125" style="28"/>
+    <col min="10499" max="10499" width="9.6640625" style="28" customWidth="1"/>
+    <col min="10500" max="10500" width="21.83203125" style="28" customWidth="1"/>
     <col min="10501" max="10501" width="13" style="28" customWidth="1"/>
     <col min="10502" max="10504" width="14" style="28" customWidth="1"/>
-    <col min="10505" max="10505" width="17.140625" style="28" customWidth="1"/>
-    <col min="10506" max="10506" width="17.7109375" style="28" customWidth="1"/>
-    <col min="10507" max="10507" width="16.28515625" style="28" customWidth="1"/>
+    <col min="10505" max="10505" width="17.1640625" style="28" customWidth="1"/>
+    <col min="10506" max="10506" width="17.6640625" style="28" customWidth="1"/>
+    <col min="10507" max="10507" width="16.33203125" style="28" customWidth="1"/>
     <col min="10508" max="10508" width="14" style="28" customWidth="1"/>
     <col min="10509" max="10509" width="17" style="28" customWidth="1"/>
-    <col min="10510" max="10510" width="14.42578125" style="28" customWidth="1"/>
-    <col min="10511" max="10754" width="8.85546875" style="28"/>
-    <col min="10755" max="10755" width="9.7109375" style="28" customWidth="1"/>
-    <col min="10756" max="10756" width="21.85546875" style="28" customWidth="1"/>
+    <col min="10510" max="10510" width="14.5" style="28" customWidth="1"/>
+    <col min="10511" max="10754" width="8.83203125" style="28"/>
+    <col min="10755" max="10755" width="9.6640625" style="28" customWidth="1"/>
+    <col min="10756" max="10756" width="21.83203125" style="28" customWidth="1"/>
     <col min="10757" max="10757" width="13" style="28" customWidth="1"/>
     <col min="10758" max="10760" width="14" style="28" customWidth="1"/>
-    <col min="10761" max="10761" width="17.140625" style="28" customWidth="1"/>
-    <col min="10762" max="10762" width="17.7109375" style="28" customWidth="1"/>
-    <col min="10763" max="10763" width="16.28515625" style="28" customWidth="1"/>
+    <col min="10761" max="10761" width="17.1640625" style="28" customWidth="1"/>
+    <col min="10762" max="10762" width="17.6640625" style="28" customWidth="1"/>
+    <col min="10763" max="10763" width="16.33203125" style="28" customWidth="1"/>
     <col min="10764" max="10764" width="14" style="28" customWidth="1"/>
     <col min="10765" max="10765" width="17" style="28" customWidth="1"/>
-    <col min="10766" max="10766" width="14.42578125" style="28" customWidth="1"/>
-    <col min="10767" max="11010" width="8.85546875" style="28"/>
-    <col min="11011" max="11011" width="9.7109375" style="28" customWidth="1"/>
-    <col min="11012" max="11012" width="21.85546875" style="28" customWidth="1"/>
+    <col min="10766" max="10766" width="14.5" style="28" customWidth="1"/>
+    <col min="10767" max="11010" width="8.83203125" style="28"/>
+    <col min="11011" max="11011" width="9.6640625" style="28" customWidth="1"/>
+    <col min="11012" max="11012" width="21.83203125" style="28" customWidth="1"/>
     <col min="11013" max="11013" width="13" style="28" customWidth="1"/>
     <col min="11014" max="11016" width="14" style="28" customWidth="1"/>
-    <col min="11017" max="11017" width="17.140625" style="28" customWidth="1"/>
-    <col min="11018" max="11018" width="17.7109375" style="28" customWidth="1"/>
-    <col min="11019" max="11019" width="16.28515625" style="28" customWidth="1"/>
+    <col min="11017" max="11017" width="17.1640625" style="28" customWidth="1"/>
+    <col min="11018" max="11018" width="17.6640625" style="28" customWidth="1"/>
+    <col min="11019" max="11019" width="16.33203125" style="28" customWidth="1"/>
     <col min="11020" max="11020" width="14" style="28" customWidth="1"/>
     <col min="11021" max="11021" width="17" style="28" customWidth="1"/>
-    <col min="11022" max="11022" width="14.42578125" style="28" customWidth="1"/>
-    <col min="11023" max="11266" width="8.85546875" style="28"/>
-    <col min="11267" max="11267" width="9.7109375" style="28" customWidth="1"/>
-    <col min="11268" max="11268" width="21.85546875" style="28" customWidth="1"/>
+    <col min="11022" max="11022" width="14.5" style="28" customWidth="1"/>
+    <col min="11023" max="11266" width="8.83203125" style="28"/>
+    <col min="11267" max="11267" width="9.6640625" style="28" customWidth="1"/>
+    <col min="11268" max="11268" width="21.83203125" style="28" customWidth="1"/>
     <col min="11269" max="11269" width="13" style="28" customWidth="1"/>
     <col min="11270" max="11272" width="14" style="28" customWidth="1"/>
-    <col min="11273" max="11273" width="17.140625" style="28" customWidth="1"/>
-    <col min="11274" max="11274" width="17.7109375" style="28" customWidth="1"/>
-    <col min="11275" max="11275" width="16.28515625" style="28" customWidth="1"/>
+    <col min="11273" max="11273" width="17.1640625" style="28" customWidth="1"/>
+    <col min="11274" max="11274" width="17.6640625" style="28" customWidth="1"/>
+    <col min="11275" max="11275" width="16.33203125" style="28" customWidth="1"/>
     <col min="11276" max="11276" width="14" style="28" customWidth="1"/>
     <col min="11277" max="11277" width="17" style="28" customWidth="1"/>
-    <col min="11278" max="11278" width="14.42578125" style="28" customWidth="1"/>
-    <col min="11279" max="11522" width="8.85546875" style="28"/>
-    <col min="11523" max="11523" width="9.7109375" style="28" customWidth="1"/>
-    <col min="11524" max="11524" width="21.85546875" style="28" customWidth="1"/>
+    <col min="11278" max="11278" width="14.5" style="28" customWidth="1"/>
+    <col min="11279" max="11522" width="8.83203125" style="28"/>
+    <col min="11523" max="11523" width="9.6640625" style="28" customWidth="1"/>
+    <col min="11524" max="11524" width="21.83203125" style="28" customWidth="1"/>
     <col min="11525" max="11525" width="13" style="28" customWidth="1"/>
     <col min="11526" max="11528" width="14" style="28" customWidth="1"/>
-    <col min="11529" max="11529" width="17.140625" style="28" customWidth="1"/>
-    <col min="11530" max="11530" width="17.7109375" style="28" customWidth="1"/>
-    <col min="11531" max="11531" width="16.28515625" style="28" customWidth="1"/>
+    <col min="11529" max="11529" width="17.1640625" style="28" customWidth="1"/>
+    <col min="11530" max="11530" width="17.6640625" style="28" customWidth="1"/>
+    <col min="11531" max="11531" width="16.33203125" style="28" customWidth="1"/>
     <col min="11532" max="11532" width="14" style="28" customWidth="1"/>
     <col min="11533" max="11533" width="17" style="28" customWidth="1"/>
-    <col min="11534" max="11534" width="14.42578125" style="28" customWidth="1"/>
-    <col min="11535" max="11778" width="8.85546875" style="28"/>
-    <col min="11779" max="11779" width="9.7109375" style="28" customWidth="1"/>
-    <col min="11780" max="11780" width="21.85546875" style="28" customWidth="1"/>
+    <col min="11534" max="11534" width="14.5" style="28" customWidth="1"/>
+    <col min="11535" max="11778" width="8.83203125" style="28"/>
+    <col min="11779" max="11779" width="9.6640625" style="28" customWidth="1"/>
+    <col min="11780" max="11780" width="21.83203125" style="28" customWidth="1"/>
     <col min="11781" max="11781" width="13" style="28" customWidth="1"/>
     <col min="11782" max="11784" width="14" style="28" customWidth="1"/>
-    <col min="11785" max="11785" width="17.140625" style="28" customWidth="1"/>
-    <col min="11786" max="11786" width="17.7109375" style="28" customWidth="1"/>
-    <col min="11787" max="11787" width="16.28515625" style="28" customWidth="1"/>
+    <col min="11785" max="11785" width="17.1640625" style="28" customWidth="1"/>
+    <col min="11786" max="11786" width="17.6640625" style="28" customWidth="1"/>
+    <col min="11787" max="11787" width="16.33203125" style="28" customWidth="1"/>
     <col min="11788" max="11788" width="14" style="28" customWidth="1"/>
     <col min="11789" max="11789" width="17" style="28" customWidth="1"/>
-    <col min="11790" max="11790" width="14.42578125" style="28" customWidth="1"/>
-    <col min="11791" max="12034" width="8.85546875" style="28"/>
-    <col min="12035" max="12035" width="9.7109375" style="28" customWidth="1"/>
-    <col min="12036" max="12036" width="21.85546875" style="28" customWidth="1"/>
+    <col min="11790" max="11790" width="14.5" style="28" customWidth="1"/>
+    <col min="11791" max="12034" width="8.83203125" style="28"/>
+    <col min="12035" max="12035" width="9.6640625" style="28" customWidth="1"/>
+    <col min="12036" max="12036" width="21.83203125" style="28" customWidth="1"/>
     <col min="12037" max="12037" width="13" style="28" customWidth="1"/>
     <col min="12038" max="12040" width="14" style="28" customWidth="1"/>
-    <col min="12041" max="12041" width="17.140625" style="28" customWidth="1"/>
-    <col min="12042" max="12042" width="17.7109375" style="28" customWidth="1"/>
-    <col min="12043" max="12043" width="16.28515625" style="28" customWidth="1"/>
+    <col min="12041" max="12041" width="17.1640625" style="28" customWidth="1"/>
+    <col min="12042" max="12042" width="17.6640625" style="28" customWidth="1"/>
+    <col min="12043" max="12043" width="16.33203125" style="28" customWidth="1"/>
     <col min="12044" max="12044" width="14" style="28" customWidth="1"/>
     <col min="12045" max="12045" width="17" style="28" customWidth="1"/>
-    <col min="12046" max="12046" width="14.42578125" style="28" customWidth="1"/>
-    <col min="12047" max="12290" width="8.85546875" style="28"/>
-    <col min="12291" max="12291" width="9.7109375" style="28" customWidth="1"/>
-    <col min="12292" max="12292" width="21.85546875" style="28" customWidth="1"/>
+    <col min="12046" max="12046" width="14.5" style="28" customWidth="1"/>
+    <col min="12047" max="12290" width="8.83203125" style="28"/>
+    <col min="12291" max="12291" width="9.6640625" style="28" customWidth="1"/>
+    <col min="12292" max="12292" width="21.83203125" style="28" customWidth="1"/>
     <col min="12293" max="12293" width="13" style="28" customWidth="1"/>
     <col min="12294" max="12296" width="14" style="28" customWidth="1"/>
-    <col min="12297" max="12297" width="17.140625" style="28" customWidth="1"/>
-    <col min="12298" max="12298" width="17.7109375" style="28" customWidth="1"/>
-    <col min="12299" max="12299" width="16.28515625" style="28" customWidth="1"/>
+    <col min="12297" max="12297" width="17.1640625" style="28" customWidth="1"/>
+    <col min="12298" max="12298" width="17.6640625" style="28" customWidth="1"/>
+    <col min="12299" max="12299" width="16.33203125" style="28" customWidth="1"/>
     <col min="12300" max="12300" width="14" style="28" customWidth="1"/>
     <col min="12301" max="12301" width="17" style="28" customWidth="1"/>
-    <col min="12302" max="12302" width="14.42578125" style="28" customWidth="1"/>
-    <col min="12303" max="12546" width="8.85546875" style="28"/>
-    <col min="12547" max="12547" width="9.7109375" style="28" customWidth="1"/>
-    <col min="12548" max="12548" width="21.85546875" style="28" customWidth="1"/>
+    <col min="12302" max="12302" width="14.5" style="28" customWidth="1"/>
+    <col min="12303" max="12546" width="8.83203125" style="28"/>
+    <col min="12547" max="12547" width="9.6640625" style="28" customWidth="1"/>
+    <col min="12548" max="12548" width="21.83203125" style="28" customWidth="1"/>
     <col min="12549" max="12549" width="13" style="28" customWidth="1"/>
     <col min="12550" max="12552" width="14" style="28" customWidth="1"/>
-    <col min="12553" max="12553" width="17.140625" style="28" customWidth="1"/>
-    <col min="12554" max="12554" width="17.7109375" style="28" customWidth="1"/>
-    <col min="12555" max="12555" width="16.28515625" style="28" customWidth="1"/>
+    <col min="12553" max="12553" width="17.1640625" style="28" customWidth="1"/>
+    <col min="12554" max="12554" width="17.6640625" style="28" customWidth="1"/>
+    <col min="12555" max="12555" width="16.33203125" style="28" customWidth="1"/>
     <col min="12556" max="12556" width="14" style="28" customWidth="1"/>
     <col min="12557" max="12557" width="17" style="28" customWidth="1"/>
-    <col min="12558" max="12558" width="14.42578125" style="28" customWidth="1"/>
-    <col min="12559" max="12802" width="8.85546875" style="28"/>
-    <col min="12803" max="12803" width="9.7109375" style="28" customWidth="1"/>
-    <col min="12804" max="12804" width="21.85546875" style="28" customWidth="1"/>
+    <col min="12558" max="12558" width="14.5" style="28" customWidth="1"/>
+    <col min="12559" max="12802" width="8.83203125" style="28"/>
+    <col min="12803" max="12803" width="9.6640625" style="28" customWidth="1"/>
+    <col min="12804" max="12804" width="21.83203125" style="28" customWidth="1"/>
     <col min="12805" max="12805" width="13" style="28" customWidth="1"/>
     <col min="12806" max="12808" width="14" style="28" customWidth="1"/>
-    <col min="12809" max="12809" width="17.140625" style="28" customWidth="1"/>
-    <col min="12810" max="12810" width="17.7109375" style="28" customWidth="1"/>
-    <col min="12811" max="12811" width="16.28515625" style="28" customWidth="1"/>
+    <col min="12809" max="12809" width="17.1640625" style="28" customWidth="1"/>
+    <col min="12810" max="12810" width="17.6640625" style="28" customWidth="1"/>
+    <col min="12811" max="12811" width="16.33203125" style="28" customWidth="1"/>
     <col min="12812" max="12812" width="14" style="28" customWidth="1"/>
     <col min="12813" max="12813" width="17" style="28" customWidth="1"/>
-    <col min="12814" max="12814" width="14.42578125" style="28" customWidth="1"/>
-    <col min="12815" max="13058" width="8.85546875" style="28"/>
-    <col min="13059" max="13059" width="9.7109375" style="28" customWidth="1"/>
-    <col min="13060" max="13060" width="21.85546875" style="28" customWidth="1"/>
+    <col min="12814" max="12814" width="14.5" style="28" customWidth="1"/>
+    <col min="12815" max="13058" width="8.83203125" style="28"/>
+    <col min="13059" max="13059" width="9.6640625" style="28" customWidth="1"/>
+    <col min="13060" max="13060" width="21.83203125" style="28" customWidth="1"/>
     <col min="13061" max="13061" width="13" style="28" customWidth="1"/>
     <col min="13062" max="13064" width="14" style="28" customWidth="1"/>
-    <col min="13065" max="13065" width="17.140625" style="28" customWidth="1"/>
-    <col min="13066" max="13066" width="17.7109375" style="28" customWidth="1"/>
-    <col min="13067" max="13067" width="16.28515625" style="28" customWidth="1"/>
+    <col min="13065" max="13065" width="17.1640625" style="28" customWidth="1"/>
+    <col min="13066" max="13066" width="17.6640625" style="28" customWidth="1"/>
+    <col min="13067" max="13067" width="16.33203125" style="28" customWidth="1"/>
     <col min="13068" max="13068" width="14" style="28" customWidth="1"/>
     <col min="13069" max="13069" width="17" style="28" customWidth="1"/>
-    <col min="13070" max="13070" width="14.42578125" style="28" customWidth="1"/>
-    <col min="13071" max="13314" width="8.85546875" style="28"/>
-    <col min="13315" max="13315" width="9.7109375" style="28" customWidth="1"/>
-    <col min="13316" max="13316" width="21.85546875" style="28" customWidth="1"/>
+    <col min="13070" max="13070" width="14.5" style="28" customWidth="1"/>
+    <col min="13071" max="13314" width="8.83203125" style="28"/>
+    <col min="13315" max="13315" width="9.6640625" style="28" customWidth="1"/>
+    <col min="13316" max="13316" width="21.83203125" style="28" customWidth="1"/>
     <col min="13317" max="13317" width="13" style="28" customWidth="1"/>
     <col min="13318" max="13320" width="14" style="28" customWidth="1"/>
-    <col min="13321" max="13321" width="17.140625" style="28" customWidth="1"/>
-    <col min="13322" max="13322" width="17.7109375" style="28" customWidth="1"/>
-    <col min="13323" max="13323" width="16.28515625" style="28" customWidth="1"/>
+    <col min="13321" max="13321" width="17.1640625" style="28" customWidth="1"/>
+    <col min="13322" max="13322" width="17.6640625" style="28" customWidth="1"/>
+    <col min="13323" max="13323" width="16.33203125" style="28" customWidth="1"/>
     <col min="13324" max="13324" width="14" style="28" customWidth="1"/>
     <col min="13325" max="13325" width="17" style="28" customWidth="1"/>
-    <col min="13326" max="13326" width="14.42578125" style="28" customWidth="1"/>
-    <col min="13327" max="13570" width="8.85546875" style="28"/>
-    <col min="13571" max="13571" width="9.7109375" style="28" customWidth="1"/>
-    <col min="13572" max="13572" width="21.85546875" style="28" customWidth="1"/>
+    <col min="13326" max="13326" width="14.5" style="28" customWidth="1"/>
+    <col min="13327" max="13570" width="8.83203125" style="28"/>
+    <col min="13571" max="13571" width="9.6640625" style="28" customWidth="1"/>
+    <col min="13572" max="13572" width="21.83203125" style="28" customWidth="1"/>
     <col min="13573" max="13573" width="13" style="28" customWidth="1"/>
     <col min="13574" max="13576" width="14" style="28" customWidth="1"/>
-    <col min="13577" max="13577" width="17.140625" style="28" customWidth="1"/>
-    <col min="13578" max="13578" width="17.7109375" style="28" customWidth="1"/>
-    <col min="13579" max="13579" width="16.28515625" style="28" customWidth="1"/>
+    <col min="13577" max="13577" width="17.1640625" style="28" customWidth="1"/>
+    <col min="13578" max="13578" width="17.6640625" style="28" customWidth="1"/>
+    <col min="13579" max="13579" width="16.33203125" style="28" customWidth="1"/>
     <col min="13580" max="13580" width="14" style="28" customWidth="1"/>
     <col min="13581" max="13581" width="17" style="28" customWidth="1"/>
-    <col min="13582" max="13582" width="14.42578125" style="28" customWidth="1"/>
-    <col min="13583" max="13826" width="8.85546875" style="28"/>
-    <col min="13827" max="13827" width="9.7109375" style="28" customWidth="1"/>
-    <col min="13828" max="13828" width="21.85546875" style="28" customWidth="1"/>
+    <col min="13582" max="13582" width="14.5" style="28" customWidth="1"/>
+    <col min="13583" max="13826" width="8.83203125" style="28"/>
+    <col min="13827" max="13827" width="9.6640625" style="28" customWidth="1"/>
+    <col min="13828" max="13828" width="21.83203125" style="28" customWidth="1"/>
     <col min="13829" max="13829" width="13" style="28" customWidth="1"/>
     <col min="13830" max="13832" width="14" style="28" customWidth="1"/>
-    <col min="13833" max="13833" width="17.140625" style="28" customWidth="1"/>
-    <col min="13834" max="13834" width="17.7109375" style="28" customWidth="1"/>
-    <col min="13835" max="13835" width="16.28515625" style="28" customWidth="1"/>
+    <col min="13833" max="13833" width="17.1640625" style="28" customWidth="1"/>
+    <col min="13834" max="13834" width="17.6640625" style="28" customWidth="1"/>
+    <col min="13835" max="13835" width="16.33203125" style="28" customWidth="1"/>
     <col min="13836" max="13836" width="14" style="28" customWidth="1"/>
     <col min="13837" max="13837" width="17" style="28" customWidth="1"/>
-    <col min="13838" max="13838" width="14.42578125" style="28" customWidth="1"/>
-    <col min="13839" max="14082" width="8.85546875" style="28"/>
-    <col min="14083" max="14083" width="9.7109375" style="28" customWidth="1"/>
-    <col min="14084" max="14084" width="21.85546875" style="28" customWidth="1"/>
+    <col min="13838" max="13838" width="14.5" style="28" customWidth="1"/>
+    <col min="13839" max="14082" width="8.83203125" style="28"/>
+    <col min="14083" max="14083" width="9.6640625" style="28" customWidth="1"/>
+    <col min="14084" max="14084" width="21.83203125" style="28" customWidth="1"/>
     <col min="14085" max="14085" width="13" style="28" customWidth="1"/>
     <col min="14086" max="14088" width="14" style="28" customWidth="1"/>
-    <col min="14089" max="14089" width="17.140625" style="28" customWidth="1"/>
-    <col min="14090" max="14090" width="17.7109375" style="28" customWidth="1"/>
-    <col min="14091" max="14091" width="16.28515625" style="28" customWidth="1"/>
+    <col min="14089" max="14089" width="17.1640625" style="28" customWidth="1"/>
+    <col min="14090" max="14090" width="17.6640625" style="28" customWidth="1"/>
+    <col min="14091" max="14091" width="16.33203125" style="28" customWidth="1"/>
     <col min="14092" max="14092" width="14" style="28" customWidth="1"/>
     <col min="14093" max="14093" width="17" style="28" customWidth="1"/>
-    <col min="14094" max="14094" width="14.42578125" style="28" customWidth="1"/>
-    <col min="14095" max="14338" width="8.85546875" style="28"/>
-    <col min="14339" max="14339" width="9.7109375" style="28" customWidth="1"/>
-    <col min="14340" max="14340" width="21.85546875" style="28" customWidth="1"/>
+    <col min="14094" max="14094" width="14.5" style="28" customWidth="1"/>
+    <col min="14095" max="14338" width="8.83203125" style="28"/>
+    <col min="14339" max="14339" width="9.6640625" style="28" customWidth="1"/>
+    <col min="14340" max="14340" width="21.83203125" style="28" customWidth="1"/>
     <col min="14341" max="14341" width="13" style="28" customWidth="1"/>
     <col min="14342" max="14344" width="14" style="28" customWidth="1"/>
-    <col min="14345" max="14345" width="17.140625" style="28" customWidth="1"/>
-    <col min="14346" max="14346" width="17.7109375" style="28" customWidth="1"/>
-    <col min="14347" max="14347" width="16.28515625" style="28" customWidth="1"/>
+    <col min="14345" max="14345" width="17.1640625" style="28" customWidth="1"/>
+    <col min="14346" max="14346" width="17.6640625" style="28" customWidth="1"/>
+    <col min="14347" max="14347" width="16.33203125" style="28" customWidth="1"/>
     <col min="14348" max="14348" width="14" style="28" customWidth="1"/>
     <col min="14349" max="14349" width="17" style="28" customWidth="1"/>
-    <col min="14350" max="14350" width="14.42578125" style="28" customWidth="1"/>
-    <col min="14351" max="14594" width="8.85546875" style="28"/>
-    <col min="14595" max="14595" width="9.7109375" style="28" customWidth="1"/>
-    <col min="14596" max="14596" width="21.85546875" style="28" customWidth="1"/>
+    <col min="14350" max="14350" width="14.5" style="28" customWidth="1"/>
+    <col min="14351" max="14594" width="8.83203125" style="28"/>
+    <col min="14595" max="14595" width="9.6640625" style="28" customWidth="1"/>
+    <col min="14596" max="14596" width="21.83203125" style="28" customWidth="1"/>
     <col min="14597" max="14597" width="13" style="28" customWidth="1"/>
     <col min="14598" max="14600" width="14" style="28" customWidth="1"/>
-    <col min="14601" max="14601" width="17.140625" style="28" customWidth="1"/>
-    <col min="14602" max="14602" width="17.7109375" style="28" customWidth="1"/>
-    <col min="14603" max="14603" width="16.28515625" style="28" customWidth="1"/>
+    <col min="14601" max="14601" width="17.1640625" style="28" customWidth="1"/>
+    <col min="14602" max="14602" width="17.6640625" style="28" customWidth="1"/>
+    <col min="14603" max="14603" width="16.33203125" style="28" customWidth="1"/>
     <col min="14604" max="14604" width="14" style="28" customWidth="1"/>
     <col min="14605" max="14605" width="17" style="28" customWidth="1"/>
-    <col min="14606" max="14606" width="14.42578125" style="28" customWidth="1"/>
-    <col min="14607" max="14850" width="8.85546875" style="28"/>
-    <col min="14851" max="14851" width="9.7109375" style="28" customWidth="1"/>
-    <col min="14852" max="14852" width="21.85546875" style="28" customWidth="1"/>
+    <col min="14606" max="14606" width="14.5" style="28" customWidth="1"/>
+    <col min="14607" max="14850" width="8.83203125" style="28"/>
+    <col min="14851" max="14851" width="9.6640625" style="28" customWidth="1"/>
+    <col min="14852" max="14852" width="21.83203125" style="28" customWidth="1"/>
     <col min="14853" max="14853" width="13" style="28" customWidth="1"/>
     <col min="14854" max="14856" width="14" style="28" customWidth="1"/>
-    <col min="14857" max="14857" width="17.140625" style="28" customWidth="1"/>
-    <col min="14858" max="14858" width="17.7109375" style="28" customWidth="1"/>
-    <col min="14859" max="14859" width="16.28515625" style="28" customWidth="1"/>
+    <col min="14857" max="14857" width="17.1640625" style="28" customWidth="1"/>
+    <col min="14858" max="14858" width="17.6640625" style="28" customWidth="1"/>
+    <col min="14859" max="14859" width="16.33203125" style="28" customWidth="1"/>
     <col min="14860" max="14860" width="14" style="28" customWidth="1"/>
     <col min="14861" max="14861" width="17" style="28" customWidth="1"/>
-    <col min="14862" max="14862" width="14.42578125" style="28" customWidth="1"/>
-    <col min="14863" max="15106" width="8.85546875" style="28"/>
-    <col min="15107" max="15107" width="9.7109375" style="28" customWidth="1"/>
-    <col min="15108" max="15108" width="21.85546875" style="28" customWidth="1"/>
+    <col min="14862" max="14862" width="14.5" style="28" customWidth="1"/>
+    <col min="14863" max="15106" width="8.83203125" style="28"/>
+    <col min="15107" max="15107" width="9.6640625" style="28" customWidth="1"/>
+    <col min="15108" max="15108" width="21.83203125" style="28" customWidth="1"/>
     <col min="15109" max="15109" width="13" style="28" customWidth="1"/>
     <col min="15110" max="15112" width="14" style="28" customWidth="1"/>
-    <col min="15113" max="15113" width="17.140625" style="28" customWidth="1"/>
-    <col min="15114" max="15114" width="17.7109375" style="28" customWidth="1"/>
-    <col min="15115" max="15115" width="16.28515625" style="28" customWidth="1"/>
+    <col min="15113" max="15113" width="17.1640625" style="28" customWidth="1"/>
+    <col min="15114" max="15114" width="17.6640625" style="28" customWidth="1"/>
+    <col min="15115" max="15115" width="16.33203125" style="28" customWidth="1"/>
     <col min="15116" max="15116" width="14" style="28" customWidth="1"/>
     <col min="15117" max="15117" width="17" style="28" customWidth="1"/>
-    <col min="15118" max="15118" width="14.42578125" style="28" customWidth="1"/>
-    <col min="15119" max="15362" width="8.85546875" style="28"/>
-    <col min="15363" max="15363" width="9.7109375" style="28" customWidth="1"/>
-    <col min="15364" max="15364" width="21.85546875" style="28" customWidth="1"/>
+    <col min="15118" max="15118" width="14.5" style="28" customWidth="1"/>
+    <col min="15119" max="15362" width="8.83203125" style="28"/>
+    <col min="15363" max="15363" width="9.6640625" style="28" customWidth="1"/>
+    <col min="15364" max="15364" width="21.83203125" style="28" customWidth="1"/>
     <col min="15365" max="15365" width="13" style="28" customWidth="1"/>
     <col min="15366" max="15368" width="14" style="28" customWidth="1"/>
-    <col min="15369" max="15369" width="17.140625" style="28" customWidth="1"/>
-    <col min="15370" max="15370" width="17.7109375" style="28" customWidth="1"/>
-    <col min="15371" max="15371" width="16.28515625" style="28" customWidth="1"/>
+    <col min="15369" max="15369" width="17.1640625" style="28" customWidth="1"/>
+    <col min="15370" max="15370" width="17.6640625" style="28" customWidth="1"/>
+    <col min="15371" max="15371" width="16.33203125" style="28" customWidth="1"/>
     <col min="15372" max="15372" width="14" style="28" customWidth="1"/>
     <col min="15373" max="15373" width="17" style="28" customWidth="1"/>
-    <col min="15374" max="15374" width="14.42578125" style="28" customWidth="1"/>
-    <col min="15375" max="15618" width="8.85546875" style="28"/>
-    <col min="15619" max="15619" width="9.7109375" style="28" customWidth="1"/>
-    <col min="15620" max="15620" width="21.85546875" style="28" customWidth="1"/>
+    <col min="15374" max="15374" width="14.5" style="28" customWidth="1"/>
+    <col min="15375" max="15618" width="8.83203125" style="28"/>
+    <col min="15619" max="15619" width="9.6640625" style="28" customWidth="1"/>
+    <col min="15620" max="15620" width="21.83203125" style="28" customWidth="1"/>
     <col min="15621" max="15621" width="13" style="28" customWidth="1"/>
     <col min="15622" max="15624" width="14" style="28" customWidth="1"/>
-    <col min="15625" max="15625" width="17.140625" style="28" customWidth="1"/>
-    <col min="15626" max="15626" width="17.7109375" style="28" customWidth="1"/>
-    <col min="15627" max="15627" width="16.28515625" style="28" customWidth="1"/>
+    <col min="15625" max="15625" width="17.1640625" style="28" customWidth="1"/>
+    <col min="15626" max="15626" width="17.6640625" style="28" customWidth="1"/>
+    <col min="15627" max="15627" width="16.33203125" style="28" customWidth="1"/>
     <col min="15628" max="15628" width="14" style="28" customWidth="1"/>
     <col min="15629" max="15629" width="17" style="28" customWidth="1"/>
-    <col min="15630" max="15630" width="14.42578125" style="28" customWidth="1"/>
-    <col min="15631" max="15874" width="8.85546875" style="28"/>
-    <col min="15875" max="15875" width="9.7109375" style="28" customWidth="1"/>
-    <col min="15876" max="15876" width="21.85546875" style="28" customWidth="1"/>
+    <col min="15630" max="15630" width="14.5" style="28" customWidth="1"/>
+    <col min="15631" max="15874" width="8.83203125" style="28"/>
+    <col min="15875" max="15875" width="9.6640625" style="28" customWidth="1"/>
+    <col min="15876" max="15876" width="21.83203125" style="28" customWidth="1"/>
     <col min="15877" max="15877" width="13" style="28" customWidth="1"/>
     <col min="15878" max="15880" width="14" style="28" customWidth="1"/>
-    <col min="15881" max="15881" width="17.140625" style="28" customWidth="1"/>
-    <col min="15882" max="15882" width="17.7109375" style="28" customWidth="1"/>
-    <col min="15883" max="15883" width="16.28515625" style="28" customWidth="1"/>
+    <col min="15881" max="15881" width="17.1640625" style="28" customWidth="1"/>
+    <col min="15882" max="15882" width="17.6640625" style="28" customWidth="1"/>
+    <col min="15883" max="15883" width="16.33203125" style="28" customWidth="1"/>
     <col min="15884" max="15884" width="14" style="28" customWidth="1"/>
     <col min="15885" max="15885" width="17" style="28" customWidth="1"/>
-    <col min="15886" max="15886" width="14.42578125" style="28" customWidth="1"/>
-    <col min="15887" max="16130" width="8.85546875" style="28"/>
-    <col min="16131" max="16131" width="9.7109375" style="28" customWidth="1"/>
-    <col min="16132" max="16132" width="21.85546875" style="28" customWidth="1"/>
+    <col min="15886" max="15886" width="14.5" style="28" customWidth="1"/>
+    <col min="15887" max="16130" width="8.83203125" style="28"/>
+    <col min="16131" max="16131" width="9.6640625" style="28" customWidth="1"/>
+    <col min="16132" max="16132" width="21.83203125" style="28" customWidth="1"/>
     <col min="16133" max="16133" width="13" style="28" customWidth="1"/>
     <col min="16134" max="16136" width="14" style="28" customWidth="1"/>
-    <col min="16137" max="16137" width="17.140625" style="28" customWidth="1"/>
-    <col min="16138" max="16138" width="17.7109375" style="28" customWidth="1"/>
-    <col min="16139" max="16139" width="16.28515625" style="28" customWidth="1"/>
+    <col min="16137" max="16137" width="17.1640625" style="28" customWidth="1"/>
+    <col min="16138" max="16138" width="17.6640625" style="28" customWidth="1"/>
+    <col min="16139" max="16139" width="16.33203125" style="28" customWidth="1"/>
     <col min="16140" max="16140" width="14" style="28" customWidth="1"/>
     <col min="16141" max="16141" width="17" style="28" customWidth="1"/>
-    <col min="16142" max="16142" width="14.42578125" style="28" customWidth="1"/>
-    <col min="16143" max="16143" width="8.85546875" style="28"/>
-    <col min="16144" max="16384" width="8.85546875" style="27"/>
+    <col min="16142" max="16142" width="14.5" style="28" customWidth="1"/>
+    <col min="16143" max="16143" width="8.83203125" style="28"/>
+    <col min="16144" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="27" customFormat="1" ht="12.75">
+    <row r="1" spans="2:13" s="27" customFormat="1">
       <c r="B1" s="121" t="s">
         <v>94</v>
       </c>
@@ -5253,7 +5258,7 @@
       </c>
       <c r="D1" s="133"/>
     </row>
-    <row r="2" spans="2:13" s="27" customFormat="1" ht="12.75">
+    <row r="2" spans="2:13" s="27" customFormat="1">
       <c r="B2" s="121" t="s">
         <v>93</v>
       </c>
@@ -5263,7 +5268,7 @@
       </c>
       <c r="D2" s="128"/>
     </row>
-    <row r="3" spans="2:13" s="27" customFormat="1" ht="12.75">
+    <row r="3" spans="2:13" s="27" customFormat="1">
       <c r="B3" s="121" t="s">
         <v>92</v>
       </c>
@@ -5273,7 +5278,7 @@
       </c>
       <c r="D3" s="128"/>
     </row>
-    <row r="4" spans="2:13" s="27" customFormat="1" ht="12.75">
+    <row r="4" spans="2:13" s="27" customFormat="1">
       <c r="B4" s="121" t="s">
         <v>91</v>
       </c>
@@ -5283,7 +5288,7 @@
       </c>
       <c r="D4" s="128"/>
     </row>
-    <row r="5" spans="2:13" s="27" customFormat="1" ht="12.75">
+    <row r="5" spans="2:13" s="27" customFormat="1">
       <c r="B5" s="121" t="s">
         <v>90</v>
       </c>
@@ -5293,7 +5298,7 @@
       </c>
       <c r="D5" s="128"/>
     </row>
-    <row r="6" spans="2:13" s="27" customFormat="1" ht="12.75">
+    <row r="6" spans="2:13" s="27" customFormat="1">
       <c r="B6" s="121" t="s">
         <v>89</v>
       </c>
@@ -5303,7 +5308,7 @@
       </c>
       <c r="D6" s="128"/>
     </row>
-    <row r="7" spans="2:13" s="27" customFormat="1" ht="12.75">
+    <row r="7" spans="2:13" s="27" customFormat="1">
       <c r="B7" s="121" t="s">
         <v>88</v>
       </c>
@@ -5335,12 +5340,12 @@
       <c r="D9" s="128"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="2:13" s="27" customFormat="1" ht="12.75">
+    <row r="10" spans="2:13" s="27" customFormat="1">
       <c r="B10" s="121"/>
       <c r="C10" s="129"/>
       <c r="D10" s="128"/>
     </row>
-    <row r="11" spans="2:13" s="27" customFormat="1" ht="15.95" customHeight="1">
+    <row r="11" spans="2:13" s="27" customFormat="1" ht="16" customHeight="1">
       <c r="B11" s="121"/>
       <c r="C11" s="127" t="str">
         <f>ProjNo</f>
@@ -5351,7 +5356,7 @@
         <v>Cloud Based Bioinformatics Tools</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="27" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="2:13" s="27" customFormat="1" ht="16" customHeight="1">
       <c r="B12" s="121"/>
       <c r="C12" s="125" t="s">
         <v>85</v>
@@ -5362,7 +5367,7 @@
       </c>
       <c r="F12" s="118"/>
     </row>
-    <row r="13" spans="2:13" s="27" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="2:13" s="27" customFormat="1" ht="16" customHeight="1">
       <c r="B13" s="121"/>
       <c r="C13" s="123" t="s">
         <v>84</v>
@@ -5380,7 +5385,7 @@
       <c r="E14" s="119"/>
       <c r="F14" s="118"/>
     </row>
-    <row r="15" spans="2:13" s="27" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="2:13" s="27" customFormat="1" ht="19" customHeight="1">
       <c r="C15" s="117" t="s">
         <v>83</v>
       </c>
@@ -5425,18 +5430,18 @@
       <c r="B18" s="28"/>
       <c r="C18" s="116"/>
       <c r="D18" s="115"/>
-      <c r="E18" s="159" t="s">
+      <c r="E18" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="161"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="137"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="162" t="s">
+      <c r="J18" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="163"/>
-      <c r="L18" s="164"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="140"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
@@ -5565,38 +5570,38 @@
       <c r="U22" s="96"/>
     </row>
     <row r="23" spans="1:21" s="87" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="153" t="s">
+      <c r="C23" s="144"/>
+      <c r="D23" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="155" t="s">
+      <c r="E23" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="157" t="s">
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="147" t="s">
+      <c r="J23" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="148"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="150" t="s">
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="156" t="s">
         <v>61</v>
       </c>
       <c r="N23" s="89"/>
-      <c r="P23" s="152" t="s">
+      <c r="P23" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="152" t="s">
+      <c r="Q23" s="158" t="s">
         <v>59</v>
       </c>
       <c r="S23" s="95" t="s">
@@ -5606,19 +5611,19 @@
         <f>IF(I38&lt;&gt;I39,"RED","Correct "&amp;I38&amp;" = "&amp;I39)</f>
         <v>Correct 289000 = 289000</v>
       </c>
-      <c r="U23" s="139" t="s">
+      <c r="U23" s="145" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="87" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A24" s="136"/>
+      <c r="A24" s="142"/>
       <c r="B24" s="93" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="154"/>
+      <c r="D24" s="160"/>
       <c r="E24" s="92" t="s">
         <v>54</v>
       </c>
@@ -5631,7 +5636,7 @@
       <c r="H24" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="158"/>
+      <c r="I24" s="164"/>
       <c r="J24" s="92" t="s">
         <v>51</v>
       </c>
@@ -5641,10 +5646,10 @@
       <c r="L24" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="151"/>
+      <c r="M24" s="157"/>
       <c r="N24" s="89"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
       <c r="S24" s="87" t="s">
         <v>49</v>
       </c>
@@ -5652,7 +5657,7 @@
         <f>I39*0.3</f>
         <v>86700</v>
       </c>
-      <c r="U24" s="140"/>
+      <c r="U24" s="146"/>
     </row>
     <row r="25" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="71">
@@ -6512,16 +6517,16 @@
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="144" t="str">
+      <c r="F41" s="150" t="str">
         <f>IF(N25&gt;"",N25,IF(N26&gt;"",N26,IF(N27&gt;"",N27,IF(N28&gt;"",N28,IF(N29&gt;"",N29,IF(N30&gt;"",N30,IF(N31&gt;"",N31,IF(N32&gt;"",N32,IF(N33&gt;"",N33,IF(N34&gt;"",N34,IF(N35&gt;"",N35,IF(N36&gt;"",N36,IF(N37&gt;"",N37,IF(I38&lt;&gt;I39,"Your total estimate in cell I38 does not yet equal the Nectar Funds Allocated",""))))))))))))))</f>
         <v/>
       </c>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="146"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="152"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
       <c r="O41" s="28"/>
@@ -6560,17 +6565,17 @@
     <row r="43" spans="1:21" s="27" customFormat="1" ht="54" customHeight="1" thickBot="1">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="143"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="149"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
@@ -6644,7 +6649,7 @@
       <c r="T45" s="28"/>
       <c r="U45" s="28"/>
     </row>
-    <row r="46" spans="1:21" s="27" customFormat="1" ht="26.25" hidden="1">
+    <row r="46" spans="1:21" s="27" customFormat="1" hidden="1">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="33" t="s">
@@ -6832,7 +6837,7 @@
       <c r="T48" s="28"/>
       <c r="U48" s="28"/>
     </row>
-    <row r="49" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+    <row r="49" spans="3:18" s="27" customFormat="1" hidden="1">
       <c r="C49" s="30" t="s">
         <v>38</v>
       </c>
@@ -6894,7 +6899,7 @@
         <v>152482</v>
       </c>
     </row>
-    <row r="50" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+    <row r="50" spans="3:18" s="27" customFormat="1" hidden="1">
       <c r="C50" s="30" t="s">
         <v>37</v>
       </c>
@@ -7018,7 +7023,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="52" spans="3:18" s="27" customFormat="1" ht="25.5" hidden="1">
+    <row r="52" spans="3:18" s="27" customFormat="1" hidden="1">
       <c r="C52" s="33" t="s">
         <v>35</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>323892</v>
       </c>
     </row>
-    <row r="53" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+    <row r="53" spans="3:18" s="27" customFormat="1" hidden="1">
       <c r="C53" s="30" t="s">
         <v>34</v>
       </c>
@@ -7129,7 +7134,7 @@
         <v>330412</v>
       </c>
     </row>
-    <row r="54" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+    <row r="54" spans="3:18" s="27" customFormat="1" hidden="1">
       <c r="C54" s="30" t="s">
         <v>33</v>
       </c>
@@ -7191,7 +7196,7 @@
         <v>102384</v>
       </c>
     </row>
-    <row r="55" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+    <row r="55" spans="3:18" s="27" customFormat="1" hidden="1">
       <c r="C55" s="30" t="s">
         <v>32</v>
       </c>
@@ -7253,7 +7258,7 @@
         <v>102384</v>
       </c>
     </row>
-    <row r="56" spans="3:18" s="27" customFormat="1" ht="12.75" hidden="1">
+    <row r="56" spans="3:18" s="27" customFormat="1" hidden="1">
       <c r="C56" s="30" t="s">
         <v>31</v>
       </c>
@@ -7336,11 +7341,6 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="U23:U24"/>
     <mergeCell ref="C43:M43"/>
     <mergeCell ref="F41:L41"/>
     <mergeCell ref="J23:L23"/>
@@ -7350,6 +7350,11 @@
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="I23:I24"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="U23:U24"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
     <cfRule type="cellIs" dxfId="165" priority="164" operator="equal">
@@ -8198,45 +8203,50 @@
     <hyperlink ref="B9" location="'9.Finance'!FINANCESTART" display="9.Finance"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;F</oddHeader>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="0.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="0.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" customWidth="1"/>
+    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="61.5" thickBot="1">
+    <row r="1" spans="1:20" ht="49" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8277,7 +8287,7 @@
       </c>
       <c r="T1" s="165"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+    <row r="2" spans="1:20" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -8303,7 +8313,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -8346,7 +8356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -8418,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -8459,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1">
+    <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -8531,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1">
+    <row r="7" spans="1:20" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -8603,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -8675,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1">
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -8716,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1">
+    <row r="10" spans="1:20" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -8788,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1">
+    <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -8860,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1">
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -8901,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+    <row r="13" spans="1:20" ht="15" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -8973,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -9045,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+    <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -9117,7 +9127,7 @@
         <v>4927</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1">
+    <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -9133,7 +9143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1">
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -9146,7 +9156,7 @@
       </c>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1">
+    <row r="18" spans="1:20" ht="15" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -9161,7 +9171,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1">
+    <row r="19" spans="1:20" ht="15" thickBot="1">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
@@ -9175,7 +9185,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1">
+    <row r="20" spans="1:20" ht="15" thickBot="1">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
@@ -9186,7 +9196,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1">
+    <row r="21" spans="1:20" ht="15" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -9376,29 +9386,44 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/Reporting Financial Calculations.xlsx
+++ b/usefulTools/TestFilesAndDocuments/steering committee/NeCTAR/NeCTAR Reporting/Reporting Financial Calculations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="29320" windowHeight="18940" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Finance 2" sheetId="4" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>Milestone</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>Sep - Dec</t>
+  </si>
+  <si>
+    <t>note the discrepency 31851 Vs 30251 is believed to be due to nectar dropping funding</t>
   </si>
 </sst>
 </file>
@@ -1883,42 +1886,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1974,6 +1941,42 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5430,18 +5433,18 @@
       <c r="B18" s="28"/>
       <c r="C18" s="116"/>
       <c r="D18" s="115"/>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="155"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="138" t="s">
+      <c r="J18" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="139"/>
-      <c r="L18" s="140"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="158"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
@@ -5570,38 +5573,38 @@
       <c r="U22" s="96"/>
     </row>
     <row r="23" spans="1:21" s="87" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="159" t="s">
+      <c r="C23" s="162"/>
+      <c r="D23" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="161" t="s">
+      <c r="E23" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="163" t="s">
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="153" t="s">
+      <c r="J23" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="154"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="156" t="s">
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="144" t="s">
         <v>61</v>
       </c>
       <c r="N23" s="89"/>
-      <c r="P23" s="158" t="s">
+      <c r="P23" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="158" t="s">
+      <c r="Q23" s="146" t="s">
         <v>59</v>
       </c>
       <c r="S23" s="95" t="s">
@@ -5611,19 +5614,19 @@
         <f>IF(I38&lt;&gt;I39,"RED","Correct "&amp;I38&amp;" = "&amp;I39)</f>
         <v>Correct 289000 = 289000</v>
       </c>
-      <c r="U23" s="145" t="s">
+      <c r="U23" s="163" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="87" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A24" s="142"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="93" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="160"/>
+      <c r="D24" s="148"/>
       <c r="E24" s="92" t="s">
         <v>54</v>
       </c>
@@ -5636,7 +5639,7 @@
       <c r="H24" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="164"/>
+      <c r="I24" s="152"/>
       <c r="J24" s="92" t="s">
         <v>51</v>
       </c>
@@ -5646,10 +5649,10 @@
       <c r="L24" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="157"/>
+      <c r="M24" s="145"/>
       <c r="N24" s="89"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="146"/>
       <c r="S24" s="87" t="s">
         <v>49</v>
       </c>
@@ -5657,7 +5660,7 @@
         <f>I39*0.3</f>
         <v>86700</v>
       </c>
-      <c r="U24" s="146"/>
+      <c r="U24" s="164"/>
     </row>
     <row r="25" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="71">
@@ -6517,16 +6520,16 @@
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="150" t="str">
+      <c r="F41" s="138" t="str">
         <f>IF(N25&gt;"",N25,IF(N26&gt;"",N26,IF(N27&gt;"",N27,IF(N28&gt;"",N28,IF(N29&gt;"",N29,IF(N30&gt;"",N30,IF(N31&gt;"",N31,IF(N32&gt;"",N32,IF(N33&gt;"",N33,IF(N34&gt;"",N34,IF(N35&gt;"",N35,IF(N36&gt;"",N36,IF(N37&gt;"",N37,IF(I38&lt;&gt;I39,"Your total estimate in cell I38 does not yet equal the Nectar Funds Allocated",""))))))))))))))</f>
         <v/>
       </c>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="152"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
+      <c r="K41" s="139"/>
+      <c r="L41" s="140"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
       <c r="O41" s="28"/>
@@ -6565,17 +6568,17 @@
     <row r="43" spans="1:21" s="27" customFormat="1" ht="54" customHeight="1" thickBot="1">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="149"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+      <c r="M43" s="137"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
@@ -7341,6 +7344,11 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="U23:U24"/>
     <mergeCell ref="C43:M43"/>
     <mergeCell ref="F41:L41"/>
     <mergeCell ref="J23:L23"/>
@@ -7350,11 +7358,6 @@
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="I23:I24"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="U23:U24"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
     <cfRule type="cellIs" dxfId="165" priority="164" operator="equal">
@@ -8221,7 +8224,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8848,26 +8851,26 @@
         <v>5822.5</v>
       </c>
       <c r="O11" s="24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P11" s="11">
         <f t="shared" si="2"/>
-        <v>14700</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="11">
         <f t="shared" si="3"/>
-        <v>2911.25</v>
+        <v>0</v>
       </c>
       <c r="R11" s="24">
         <v>1</v>
       </c>
       <c r="S11" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="T11" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2911.25</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1">
@@ -9233,19 +9236,19 @@
       </c>
       <c r="P21" s="11">
         <f>SUM(P4:P15)</f>
-        <v>49002.5</v>
+        <v>34302.5</v>
       </c>
       <c r="Q21" s="11">
         <f>SUM(Q4:Q15)</f>
-        <v>12765.25</v>
+        <v>9854</v>
       </c>
       <c r="S21" s="11">
         <f>SUM(S4:S15)</f>
-        <v>17151.25</v>
+        <v>31851.25</v>
       </c>
       <c r="T21" s="11">
         <f>SUM(T4:T15)</f>
-        <v>4927</v>
+        <v>7838.25</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -9270,11 +9273,11 @@
       </c>
       <c r="P22" s="11">
         <f>P21+M22</f>
-        <v>273447.75</v>
+        <v>258747.75</v>
       </c>
       <c r="Q22" s="11">
         <f>Q21+N22</f>
-        <v>112330</v>
+        <v>109418.75</v>
       </c>
       <c r="S22" s="11">
         <f>S21+P22</f>
@@ -9309,7 +9312,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11">
         <f t="shared" si="11"/>
-        <v>385777.75</v>
+        <v>368166.5</v>
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
@@ -9354,6 +9357,11 @@
         <v>103317.5</v>
       </c>
       <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="S27" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
       <c r="K28" s="11">
